--- a/src/src_metrics.xlsx
+++ b/src/src_metrics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="214">
   <si>
     <t>MethodID</t>
   </si>
@@ -47,6 +47,9 @@
     <t>is_Long_Method</t>
   </si>
   <si>
+    <t>code_smell_detection</t>
+  </si>
+  <si>
     <t>CodeSmellDetector</t>
   </si>
   <si>
@@ -62,7 +65,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>is_god_class</t>
+    <t>-</t>
   </si>
   <si>
     <t>15</t>
@@ -71,9 +74,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>islongmethod</t>
-  </si>
-  <si>
     <t>printResults</t>
   </si>
   <si>
@@ -218,6 +218,9 @@
     <t>hasNoChildren</t>
   </si>
   <si>
+    <t>g1.ISCTE</t>
+  </si>
+  <si>
     <t>App</t>
   </si>
   <si>
@@ -398,13 +401,16 @@
     <t>getCYCLO_method</t>
   </si>
   <si>
+    <t>metric_extraction</t>
+  </si>
+  <si>
     <t>ClassMetrics</t>
   </si>
   <si>
     <t>getLoc_class</t>
   </si>
   <si>
-    <t>84</t>
+    <t>83</t>
   </si>
   <si>
     <t>getNom_class</t>
@@ -455,7 +461,7 @@
     <t>Main</t>
   </si>
   <si>
-    <t>45</t>
+    <t>44</t>
   </si>
   <si>
     <t>16</t>
@@ -494,7 +500,7 @@
     <t>visit</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>getMethods</t>
@@ -506,7 +512,7 @@
     <t>getFilesFromProjectDirectory</t>
   </si>
   <si>
-    <t>152</t>
+    <t>148</t>
   </si>
   <si>
     <t>executeExtraction</t>
@@ -518,7 +524,10 @@
     <t>exportResultsToFile</t>
   </si>
   <si>
-    <t>64</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>RuleEditor</t>
   </si>
   <si>
     <t>AndBlock</t>
@@ -766,6 +775,9 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -775,10 +787,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -790,13 +802,16 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
+      <c r="K3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -804,31 +819,34 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -836,31 +854,34 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -868,31 +889,34 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -900,31 +924,34 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" t="s">
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -932,31 +959,34 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -964,31 +994,34 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
       <c r="H9" t="s">
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -996,31 +1029,34 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
       <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1028,31 +1064,34 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
       <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -1060,31 +1099,34 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1092,31 +1134,34 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1124,31 +1169,34 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
       <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1156,31 +1204,34 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
       <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1188,31 +1239,34 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
       <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -1220,31 +1274,34 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
       <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -1252,31 +1309,34 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
       <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1284,31 +1344,34 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
       <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>44</v>
       </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -1316,31 +1379,34 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
       <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>44</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>19</v>
+      <c r="K20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -1348,31 +1414,34 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
       <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
         <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -1380,31 +1449,34 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
       <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
         <v>54</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1412,31 +1484,34 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
       <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>54</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1444,31 +1519,34 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
       <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
         <v>54</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1476,31 +1554,34 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
       <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
         <v>54</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1508,31 +1589,34 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
       <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
         <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
@@ -1540,31 +1624,34 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>52</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>60</v>
       </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
       <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
         <v>54</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1572,31 +1659,34 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>62</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>38</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>63</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>38</v>
       </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1604,31 +1694,34 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>38</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>63</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>38</v>
       </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1636,31 +1729,34 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>38</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>63</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>38</v>
       </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -1668,31 +1764,34 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>64</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>38</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>63</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>38</v>
       </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1700,31 +1799,34 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>38</v>
       </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
@@ -1732,31 +1834,34 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>58</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>38</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>38</v>
       </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1764,31 +1869,34 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>59</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>63</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>38</v>
       </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1796,31 +1904,34 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
         <v>61</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>63</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>38</v>
       </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -1828,31 +1939,34 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>67</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>38</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>63</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>38</v>
       </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -1866,25 +1980,28 @@
         <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -1892,31 +2009,34 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
       </c>
       <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
         <v>21</v>
       </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
       <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
         <v>30</v>
       </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
       <c r="H38" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -1924,31 +2044,34 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
         <v>21</v>
       </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
       <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
         <v>30</v>
       </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
       <c r="H39" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -1956,31 +2079,34 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" t="s">
-        <v>28</v>
-      </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -1988,31 +2114,34 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" t="s">
         <v>21</v>
       </c>
-      <c r="E41" t="s">
-        <v>73</v>
-      </c>
       <c r="F41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s">
         <v>30</v>
       </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
       <c r="H41" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -2020,31 +2149,34 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
         <v>21</v>
       </c>
-      <c r="E42" t="s">
-        <v>73</v>
-      </c>
       <c r="F42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
         <v>30</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
         <v>16</v>
       </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>28</v>
-      </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -2052,31 +2184,34 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="E43" t="s">
-        <v>73</v>
-      </c>
       <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" t="s">
         <v>30</v>
       </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
       <c r="H43" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -2084,31 +2219,34 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" t="s">
         <v>21</v>
       </c>
-      <c r="E44" t="s">
-        <v>73</v>
-      </c>
       <c r="F44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" t="s">
         <v>30</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
         <v>16</v>
       </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" t="s">
-        <v>28</v>
-      </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -2116,31 +2254,34 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" t="s">
         <v>21</v>
       </c>
-      <c r="E45" t="s">
-        <v>73</v>
-      </c>
       <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
         <v>30</v>
       </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
       <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
         <v>32</v>
       </c>
-      <c r="I45" t="s">
-        <v>28</v>
-      </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -2148,31 +2289,34 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
         <v>21</v>
       </c>
-      <c r="E46" t="s">
-        <v>73</v>
-      </c>
       <c r="F46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" t="s">
         <v>30</v>
       </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
       <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
         <v>32</v>
       </c>
-      <c r="I46" t="s">
-        <v>28</v>
-      </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -2180,31 +2324,34 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
         <v>21</v>
       </c>
-      <c r="E47" t="s">
-        <v>73</v>
-      </c>
       <c r="F47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
         <v>30</v>
       </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
       <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
         <v>25</v>
       </c>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -2212,31 +2359,34 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
         <v>21</v>
       </c>
-      <c r="E48" t="s">
-        <v>73</v>
-      </c>
       <c r="F48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
         <v>30</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
         <v>16</v>
       </c>
-      <c r="H48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s">
-        <v>28</v>
-      </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -2244,31 +2394,34 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
         <v>44</v>
       </c>
-      <c r="F49" t="s">
-        <v>28</v>
-      </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -2276,31 +2429,34 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
         <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -2308,31 +2464,34 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
         <v>91</v>
       </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" t="s">
-        <v>76</v>
-      </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
         <v>44</v>
       </c>
-      <c r="I51" t="s">
-        <v>28</v>
-      </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -2340,31 +2499,34 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
         <v>94</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -2372,31 +2534,34 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
         <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -2404,31 +2569,34 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
         <v>94</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H54" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -2436,31 +2604,34 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
         <v>94</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H55" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -2468,31 +2639,34 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
         <v>94</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -2500,31 +2674,34 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
         <v>94</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -2532,31 +2709,34 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
         <v>94</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H58" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -2564,31 +2744,34 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
         <v>94</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
         <v>21</v>
       </c>
-      <c r="I59" t="s">
-        <v>28</v>
-      </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -2596,31 +2779,34 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
         <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
@@ -2628,31 +2814,34 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F61" t="s">
         <v>94</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
         <v>21</v>
       </c>
-      <c r="I61" t="s">
-        <v>28</v>
-      </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -2660,31 +2849,34 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
         <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -2692,31 +2884,34 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
         <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H63" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -2724,31 +2919,34 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F64" t="s">
         <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H64" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="J64" t="s">
         <v>19</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -2756,31 +2954,34 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
         <v>94</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
         <v>51</v>
       </c>
-      <c r="I65" t="s">
-        <v>18</v>
-      </c>
       <c r="J65" t="s">
         <v>19</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -2788,31 +2989,34 @@
         <v>65.0</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
         <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
         <v>44</v>
       </c>
-      <c r="I66" t="s">
-        <v>28</v>
-      </c>
       <c r="J66" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -2820,31 +3024,34 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
         <v>113</v>
       </c>
       <c r="D67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" t="s">
         <v>32</v>
       </c>
-      <c r="E67" t="s">
-        <v>114</v>
-      </c>
       <c r="F67" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" t="s">
         <v>27</v>
       </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
       <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
         <v>44</v>
       </c>
-      <c r="I67" t="s">
-        <v>18</v>
-      </c>
       <c r="J67" t="s">
         <v>19</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -2852,31 +3059,34 @@
         <v>67.0</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
         <v>115</v>
       </c>
-      <c r="D68" t="s">
-        <v>32</v>
-      </c>
-      <c r="E68" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>27</v>
       </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
       <c r="H68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
         <v>44</v>
       </c>
-      <c r="I68" t="s">
-        <v>18</v>
-      </c>
       <c r="J68" t="s">
         <v>19</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -2884,31 +3094,34 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" t="s">
         <v>32</v>
       </c>
-      <c r="E69" t="s">
-        <v>114</v>
-      </c>
       <c r="F69" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" t="s">
         <v>27</v>
       </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
       <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s">
         <v>44</v>
       </c>
-      <c r="I69" t="s">
-        <v>18</v>
-      </c>
       <c r="J69" t="s">
         <v>19</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -2916,31 +3129,34 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" t="s">
         <v>32</v>
       </c>
-      <c r="E70" t="s">
-        <v>114</v>
-      </c>
       <c r="F70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" t="s">
         <v>27</v>
       </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
       <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
         <v>44</v>
       </c>
-      <c r="I70" t="s">
-        <v>18</v>
-      </c>
       <c r="J70" t="s">
         <v>19</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -2948,22 +3164,22 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" t="s">
         <v>32</v>
       </c>
-      <c r="E71" t="s">
-        <v>114</v>
-      </c>
       <c r="F71" t="s">
+        <v>115</v>
+      </c>
+      <c r="G71" t="s">
         <v>27</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
       </c>
       <c r="H71" t="s">
         <v>17</v>
@@ -2973,6 +3189,9 @@
       </c>
       <c r="J71" t="s">
         <v>19</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
@@ -2980,31 +3199,34 @@
         <v>71.0</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" t="s">
         <v>32</v>
       </c>
-      <c r="E72" t="s">
-        <v>114</v>
-      </c>
       <c r="F72" t="s">
+        <v>115</v>
+      </c>
+      <c r="G72" t="s">
         <v>27</v>
       </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
       <c r="H72" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="J72" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73">
@@ -3012,31 +3234,34 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" t="s">
         <v>32</v>
       </c>
-      <c r="E73" t="s">
-        <v>114</v>
-      </c>
       <c r="F73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" t="s">
         <v>27</v>
       </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J73" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
@@ -3044,31 +3269,34 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" t="s">
         <v>32</v>
       </c>
-      <c r="E74" t="s">
-        <v>114</v>
-      </c>
       <c r="F74" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" t="s">
         <v>27</v>
       </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
       <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s">
         <v>21</v>
       </c>
-      <c r="I74" t="s">
-        <v>28</v>
-      </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -3076,31 +3304,34 @@
         <v>74.0</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
         <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K75" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -3108,31 +3339,34 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s">
         <v>124</v>
       </c>
-      <c r="D76" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" t="s">
-        <v>123</v>
-      </c>
-      <c r="F76" t="s">
-        <v>74</v>
-      </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I76" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -3140,31 +3374,34 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I77" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K77" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78">
@@ -3172,31 +3409,34 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J78" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79">
@@ -3204,31 +3444,34 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E79" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80">
@@ -3236,31 +3479,34 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D80" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" t="s">
         <v>38</v>
       </c>
-      <c r="E80" t="s">
-        <v>130</v>
-      </c>
       <c r="F80" t="s">
+        <v>132</v>
+      </c>
+      <c r="G80" t="s">
         <v>30</v>
       </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -3268,31 +3514,34 @@
         <v>80.0</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" t="s">
         <v>38</v>
       </c>
-      <c r="E81" t="s">
-        <v>130</v>
-      </c>
       <c r="F81" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" t="s">
         <v>30</v>
       </c>
-      <c r="G81" t="s">
-        <v>16</v>
-      </c>
       <c r="H81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J81" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K81" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -3300,31 +3549,34 @@
         <v>81.0</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" t="s">
         <v>132</v>
       </c>
-      <c r="D82" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" t="s">
-        <v>130</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>30</v>
       </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K82" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83">
@@ -3332,31 +3584,34 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D83" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" t="s">
         <v>38</v>
       </c>
-      <c r="E83" t="s">
-        <v>130</v>
-      </c>
       <c r="F83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" t="s">
         <v>30</v>
       </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K83" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
@@ -3364,31 +3619,34 @@
         <v>83.0</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D84" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" t="s">
         <v>38</v>
       </c>
-      <c r="E84" t="s">
-        <v>130</v>
-      </c>
       <c r="F84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" t="s">
         <v>30</v>
       </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I84" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J84" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K84" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -3396,31 +3654,34 @@
         <v>84.0</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" t="s">
         <v>38</v>
       </c>
-      <c r="E85" t="s">
-        <v>130</v>
-      </c>
       <c r="F85" t="s">
+        <v>132</v>
+      </c>
+      <c r="G85" t="s">
         <v>30</v>
       </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J85" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K85" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86">
@@ -3428,31 +3689,34 @@
         <v>85.0</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D86" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" t="s">
         <v>38</v>
       </c>
-      <c r="E86" t="s">
-        <v>130</v>
-      </c>
       <c r="F86" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" t="s">
         <v>30</v>
       </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
       <c r="H86" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I86" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J86" t="s">
         <v>19</v>
+      </c>
+      <c r="K86" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87">
@@ -3460,31 +3724,34 @@
         <v>86.0</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" t="s">
         <v>38</v>
       </c>
-      <c r="E87" t="s">
-        <v>130</v>
-      </c>
       <c r="F87" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87" t="s">
         <v>30</v>
       </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
       <c r="H87" t="s">
         <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K87" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88">
@@ -3492,31 +3759,34 @@
         <v>87.0</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" t="s">
         <v>38</v>
       </c>
-      <c r="E88" t="s">
-        <v>130</v>
-      </c>
       <c r="F88" t="s">
+        <v>132</v>
+      </c>
+      <c r="G88" t="s">
         <v>30</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s">
         <v>16</v>
       </c>
-      <c r="H88" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" t="s">
-        <v>28</v>
-      </c>
       <c r="J88" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -3524,31 +3794,34 @@
         <v>88.0</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" t="s">
         <v>29</v>
       </c>
-      <c r="D89" t="s">
-        <v>74</v>
-      </c>
       <c r="E89" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="F89" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" t="s">
         <v>25</v>
       </c>
-      <c r="G89" t="s">
-        <v>16</v>
-      </c>
       <c r="H89" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="I89" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="J89" t="s">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="K89" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -3556,31 +3829,34 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
+        <v>141</v>
+      </c>
+      <c r="D90" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90" t="s">
         <v>142</v>
       </c>
-      <c r="D90" t="s">
-        <v>74</v>
-      </c>
-      <c r="E90" t="s">
-        <v>140</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>25</v>
       </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
       <c r="H90" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K90" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -3588,31 +3864,34 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D91" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E91" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="F91" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" t="s">
         <v>25</v>
       </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
       <c r="H91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
         <v>51</v>
       </c>
-      <c r="I91" t="s">
-        <v>28</v>
-      </c>
       <c r="J91" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K91" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="92">
@@ -3620,31 +3899,34 @@
         <v>91.0</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="E92" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="F92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" t="s">
         <v>25</v>
       </c>
-      <c r="G92" t="s">
-        <v>16</v>
-      </c>
       <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
         <v>25</v>
       </c>
-      <c r="I92" t="s">
-        <v>13</v>
-      </c>
       <c r="J92" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K92" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93">
@@ -3652,31 +3934,34 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="F93" t="s">
+        <v>142</v>
+      </c>
+      <c r="G93" t="s">
         <v>25</v>
       </c>
-      <c r="G93" t="s">
-        <v>16</v>
-      </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K93" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -3684,31 +3969,34 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="G94" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H94" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="J94" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K94" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95">
@@ -3716,31 +4004,34 @@
         <v>94.0</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" t="s">
         <v>32</v>
       </c>
-      <c r="E95" t="s">
-        <v>151</v>
-      </c>
       <c r="F95" t="s">
+        <v>153</v>
+      </c>
+      <c r="G95" t="s">
         <v>21</v>
       </c>
-      <c r="G95" t="s">
-        <v>16</v>
-      </c>
       <c r="H95" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" t="s">
         <v>22</v>
       </c>
-      <c r="I95" t="s">
-        <v>28</v>
-      </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -3748,31 +4039,34 @@
         <v>95.0</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D96" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" t="s">
         <v>32</v>
       </c>
-      <c r="E96" t="s">
-        <v>151</v>
-      </c>
       <c r="F96" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" t="s">
         <v>21</v>
       </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
       <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
         <v>30</v>
       </c>
-      <c r="I96" t="s">
-        <v>18</v>
-      </c>
       <c r="J96" t="s">
         <v>19</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="97">
@@ -3780,31 +4074,34 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" t="s">
         <v>153</v>
       </c>
-      <c r="D97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97" t="s">
-        <v>151</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>21</v>
       </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
       <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s">
         <v>25</v>
       </c>
-      <c r="I97" t="s">
-        <v>13</v>
-      </c>
       <c r="J97" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="98">
@@ -3812,31 +4109,34 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" t="s">
         <v>32</v>
       </c>
-      <c r="E98" t="s">
-        <v>151</v>
-      </c>
       <c r="F98" t="s">
+        <v>153</v>
+      </c>
+      <c r="G98" t="s">
         <v>21</v>
       </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I98" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J98" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K98" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="99">
@@ -3844,31 +4144,34 @@
         <v>98.0</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D99" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" t="s">
         <v>32</v>
       </c>
-      <c r="E99" t="s">
-        <v>151</v>
-      </c>
       <c r="F99" t="s">
+        <v>153</v>
+      </c>
+      <c r="G99" t="s">
         <v>21</v>
       </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
       <c r="H99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I99" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J99" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K99" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="100">
@@ -3876,31 +4179,34 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C100" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" t="s">
         <v>32</v>
       </c>
-      <c r="E100" t="s">
-        <v>151</v>
-      </c>
       <c r="F100" t="s">
+        <v>153</v>
+      </c>
+      <c r="G100" t="s">
         <v>21</v>
       </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I100" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J100" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K100" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="101">
@@ -3908,31 +4214,34 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C101" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" t="s">
         <v>32</v>
       </c>
-      <c r="E101" t="s">
-        <v>151</v>
-      </c>
       <c r="F101" t="s">
+        <v>153</v>
+      </c>
+      <c r="G101" t="s">
         <v>21</v>
       </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
       <c r="H101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I101" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J101" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K101" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="102">
@@ -3940,31 +4249,34 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D102" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" t="s">
         <v>32</v>
       </c>
-      <c r="E102" t="s">
-        <v>151</v>
-      </c>
       <c r="F102" t="s">
+        <v>153</v>
+      </c>
+      <c r="G102" t="s">
         <v>21</v>
       </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
       <c r="H102" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I102" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="J102" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K102" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="103">
@@ -3972,31 +4284,34 @@
         <v>102.0</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="E103" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G103" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s">
         <v>32</v>
       </c>
-      <c r="I103" t="s">
-        <v>13</v>
-      </c>
       <c r="J103" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K103" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104">
@@ -4004,31 +4319,34 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="E104" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G104" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I104" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J104" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K104" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="105">
@@ -4036,31 +4354,34 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C105" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D105" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="F105" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G105" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="H105" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" t="s">
         <v>38</v>
       </c>
-      <c r="I105" t="s">
-        <v>18</v>
-      </c>
       <c r="J105" t="s">
         <v>19</v>
+      </c>
+      <c r="K105" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="106">
@@ -4068,31 +4389,34 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C106" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D106" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="E106" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G106" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I106" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J106" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K106" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="107">
@@ -4100,31 +4424,34 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D107" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="E107" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="F107" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G107" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="H107" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="I107" t="s">
+        <v>168</v>
+      </c>
+      <c r="J107" t="s">
         <v>22</v>
       </c>
-      <c r="J107" t="s">
-        <v>19</v>
+      <c r="K107" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="108">
@@ -4132,31 +4459,34 @@
         <v>107.0</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D108" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="E108" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="F108" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G108" t="s">
+        <v>150</v>
+      </c>
+      <c r="H108" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s">
+        <v>170</v>
+      </c>
+      <c r="J108" t="s">
         <v>16</v>
       </c>
-      <c r="H108" t="s">
-        <v>168</v>
-      </c>
-      <c r="I108" t="s">
-        <v>15</v>
-      </c>
-      <c r="J108" t="s">
-        <v>19</v>
+      <c r="K108" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="109">
@@ -4164,31 +4494,34 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C109" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" t="s">
         <v>40</v>
       </c>
-      <c r="D109" t="s">
-        <v>74</v>
-      </c>
       <c r="E109" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="F109" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G109" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I109" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J109" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K109" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="110">
@@ -4196,31 +4529,34 @@
         <v>109.0</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C110" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D110" t="s">
+        <v>173</v>
+      </c>
+      <c r="E110" t="s">
         <v>25</v>
       </c>
-      <c r="E110" t="s">
-        <v>171</v>
-      </c>
       <c r="F110" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G110" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I110" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J110" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K110" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="111">
@@ -4228,31 +4564,34 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D111" t="s">
+        <v>176</v>
+      </c>
+      <c r="E111" t="s">
         <v>25</v>
       </c>
-      <c r="E111" t="s">
-        <v>171</v>
-      </c>
       <c r="F111" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G111" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H111" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" t="s">
         <v>38</v>
       </c>
-      <c r="I111" t="s">
-        <v>28</v>
-      </c>
       <c r="J111" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K111" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="112">
@@ -4260,31 +4599,34 @@
         <v>111.0</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C112" t="s">
+        <v>172</v>
+      </c>
+      <c r="D112" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" t="s">
         <v>174</v>
       </c>
-      <c r="D112" t="s">
-        <v>25</v>
-      </c>
-      <c r="E112" t="s">
-        <v>171</v>
-      </c>
-      <c r="F112" t="s">
-        <v>172</v>
-      </c>
       <c r="G112" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I112" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J112" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K112" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="113">
@@ -4292,31 +4634,34 @@
         <v>112.0</v>
       </c>
       <c r="B113" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C113" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" t="s">
+        <v>174</v>
+      </c>
+      <c r="G113" t="s">
         <v>175</v>
       </c>
-      <c r="D113" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" t="s">
-        <v>171</v>
-      </c>
-      <c r="F113" t="s">
-        <v>172</v>
-      </c>
-      <c r="G113" t="s">
-        <v>16</v>
-      </c>
       <c r="H113" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="I113" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="J113" t="s">
-        <v>19</v>
+        <v>77</v>
+      </c>
+      <c r="K113" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="114">
@@ -4324,31 +4669,34 @@
         <v>113.0</v>
       </c>
       <c r="B114" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C114" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D114" t="s">
+        <v>180</v>
+      </c>
+      <c r="E114" t="s">
         <v>25</v>
       </c>
-      <c r="E114" t="s">
-        <v>171</v>
-      </c>
       <c r="F114" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G114" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H114" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s">
         <v>51</v>
       </c>
-      <c r="I114" t="s">
-        <v>76</v>
-      </c>
       <c r="J114" t="s">
-        <v>19</v>
+        <v>77</v>
+      </c>
+      <c r="K114" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="115">
@@ -4356,31 +4704,34 @@
         <v>114.0</v>
       </c>
       <c r="B115" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C115" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D115" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" t="s">
         <v>25</v>
       </c>
-      <c r="E115" t="s">
-        <v>171</v>
-      </c>
       <c r="F115" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G115" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H115" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I115" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="J115" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K115" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="116">
@@ -4388,31 +4739,34 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C116" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D116" t="s">
+        <v>182</v>
+      </c>
+      <c r="E116" t="s">
         <v>25</v>
       </c>
-      <c r="E116" t="s">
-        <v>171</v>
-      </c>
       <c r="F116" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G116" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I116" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J116" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K116" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="117">
@@ -4420,31 +4774,34 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C117" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D117" t="s">
+        <v>183</v>
+      </c>
+      <c r="E117" t="s">
         <v>25</v>
       </c>
-      <c r="E117" t="s">
-        <v>171</v>
-      </c>
       <c r="F117" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G117" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I117" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J117" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K117" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="118">
@@ -4452,31 +4809,34 @@
         <v>117.0</v>
       </c>
       <c r="B118" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C118" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D118" t="s">
+        <v>184</v>
+      </c>
+      <c r="E118" t="s">
         <v>25</v>
       </c>
-      <c r="E118" t="s">
-        <v>171</v>
-      </c>
       <c r="F118" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G118" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J118" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K118" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="119">
@@ -4484,31 +4844,34 @@
         <v>118.0</v>
       </c>
       <c r="B119" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D119" t="s">
+        <v>185</v>
+      </c>
+      <c r="E119" t="s">
         <v>25</v>
       </c>
-      <c r="E119" t="s">
-        <v>171</v>
-      </c>
       <c r="F119" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H119" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s">
         <v>38</v>
       </c>
-      <c r="I119" t="s">
-        <v>28</v>
-      </c>
       <c r="J119" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K119" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="120">
@@ -4516,31 +4879,34 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D120" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="E120" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F120" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G120" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I120" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J120" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K120" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="121">
@@ -4548,31 +4914,34 @@
         <v>120.0</v>
       </c>
       <c r="B121" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D121" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="E121" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F121" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G121" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I121" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J121" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K121" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="122">
@@ -4580,31 +4949,34 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D122" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="E122" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F122" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G122" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H122" t="s">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s">
         <v>32</v>
       </c>
-      <c r="I122" t="s">
-        <v>28</v>
-      </c>
       <c r="J122" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K122" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="123">
@@ -4612,31 +4984,34 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D123" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="E123" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F123" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G123" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H123" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="I123" t="s">
+        <v>143</v>
+      </c>
+      <c r="J123" t="s">
         <v>22</v>
       </c>
-      <c r="J123" t="s">
-        <v>19</v>
+      <c r="K123" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -4644,31 +5019,34 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C124" t="s">
+        <v>186</v>
+      </c>
+      <c r="D124" t="s">
+        <v>191</v>
+      </c>
+      <c r="E124" t="s">
+        <v>71</v>
+      </c>
+      <c r="F124" t="s">
         <v>188</v>
       </c>
-      <c r="D124" t="s">
-        <v>70</v>
-      </c>
-      <c r="E124" t="s">
-        <v>185</v>
-      </c>
-      <c r="F124" t="s">
-        <v>186</v>
-      </c>
       <c r="G124" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I124" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J124" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K124" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="125">
@@ -4676,31 +5054,34 @@
         <v>124.0</v>
       </c>
       <c r="B125" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C125" t="s">
+        <v>186</v>
+      </c>
+      <c r="D125" t="s">
+        <v>191</v>
+      </c>
+      <c r="E125" t="s">
+        <v>71</v>
+      </c>
+      <c r="F125" t="s">
         <v>188</v>
       </c>
-      <c r="D125" t="s">
-        <v>70</v>
-      </c>
-      <c r="E125" t="s">
-        <v>185</v>
-      </c>
-      <c r="F125" t="s">
-        <v>186</v>
-      </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H125" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="I125" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
+      </c>
+      <c r="K125" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="126">
@@ -4708,31 +5089,34 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C126" t="s">
+        <v>186</v>
+      </c>
+      <c r="D126" t="s">
+        <v>192</v>
+      </c>
+      <c r="E126" t="s">
+        <v>71</v>
+      </c>
+      <c r="F126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G126" t="s">
         <v>189</v>
       </c>
-      <c r="D126" t="s">
-        <v>70</v>
-      </c>
-      <c r="E126" t="s">
-        <v>185</v>
-      </c>
-      <c r="F126" t="s">
-        <v>186</v>
-      </c>
-      <c r="G126" t="s">
-        <v>16</v>
-      </c>
       <c r="H126" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="J126" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="K126" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -4740,31 +5124,34 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C127" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D127" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="E127" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F127" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G127" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H127" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s">
         <v>43</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>22</v>
       </c>
-      <c r="J127" t="s">
-        <v>19</v>
+      <c r="K127" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="128">
@@ -4772,31 +5159,34 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C128" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D128" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="E128" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F128" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G128" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H128" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s">
         <v>54</v>
       </c>
-      <c r="I128" t="s">
-        <v>74</v>
-      </c>
       <c r="J128" t="s">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="K128" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="129">
@@ -4804,31 +5194,34 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D129" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="E129" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F129" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G129" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H129" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s">
         <v>44</v>
       </c>
-      <c r="I129" t="s">
-        <v>28</v>
-      </c>
       <c r="J129" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K129" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="130">
@@ -4836,31 +5229,34 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" t="s">
         <v>183</v>
       </c>
-      <c r="C130" t="s">
-        <v>180</v>
-      </c>
-      <c r="D130" t="s">
-        <v>70</v>
-      </c>
       <c r="E130" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F130" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G130" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I130" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K130" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="131">
@@ -4868,31 +5264,34 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C131" t="s">
+        <v>186</v>
+      </c>
+      <c r="D131" t="s">
         <v>45</v>
       </c>
-      <c r="D131" t="s">
-        <v>70</v>
-      </c>
       <c r="E131" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F131" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G131" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I131" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J131" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K131" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="132">
@@ -4900,31 +5299,34 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D132" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="E132" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F132" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G132" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I132" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J132" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K132" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="133">
@@ -4932,31 +5334,34 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C133" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D133" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="E133" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F133" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G133" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="H133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I133" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J133" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K133" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="134">
@@ -4964,31 +5369,34 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C134" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="E134" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="G134" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H134" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="I134" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="J134" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K134" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="135">
@@ -4996,31 +5404,34 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C135" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="E135" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="G135" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H135" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="I135" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="J135" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K135" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="136">
@@ -5028,31 +5439,34 @@
         <v>135.0</v>
       </c>
       <c r="B136" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C136" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="E136" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H136" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="I136" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="J136" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K136" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="137">
@@ -5060,31 +5474,34 @@
         <v>136.0</v>
       </c>
       <c r="B137" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C137" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="E137" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I137" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J137" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K137" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="138">
@@ -5092,31 +5509,34 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C138" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="E138" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J138" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K138" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="139">
@@ -5124,31 +5544,34 @@
         <v>138.0</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C139" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="E139" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="F139" t="s">
+        <v>202</v>
+      </c>
+      <c r="G139" t="s">
         <v>27</v>
       </c>
-      <c r="G139" t="s">
-        <v>16</v>
-      </c>
       <c r="H139" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" t="s">
         <v>44</v>
       </c>
-      <c r="I139" t="s">
-        <v>28</v>
-      </c>
       <c r="J139" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K139" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="140">
@@ -5156,31 +5579,34 @@
         <v>139.0</v>
       </c>
       <c r="B140" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C140" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="E140" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="F140" t="s">
+        <v>202</v>
+      </c>
+      <c r="G140" t="s">
         <v>27</v>
       </c>
-      <c r="G140" t="s">
-        <v>16</v>
-      </c>
       <c r="H140" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="I140" t="s">
+        <v>204</v>
+      </c>
+      <c r="J140" t="s">
         <v>22</v>
       </c>
-      <c r="J140" t="s">
-        <v>19</v>
+      <c r="K140" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="141">
@@ -5188,31 +5614,34 @@
         <v>140.0</v>
       </c>
       <c r="B141" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C141" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E141" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="F141" t="s">
+        <v>202</v>
+      </c>
+      <c r="G141" t="s">
         <v>27</v>
       </c>
-      <c r="G141" t="s">
-        <v>16</v>
-      </c>
       <c r="H141" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" t="s">
         <v>44</v>
       </c>
-      <c r="I141" t="s">
-        <v>28</v>
-      </c>
       <c r="J141" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K141" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="142">
@@ -5220,31 +5649,34 @@
         <v>141.0</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C142" t="s">
+        <v>201</v>
+      </c>
+      <c r="D142" t="s">
+        <v>205</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" t="s">
         <v>202</v>
       </c>
-      <c r="D142" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" t="s">
-        <v>199</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>27</v>
       </c>
-      <c r="G142" t="s">
-        <v>16</v>
-      </c>
       <c r="H142" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="I142" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="J142" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K142" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="143">
@@ -5252,31 +5684,34 @@
         <v>142.0</v>
       </c>
       <c r="B143" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C143" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="E143" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="F143" t="s">
+        <v>202</v>
+      </c>
+      <c r="G143" t="s">
         <v>27</v>
       </c>
-      <c r="G143" t="s">
-        <v>16</v>
-      </c>
       <c r="H143" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" t="s">
         <v>27</v>
       </c>
-      <c r="I143" t="s">
-        <v>28</v>
-      </c>
       <c r="J143" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K143" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="144">
@@ -5284,31 +5719,34 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C144" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="E144" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="F144" t="s">
+        <v>202</v>
+      </c>
+      <c r="G144" t="s">
         <v>27</v>
       </c>
-      <c r="G144" t="s">
-        <v>16</v>
-      </c>
       <c r="H144" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="I144" t="s">
+        <v>179</v>
+      </c>
+      <c r="J144" t="s">
         <v>25</v>
       </c>
-      <c r="J144" t="s">
-        <v>19</v>
+      <c r="K144" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="145">
@@ -5316,31 +5754,34 @@
         <v>144.0</v>
       </c>
       <c r="B145" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C145" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E145" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
+        <v>202</v>
+      </c>
+      <c r="G145" t="s">
         <v>27</v>
       </c>
-      <c r="G145" t="s">
-        <v>16</v>
-      </c>
       <c r="H145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I145" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J145" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K145" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="146">
@@ -5348,31 +5789,34 @@
         <v>145.0</v>
       </c>
       <c r="B146" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="C146" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E146" t="s">
+        <v>28</v>
+      </c>
+      <c r="F146" t="s">
         <v>38</v>
       </c>
-      <c r="F146" t="s">
-        <v>28</v>
-      </c>
       <c r="G146" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I146" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J146" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K146" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="147">
@@ -5380,31 +5824,34 @@
         <v>146.0</v>
       </c>
       <c r="B147" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C147" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D147" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="E147" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="F147" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="G147" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I147" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J147" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K147" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="148">
@@ -5412,31 +5859,34 @@
         <v>147.0</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C148" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="D148" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="E148" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="F148" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="G148" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I148" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J148" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K148" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="149">
@@ -5444,31 +5894,34 @@
         <v>148.0</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C149" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="D149" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="E149" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="F149" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="G149" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H149" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" t="s">
         <v>32</v>
       </c>
-      <c r="I149" t="s">
-        <v>28</v>
-      </c>
       <c r="J149" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K149" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="150">
@@ -5476,31 +5929,34 @@
         <v>149.0</v>
       </c>
       <c r="B150" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C150" t="s">
         <v>209</v>
       </c>
       <c r="D150" t="s">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="E150" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="F150" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="G150" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I150" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J150" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K150" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="151">
@@ -5508,31 +5964,34 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C151" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D151" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="E151" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="F151" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="G151" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I151" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J151" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K151" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="152">
@@ -5540,31 +5999,34 @@
         <v>151.0</v>
       </c>
       <c r="B152" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C152" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="D152" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="E152" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="F152" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="G152" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H152" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s">
         <v>38</v>
       </c>
-      <c r="I152" t="s">
-        <v>28</v>
-      </c>
       <c r="J152" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K152" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="153">
@@ -5572,31 +6034,34 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C153" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="D153" t="s">
+        <v>73</v>
+      </c>
+      <c r="E153" t="s">
         <v>25</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>54</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>25</v>
       </c>
-      <c r="G153" t="s">
-        <v>16</v>
-      </c>
       <c r="H153" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I153" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K153" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="154">
@@ -5604,31 +6069,34 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C154" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="D154" t="s">
+        <v>76</v>
+      </c>
+      <c r="E154" t="s">
         <v>25</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>54</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>25</v>
       </c>
-      <c r="G154" t="s">
-        <v>16</v>
-      </c>
       <c r="H154" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I154" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K154" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="155">
@@ -5636,31 +6104,34 @@
         <v>154.0</v>
       </c>
       <c r="B155" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C155" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="D155" t="s">
+        <v>78</v>
+      </c>
+      <c r="E155" t="s">
         <v>25</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>54</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>25</v>
       </c>
-      <c r="G155" t="s">
-        <v>16</v>
-      </c>
       <c r="H155" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I155" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K155" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="156">
@@ -5668,31 +6139,34 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C156" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="D156" t="s">
+        <v>79</v>
+      </c>
+      <c r="E156" t="s">
         <v>25</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>54</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>25</v>
       </c>
-      <c r="G156" t="s">
-        <v>16</v>
-      </c>
       <c r="H156" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I156" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K156" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="157">
@@ -5700,31 +6174,34 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C157" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="D157" t="s">
+        <v>80</v>
+      </c>
+      <c r="E157" t="s">
         <v>25</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>54</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>25</v>
       </c>
-      <c r="G157" t="s">
-        <v>16</v>
-      </c>
       <c r="H157" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I157" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K157" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="158">
@@ -5732,31 +6209,34 @@
         <v>157.0</v>
       </c>
       <c r="B158" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C158" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="D158" t="s">
+        <v>81</v>
+      </c>
+      <c r="E158" t="s">
         <v>25</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>54</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>25</v>
       </c>
-      <c r="G158" t="s">
-        <v>16</v>
-      </c>
       <c r="H158" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I158" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K158" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="159">
@@ -5764,31 +6244,34 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C159" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="D159" t="s">
+        <v>83</v>
+      </c>
+      <c r="E159" t="s">
         <v>25</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>54</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>25</v>
       </c>
-      <c r="G159" t="s">
-        <v>16</v>
-      </c>
       <c r="H159" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I159" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K159" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="160">
@@ -5796,31 +6279,34 @@
         <v>159.0</v>
       </c>
       <c r="B160" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C160" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="D160" t="s">
+        <v>84</v>
+      </c>
+      <c r="E160" t="s">
         <v>25</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>54</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
         <v>25</v>
       </c>
-      <c r="G160" t="s">
-        <v>16</v>
-      </c>
       <c r="H160" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I160" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K160" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="161">
@@ -5828,31 +6314,34 @@
         <v>160.0</v>
       </c>
       <c r="B161" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C161" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="D161" t="s">
+        <v>85</v>
+      </c>
+      <c r="E161" t="s">
         <v>25</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>54</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>25</v>
       </c>
-      <c r="G161" t="s">
-        <v>16</v>
-      </c>
       <c r="H161" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I161" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K161" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="162">
@@ -5860,31 +6349,34 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="C162" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="D162" t="s">
+        <v>86</v>
+      </c>
+      <c r="E162" t="s">
         <v>25</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>54</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>25</v>
       </c>
-      <c r="G162" t="s">
-        <v>16</v>
-      </c>
       <c r="H162" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I162" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="K162" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/src_metrics.xlsx
+++ b/src/src_metrics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="207">
   <si>
     <t>MethodID</t>
   </si>
@@ -89,279 +89,255 @@
     <t>getCodeSmell</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>detect</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>evaluateOperator</t>
+  </si>
+  <si>
+    <t>evaluateNode</t>
+  </si>
+  <si>
+    <t>evaluateCondition</t>
+  </si>
+  <si>
+    <t>getMetricsMap</t>
+  </si>
+  <si>
+    <t>extractMethods</t>
+  </si>
+  <si>
+    <t>getResults</t>
+  </si>
+  <si>
+    <t>RuleCondition</t>
+  </si>
+  <si>
+    <t>getMetric</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>getOperator</t>
+  </si>
+  <si>
+    <t>getThreshold</t>
+  </si>
+  <si>
+    <t>setMetric</t>
+  </si>
+  <si>
+    <t>setOperator</t>
+  </si>
+  <si>
+    <t>setThreshold</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
+    <t>RuleNode</t>
+  </si>
+  <si>
+    <t>getElement</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>getLeft_node</t>
+  </si>
+  <si>
+    <t>getRight_node</t>
+  </si>
+  <si>
+    <t>setElement</t>
+  </si>
+  <si>
+    <t>setLeft_node</t>
+  </si>
+  <si>
+    <t>setRight_node</t>
+  </si>
+  <si>
+    <t>isLeafNode</t>
+  </si>
+  <si>
+    <t>g1.ISCTE</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>AppStyle</t>
+  </si>
+  <si>
+    <t>getFont</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>getLabelWithColorAndFont</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>getSubTitleLabel</t>
+  </si>
+  <si>
+    <t>getTitleLabel</t>
+  </si>
+  <si>
+    <t>setUpPopupStage</t>
+  </si>
+  <si>
+    <t>setUpPopup</t>
+  </si>
+  <si>
+    <t>setUpPoupScene</t>
+  </si>
+  <si>
+    <t>customFadingIn</t>
+  </si>
+  <si>
+    <t>addFadingIn</t>
+  </si>
+  <si>
+    <t>removeFadingOut</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>106</t>
+    <t>getDropShadow</t>
+  </si>
+  <si>
+    <t>Helpers</t>
+  </si>
+  <si>
+    <t>getExtensionByStringHandling</t>
+  </si>
+  <si>
+    <t>MyTree</t>
+  </si>
+  <si>
+    <t>percolateFolder</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>getScrollPane</t>
+  </si>
+  <si>
+    <t>NewGUI</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>getLeft</t>
+  </si>
+  <si>
+    <t>getButtonsLeft</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>updateFilePane</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>getSpacer</t>
+  </si>
+  <si>
+    <t>getEmptyLeftPane</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>loadCenterPaneWebView</t>
+  </si>
+  <si>
+    <t>updateCenterPane</t>
+  </si>
+  <si>
+    <t>centerPane</t>
+  </si>
+  <si>
+    <t>addTableToCenterPane</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>configureTableData</t>
+  </si>
+  <si>
+    <t>fillTable</t>
+  </si>
+  <si>
+    <t>blurBackground</t>
+  </si>
+  <si>
+    <t>ProjectInfo</t>
+  </si>
+  <si>
+    <t>packageCounter</t>
+  </si>
+  <si>
+    <t>128</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>detect</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>evaluateRule</t>
-  </si>
-  <si>
-    <t>evaluateOperator</t>
-  </si>
-  <si>
-    <t>evaluateNode</t>
-  </si>
-  <si>
-    <t>evaluateCondition</t>
-  </si>
-  <si>
-    <t>getMetricsMap</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>extractMethods</t>
-  </si>
-  <si>
-    <t>getResults</t>
-  </si>
-  <si>
-    <t>RuleCondition</t>
-  </si>
-  <si>
-    <t>getMetric</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>getOperator</t>
-  </si>
-  <si>
-    <t>getThreshold</t>
-  </si>
-  <si>
-    <t>setMetric</t>
-  </si>
-  <si>
-    <t>setOperator</t>
-  </si>
-  <si>
-    <t>setThreshold</t>
-  </si>
-  <si>
-    <t>evaluate</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>RuleNode</t>
-  </si>
-  <si>
-    <t>getElement</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>getLeft_node</t>
-  </si>
-  <si>
-    <t>getRight_node</t>
-  </si>
-  <si>
-    <t>setElement</t>
-  </si>
-  <si>
-    <t>setLeft_node</t>
-  </si>
-  <si>
-    <t>setRight_node</t>
-  </si>
-  <si>
-    <t>isLeafNode</t>
-  </si>
-  <si>
-    <t>RuleTree</t>
-  </si>
-  <si>
-    <t>getRoot</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>isClass_rule</t>
-  </si>
-  <si>
-    <t>setRoot</t>
-  </si>
-  <si>
-    <t>setClass_rule</t>
-  </si>
-  <si>
-    <t>hasNoChildren</t>
-  </si>
-  <si>
-    <t>g1.ISCTE</t>
-  </si>
-  <si>
-    <t>App</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>AppStyle</t>
-  </si>
-  <si>
-    <t>getFont</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>getLabelWithColorAndFont</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>getSubTitleLabel</t>
-  </si>
-  <si>
-    <t>getTitleLabel</t>
-  </si>
-  <si>
-    <t>setUpPopupStage</t>
-  </si>
-  <si>
-    <t>setUpPopup</t>
-  </si>
-  <si>
-    <t>setUpPoupScene</t>
-  </si>
-  <si>
-    <t>customFadingIn</t>
-  </si>
-  <si>
-    <t>addFadingIn</t>
-  </si>
-  <si>
-    <t>removeFadingOut</t>
-  </si>
-  <si>
-    <t>getDropShadow</t>
-  </si>
-  <si>
-    <t>Helpers</t>
-  </si>
-  <si>
-    <t>getExtensionByStringHandling</t>
-  </si>
-  <si>
-    <t>MyTree</t>
-  </si>
-  <si>
-    <t>percolateFolder</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>getScrollPane</t>
-  </si>
-  <si>
-    <t>NewGUI</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>getLeft</t>
-  </si>
-  <si>
-    <t>getButtonsLeft</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>updateFilePane</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>getSpacer</t>
-  </si>
-  <si>
-    <t>getEmptyLeftPane</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>loadCenterPaneWebView</t>
-  </si>
-  <si>
-    <t>updateCenterPane</t>
-  </si>
-  <si>
-    <t>centerPane</t>
-  </si>
-  <si>
-    <t>addTableToCenterPane</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>configureTableData</t>
-  </si>
-  <si>
-    <t>fillTable</t>
-  </si>
-  <si>
-    <t>blurBackground</t>
-  </si>
-  <si>
-    <t>ProjectInfo</t>
-  </si>
-  <si>
-    <t>packageCounter</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
     <t>classCounter</t>
   </si>
   <si>
@@ -440,151 +416,154 @@
     <t>ExtractionWorker</t>
   </si>
   <si>
-    <t>88</t>
+    <t>85</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>extractClassMethods</t>
+  </si>
+  <si>
+    <t>getCodeParser</t>
+  </si>
+  <si>
+    <t>extractLOC_Class</t>
+  </si>
+  <si>
+    <t>getMetrics</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>calculateMethodMetrics</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>calculateCyclo_Method</t>
+  </si>
+  <si>
+    <t>calculateLoc_Method</t>
+  </si>
+  <si>
+    <t>getCyclo_method</t>
+  </si>
+  <si>
+    <t>getLoc_method</t>
+  </si>
+  <si>
+    <t>getMethod_name</t>
+  </si>
+  <si>
+    <t>getMethod</t>
+  </si>
+  <si>
+    <t>MethodVisitor</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>getMethods</t>
+  </si>
+  <si>
+    <t>MetricExtractor</t>
+  </si>
+  <si>
+    <t>getFilesFromProjectDirectory</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>executeExtraction</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>exportResultsToFile</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>RuleEditor</t>
+  </si>
+  <si>
+    <t>AndBlock</t>
+  </si>
+  <si>
+    <t>getLabel</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>setDepth</t>
+  </si>
+  <si>
+    <t>getCentralBox</t>
+  </si>
+  <si>
+    <t>setDrag</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>setLabelListener</t>
+  </si>
+  <si>
+    <t>getHBox</t>
+  </si>
+  <si>
+    <t>getBoxColor</t>
+  </si>
+  <si>
+    <t>getGraphicalRepresentation</t>
+  </si>
+  <si>
+    <t>getType</t>
+  </si>
+  <si>
+    <t>getRuleMakerBox</t>
+  </si>
+  <si>
+    <t>ConditionBlock</t>
+  </si>
+  <si>
+    <t>getoQueEstaASerDragged</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>getRuleBlock</t>
   </si>
   <si>
     <t>28</t>
-  </si>
-  <si>
-    <t>extractClassMethods</t>
-  </si>
-  <si>
-    <t>getCodeParser</t>
-  </si>
-  <si>
-    <t>extractLOC_Class</t>
-  </si>
-  <si>
-    <t>getMetrics</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>calculateMethodMetrics</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>calculateCyclo_Method</t>
-  </si>
-  <si>
-    <t>calculateLoc_Method</t>
-  </si>
-  <si>
-    <t>getCyclo_method</t>
-  </si>
-  <si>
-    <t>getLoc_method</t>
-  </si>
-  <si>
-    <t>getMethod_name</t>
-  </si>
-  <si>
-    <t>getMethod</t>
-  </si>
-  <si>
-    <t>MethodVisitor</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>getMethods</t>
-  </si>
-  <si>
-    <t>MetricExtractor</t>
-  </si>
-  <si>
-    <t>getFilesFromProjectDirectory</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>executeExtraction</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>exportResultsToFile</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>RuleEditor</t>
-  </si>
-  <si>
-    <t>AndBlock</t>
-  </si>
-  <si>
-    <t>getLabel</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>setDepth</t>
-  </si>
-  <si>
-    <t>getCentralBox</t>
-  </si>
-  <si>
-    <t>setDrag</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>setLabelListener</t>
-  </si>
-  <si>
-    <t>getHBox</t>
-  </si>
-  <si>
-    <t>getBoxColor</t>
-  </si>
-  <si>
-    <t>getGraphicalRepresentation</t>
-  </si>
-  <si>
-    <t>getType</t>
-  </si>
-  <si>
-    <t>getRuleMakerBox</t>
-  </si>
-  <si>
-    <t>ConditionBlock</t>
-  </si>
-  <si>
-    <t>getoQueEstaASerDragged</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>getRuleBlock</t>
   </si>
   <si>
     <t>getStyledButton</t>
@@ -945,7 +924,7 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -980,7 +959,7 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -1015,10 +994,10 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -1050,10 +1029,10 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
@@ -1085,7 +1064,7 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1105,7 +1084,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -1120,10 +1099,10 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
@@ -1137,19 +1116,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -1172,19 +1151,19 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -1207,19 +1186,19 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -1242,19 +1221,19 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
@@ -1277,19 +1256,19 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
@@ -1312,19 +1291,19 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
@@ -1347,28 +1326,28 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -1382,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
@@ -1391,19 +1370,19 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
@@ -1417,16 +1396,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
@@ -1452,16 +1431,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -1487,16 +1466,16 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
@@ -1522,16 +1501,16 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -1557,16 +1536,16 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -1592,16 +1571,16 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
@@ -1624,22 +1603,22 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
@@ -1659,28 +1638,28 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J28" t="s">
         <v>28</v>
@@ -1694,28 +1673,28 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
         <v>28</v>
@@ -1729,28 +1708,28 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
@@ -1764,28 +1743,28 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
         <v>64</v>
       </c>
-      <c r="E31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" t="s">
-        <v>63</v>
-      </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
@@ -1799,28 +1778,28 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
         <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J32" t="s">
         <v>28</v>
@@ -1834,28 +1813,28 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J33" t="s">
         <v>28</v>
@@ -1869,28 +1848,28 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
@@ -1904,28 +1883,28 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J35" t="s">
         <v>28</v>
@@ -1939,28 +1918,28 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J36" t="s">
         <v>28</v>
@@ -1974,31 +1953,31 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
         <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
@@ -2009,19 +1988,19 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
         <v>30</v>
@@ -2030,7 +2009,7 @@
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
@@ -2044,28 +2023,28 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
         <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s">
         <v>28</v>
@@ -2079,31 +2058,31 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -2114,28 +2093,28 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s">
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s">
         <v>28</v>
@@ -2149,28 +2128,28 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s">
         <v>28</v>
@@ -2184,28 +2163,28 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J43" t="s">
         <v>28</v>
@@ -2219,28 +2198,28 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
@@ -2254,31 +2233,31 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s">
         <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
@@ -2289,28 +2268,28 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s">
         <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
@@ -2324,31 +2303,31 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
         <v>85</v>
       </c>
-      <c r="E47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" t="s">
-        <v>74</v>
-      </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J47" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
@@ -2359,31 +2338,31 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" t="s">
         <v>86</v>
       </c>
-      <c r="E48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
       <c r="H48" t="s">
         <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="J48" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -2394,28 +2373,28 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
         <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
         <v>28</v>
@@ -2429,31 +2408,31 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" t="s">
         <v>14</v>
-      </c>
-      <c r="F50" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" t="s">
-        <v>77</v>
-      </c>
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" t="s">
-        <v>75</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -2464,28 +2443,28 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s">
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
         <v>28</v>
@@ -2499,28 +2478,28 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s">
         <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2534,28 +2513,28 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s">
         <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
@@ -2569,31 +2548,31 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s">
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J54" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
@@ -2604,28 +2583,28 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s">
         <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
@@ -2639,28 +2618,28 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s">
         <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J56" t="s">
         <v>28</v>
@@ -2674,31 +2653,31 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H57" t="s">
         <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J57" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -2709,31 +2688,31 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G58" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="J58" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
@@ -2744,31 +2723,31 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G59" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H59" t="s">
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J59" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
@@ -2779,31 +2758,31 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H60" t="s">
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -2814,31 +2793,31 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" t="s">
         <v>106</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
         <v>18</v>
       </c>
-      <c r="F61" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" t="s">
-        <v>95</v>
-      </c>
-      <c r="H61" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" t="s">
-        <v>21</v>
-      </c>
       <c r="J61" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -2849,31 +2828,31 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" t="s">
         <v>107</v>
       </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" t="s">
-        <v>95</v>
-      </c>
       <c r="H62" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J62" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
@@ -2884,28 +2863,28 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G63" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="J63" t="s">
         <v>28</v>
@@ -2919,31 +2898,31 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H64" t="s">
         <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
@@ -2954,31 +2933,31 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H65" t="s">
         <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J65" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -2989,28 +2968,28 @@
         <v>65.0</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G66" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H66" t="s">
         <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J66" t="s">
         <v>28</v>
@@ -3024,31 +3003,31 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H67" t="s">
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J67" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K67" t="s">
         <v>17</v>
@@ -3059,31 +3038,31 @@
         <v>67.0</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" t="s">
         <v>116</v>
       </c>
-      <c r="E68" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" t="s">
-        <v>115</v>
-      </c>
       <c r="G68" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H68" t="s">
         <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J68" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K68" t="s">
         <v>17</v>
@@ -3094,31 +3073,31 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H69" t="s">
         <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K69" t="s">
         <v>17</v>
@@ -3129,31 +3108,31 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G70" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
         <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K70" t="s">
         <v>17</v>
@@ -3164,31 +3143,31 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
         <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
@@ -3199,31 +3178,31 @@
         <v>71.0</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
         <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J72" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
@@ -3234,22 +3213,22 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H73" t="s">
         <v>17</v>
@@ -3269,28 +3248,28 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G74" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H74" t="s">
         <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J74" t="s">
         <v>28</v>
@@ -3304,22 +3283,22 @@
         <v>74.0</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
         <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E75" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
         <v>124</v>
       </c>
       <c r="G75" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
         <v>17</v>
@@ -3339,31 +3318,31 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
         <v>122</v>
       </c>
       <c r="D76" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
         <v>124</v>
       </c>
       <c r="G76" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
         <v>17</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J76" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K76" t="s">
         <v>17</v>
@@ -3374,31 +3353,31 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C77" t="s">
         <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F77" t="s">
         <v>124</v>
       </c>
       <c r="G77" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H77" t="s">
         <v>17</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K77" t="s">
         <v>17</v>
@@ -3409,28 +3388,28 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
         <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E78" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
         <v>124</v>
       </c>
       <c r="G78" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
@@ -3444,31 +3423,31 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F79" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s">
         <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="J79" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="K79" t="s">
         <v>17</v>
@@ -3479,28 +3458,28 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H80" t="s">
         <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J80" t="s">
         <v>28</v>
@@ -3514,28 +3493,28 @@
         <v>80.0</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D81" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H81" t="s">
         <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J81" t="s">
         <v>28</v>
@@ -3549,31 +3528,31 @@
         <v>81.0</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" t="s">
         <v>134</v>
       </c>
-      <c r="E82" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" t="s">
-        <v>132</v>
-      </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="J82" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K82" t="s">
         <v>17</v>
@@ -3584,22 +3563,22 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F83" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H83" t="s">
         <v>17</v>
@@ -3619,28 +3598,28 @@
         <v>83.0</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H84" t="s">
         <v>17</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="J84" t="s">
         <v>28</v>
@@ -3654,28 +3633,28 @@
         <v>84.0</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H85" t="s">
         <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J85" t="s">
         <v>28</v>
@@ -3689,28 +3668,28 @@
         <v>85.0</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
         <v>30</v>
-      </c>
-      <c r="H86" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" t="s">
-        <v>38</v>
       </c>
       <c r="J86" t="s">
         <v>19</v>
@@ -3724,28 +3703,28 @@
         <v>86.0</v>
       </c>
       <c r="B87" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D87" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="J87" t="s">
         <v>14</v>
@@ -3759,28 +3738,28 @@
         <v>87.0</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D88" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J88" t="s">
         <v>28</v>
@@ -3794,31 +3773,31 @@
         <v>88.0</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="E89" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G89" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H89" t="s">
         <v>17</v>
       </c>
       <c r="I89" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="J89" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="K89" t="s">
         <v>17</v>
@@ -3829,28 +3808,28 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G90" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H90" t="s">
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J90" t="s">
         <v>28</v>
@@ -3864,28 +3843,28 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
         <v>145</v>
       </c>
-      <c r="E91" t="s">
-        <v>75</v>
-      </c>
-      <c r="F91" t="s">
-        <v>142</v>
-      </c>
       <c r="G91" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H91" t="s">
         <v>17</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J91" t="s">
         <v>28</v>
@@ -3899,31 +3878,31 @@
         <v>91.0</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E92" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G92" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
       </c>
       <c r="I92" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="J92" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K92" t="s">
         <v>17</v>
@@ -3934,31 +3913,31 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D93" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E93" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G93" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
         <v>17</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J93" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
@@ -3969,28 +3948,28 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="E94" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G94" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
         <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="J94" t="s">
         <v>28</v>
@@ -4004,31 +3983,31 @@
         <v>94.0</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F95" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="H95" t="s">
         <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J95" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K95" t="s">
         <v>17</v>
@@ -4039,31 +4018,31 @@
         <v>95.0</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D96" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F96" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="H96" t="s">
         <v>17</v>
       </c>
       <c r="I96" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J96" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K96" t="s">
         <v>17</v>
@@ -4074,31 +4053,31 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D97" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F97" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G97" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="H97" t="s">
         <v>17</v>
       </c>
       <c r="I97" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="J97" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K97" t="s">
         <v>17</v>
@@ -4109,31 +4088,31 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D98" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G98" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="H98" t="s">
         <v>17</v>
       </c>
       <c r="I98" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="J98" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K98" t="s">
         <v>17</v>
@@ -4144,22 +4123,22 @@
         <v>98.0</v>
       </c>
       <c r="B99" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C99" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D99" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F99" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G99" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="H99" t="s">
         <v>17</v>
@@ -4179,22 +4158,22 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C100" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D100" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F100" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G100" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="H100" t="s">
         <v>17</v>
@@ -4214,28 +4193,28 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F101" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G101" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="H101" t="s">
         <v>17</v>
       </c>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J101" t="s">
         <v>28</v>
@@ -4249,28 +4228,28 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D102" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F102" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G102" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
       </c>
       <c r="I102" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="J102" t="s">
         <v>28</v>
@@ -4284,31 +4263,31 @@
         <v>102.0</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D103" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H103" t="s">
         <v>17</v>
       </c>
       <c r="I103" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="J103" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="K103" t="s">
         <v>17</v>
@@ -4319,31 +4298,31 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F104" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="H104" t="s">
         <v>17</v>
       </c>
       <c r="I104" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J104" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K104" t="s">
         <v>17</v>
@@ -4354,31 +4333,31 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C105" t="s">
         <v>164</v>
       </c>
       <c r="D105" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E105" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F105" t="s">
         <v>166</v>
       </c>
       <c r="G105" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H105" t="s">
         <v>17</v>
       </c>
       <c r="I105" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="J105" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K105" t="s">
         <v>17</v>
@@ -4389,22 +4368,22 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C106" t="s">
         <v>164</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="E106" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F106" t="s">
         <v>166</v>
       </c>
       <c r="G106" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H106" t="s">
         <v>17</v>
@@ -4424,31 +4403,31 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C107" t="s">
         <v>164</v>
       </c>
       <c r="D107" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E107" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F107" t="s">
         <v>166</v>
       </c>
       <c r="G107" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H107" t="s">
         <v>17</v>
       </c>
       <c r="I107" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K107" t="s">
         <v>17</v>
@@ -4459,31 +4438,31 @@
         <v>107.0</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C108" t="s">
         <v>164</v>
       </c>
       <c r="D108" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E108" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F108" t="s">
         <v>166</v>
       </c>
       <c r="G108" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H108" t="s">
         <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="J108" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K108" t="s">
         <v>17</v>
@@ -4494,28 +4473,28 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C109" t="s">
         <v>164</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="E109" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F109" t="s">
         <v>166</v>
       </c>
       <c r="G109" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H109" t="s">
         <v>17</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J109" t="s">
         <v>28</v>
@@ -4529,22 +4508,22 @@
         <v>109.0</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C110" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D110" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F110" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G110" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H110" t="s">
         <v>17</v>
@@ -4564,28 +4543,28 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C111" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D111" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F111" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G111" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H111" t="s">
         <v>17</v>
       </c>
       <c r="I111" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J111" t="s">
         <v>28</v>
@@ -4599,28 +4578,28 @@
         <v>111.0</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C112" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D112" t="s">
         <v>177</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F112" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G112" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H112" t="s">
         <v>17</v>
       </c>
       <c r="I112" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J112" t="s">
         <v>28</v>
@@ -4634,31 +4613,31 @@
         <v>112.0</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C113" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D113" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F113" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G113" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H113" t="s">
         <v>17</v>
       </c>
       <c r="I113" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J113" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="K113" t="s">
         <v>17</v>
@@ -4669,31 +4648,31 @@
         <v>113.0</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C114" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D114" t="s">
+        <v>184</v>
+      </c>
+      <c r="E114" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" t="s">
         <v>180</v>
       </c>
-      <c r="E114" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" t="s">
-        <v>174</v>
-      </c>
       <c r="G114" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H114" t="s">
         <v>17</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J114" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="K114" t="s">
         <v>17</v>
@@ -4704,31 +4683,31 @@
         <v>114.0</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C115" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D115" t="s">
+        <v>184</v>
+      </c>
+      <c r="E115" t="s">
+        <v>61</v>
+      </c>
+      <c r="F115" t="s">
+        <v>180</v>
+      </c>
+      <c r="G115" t="s">
         <v>181</v>
       </c>
-      <c r="E115" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" t="s">
-        <v>174</v>
-      </c>
-      <c r="G115" t="s">
-        <v>175</v>
-      </c>
       <c r="H115" t="s">
         <v>17</v>
       </c>
       <c r="I115" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="J115" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K115" t="s">
         <v>17</v>
@@ -4739,31 +4718,31 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D116" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E116" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F116" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G116" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H116" t="s">
         <v>17</v>
       </c>
       <c r="I116" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J116" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K116" t="s">
         <v>17</v>
@@ -4774,31 +4753,31 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D117" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E117" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F117" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G117" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H117" t="s">
         <v>17</v>
       </c>
       <c r="I117" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J117" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K117" t="s">
         <v>17</v>
@@ -4809,31 +4788,31 @@
         <v>117.0</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D118" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E118" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F118" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G118" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J118" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="K118" t="s">
         <v>17</v>
@@ -4844,28 +4823,28 @@
         <v>118.0</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C119" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D119" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E119" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F119" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G119" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H119" t="s">
         <v>17</v>
       </c>
       <c r="I119" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J119" t="s">
         <v>28</v>
@@ -4879,22 +4858,22 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C120" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D120" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E120" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F120" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G120" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H120" t="s">
         <v>17</v>
@@ -4914,22 +4893,22 @@
         <v>120.0</v>
       </c>
       <c r="B121" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D121" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="E121" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F121" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G121" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H121" t="s">
         <v>17</v>
@@ -4949,28 +4928,28 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C122" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D122" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E122" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F122" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G122" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H122" t="s">
         <v>17</v>
       </c>
       <c r="I122" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J122" t="s">
         <v>28</v>
@@ -4984,31 +4963,31 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C123" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E123" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F123" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G123" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H123" t="s">
         <v>17</v>
       </c>
       <c r="I123" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="J123" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K123" t="s">
         <v>17</v>
@@ -5019,28 +4998,28 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C124" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D124" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E124" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G124" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="H124" t="s">
         <v>17</v>
       </c>
       <c r="I124" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="J124" t="s">
         <v>28</v>
@@ -5054,31 +5033,31 @@
         <v>124.0</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C125" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E125" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F125" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G125" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="H125" t="s">
         <v>17</v>
       </c>
       <c r="I125" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J125" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K125" t="s">
         <v>17</v>
@@ -5089,31 +5068,31 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C126" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E126" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F126" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G126" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="H126" t="s">
         <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="J126" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K126" t="s">
         <v>17</v>
@@ -5124,31 +5103,31 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C127" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E127" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
         <v>17</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J127" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K127" t="s">
         <v>17</v>
@@ -5159,31 +5138,31 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D128" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E128" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
         <v>17</v>
       </c>
       <c r="I128" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J128" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="K128" t="s">
         <v>17</v>
@@ -5194,28 +5173,28 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C129" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D129" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="E129" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F129" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G129" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="H129" t="s">
         <v>17</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J129" t="s">
         <v>28</v>
@@ -5229,31 +5208,31 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C130" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D130" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E130" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F130" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G130" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="H130" t="s">
         <v>17</v>
       </c>
       <c r="I130" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="J130" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K130" t="s">
         <v>17</v>
@@ -5264,28 +5243,28 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C131" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D131" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E131" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F131" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G131" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="H131" t="s">
         <v>17</v>
       </c>
       <c r="I131" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J131" t="s">
         <v>28</v>
@@ -5299,28 +5278,28 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C132" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D132" t="s">
+        <v>198</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
         <v>195</v>
       </c>
-      <c r="E132" t="s">
-        <v>71</v>
-      </c>
-      <c r="F132" t="s">
-        <v>188</v>
-      </c>
       <c r="G132" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="H132" t="s">
         <v>17</v>
       </c>
       <c r="I132" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="J132" t="s">
         <v>28</v>
@@ -5334,28 +5313,28 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C133" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D133" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E133" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G133" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="H133" t="s">
         <v>17</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="J133" t="s">
         <v>28</v>
@@ -5369,31 +5348,31 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" t="s">
+        <v>194</v>
+      </c>
+      <c r="D134" t="s">
+        <v>200</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" t="s">
+        <v>195</v>
+      </c>
+      <c r="G134" t="s">
+        <v>107</v>
+      </c>
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" t="s">
         <v>171</v>
       </c>
-      <c r="C134" t="s">
-        <v>196</v>
-      </c>
-      <c r="D134" t="s">
-        <v>183</v>
-      </c>
-      <c r="E134" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" t="s">
-        <v>168</v>
-      </c>
-      <c r="G134" t="s">
-        <v>19</v>
-      </c>
-      <c r="H134" t="s">
-        <v>17</v>
-      </c>
-      <c r="I134" t="s">
-        <v>197</v>
-      </c>
       <c r="J134" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="K134" t="s">
         <v>17</v>
@@ -5404,28 +5383,28 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C135" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D135" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="E135" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="G135" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="H135" t="s">
         <v>17</v>
       </c>
       <c r="I135" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="J135" t="s">
         <v>28</v>
@@ -5439,28 +5418,28 @@
         <v>135.0</v>
       </c>
       <c r="B136" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C136" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D136" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F136" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="G136" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H136" t="s">
         <v>17</v>
       </c>
       <c r="I136" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="J136" t="s">
         <v>28</v>
@@ -5474,22 +5453,22 @@
         <v>136.0</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C137" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D137" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E137" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G137" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="H137" t="s">
         <v>17</v>
@@ -5509,22 +5488,22 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C138" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D138" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="G138" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="H138" t="s">
         <v>17</v>
@@ -5544,28 +5523,28 @@
         <v>138.0</v>
       </c>
       <c r="B139" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D139" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="E139" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F139" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G139" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H139" t="s">
         <v>17</v>
       </c>
       <c r="I139" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J139" t="s">
         <v>28</v>
@@ -5579,31 +5558,31 @@
         <v>139.0</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C140" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D140" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E140" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F140" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G140" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H140" t="s">
         <v>17</v>
       </c>
       <c r="I140" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="J140" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K140" t="s">
         <v>17</v>
@@ -5614,28 +5593,28 @@
         <v>140.0</v>
       </c>
       <c r="B141" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C141" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D141" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="E141" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F141" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G141" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H141" t="s">
         <v>17</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J141" t="s">
         <v>28</v>
@@ -5649,28 +5628,28 @@
         <v>141.0</v>
       </c>
       <c r="B142" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C142" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D142" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="E142" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F142" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G142" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H142" t="s">
         <v>17</v>
       </c>
       <c r="I142" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="J142" t="s">
         <v>28</v>
@@ -5684,28 +5663,28 @@
         <v>142.0</v>
       </c>
       <c r="B143" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C143" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D143" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="E143" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F143" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="G143" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H143" t="s">
         <v>17</v>
       </c>
       <c r="I143" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J143" t="s">
         <v>28</v>
@@ -5719,31 +5698,31 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C144" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D144" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="E144" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F144" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="G144" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H144" t="s">
         <v>17</v>
       </c>
       <c r="I144" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K144" t="s">
         <v>17</v>
@@ -5754,28 +5733,28 @@
         <v>144.0</v>
       </c>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D145" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E145" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F145" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="G145" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H145" t="s">
         <v>17</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J145" t="s">
         <v>28</v>
@@ -5789,28 +5768,28 @@
         <v>145.0</v>
       </c>
       <c r="B146" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C146" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D146" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E146" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G146" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H146" t="s">
         <v>17</v>
       </c>
       <c r="I146" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J146" t="s">
         <v>28</v>
@@ -5824,28 +5803,28 @@
         <v>146.0</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C147" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D147" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="E147" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F147" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="G147" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H147" t="s">
         <v>17</v>
       </c>
       <c r="I147" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J147" t="s">
         <v>28</v>
@@ -5859,28 +5838,28 @@
         <v>147.0</v>
       </c>
       <c r="B148" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C148" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D148" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="E148" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F148" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="G148" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H148" t="s">
         <v>17</v>
       </c>
       <c r="I148" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J148" t="s">
         <v>28</v>
@@ -5894,28 +5873,28 @@
         <v>148.0</v>
       </c>
       <c r="B149" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C149" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D149" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="E149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F149" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="G149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H149" t="s">
         <v>17</v>
       </c>
       <c r="I149" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J149" t="s">
         <v>28</v>
@@ -5929,28 +5908,28 @@
         <v>149.0</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C150" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D150" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="E150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F150" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="G150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H150" t="s">
         <v>17</v>
       </c>
       <c r="I150" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J150" t="s">
         <v>28</v>
@@ -5964,28 +5943,28 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C151" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E151" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F151" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="G151" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H151" t="s">
         <v>17</v>
       </c>
       <c r="I151" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J151" t="s">
         <v>28</v>
@@ -5999,383 +5978,33 @@
         <v>151.0</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="C152" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D152" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="E152" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F152" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="G152" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H152" t="s">
         <v>17</v>
       </c>
       <c r="I152" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J152" t="s">
         <v>28</v>
       </c>
       <c r="K152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="B153" t="s">
-        <v>68</v>
-      </c>
-      <c r="C153" t="s">
-        <v>213</v>
-      </c>
-      <c r="D153" t="s">
-        <v>73</v>
-      </c>
-      <c r="E153" t="s">
-        <v>25</v>
-      </c>
-      <c r="F153" t="s">
-        <v>54</v>
-      </c>
-      <c r="G153" t="s">
-        <v>25</v>
-      </c>
-      <c r="H153" t="s">
-        <v>17</v>
-      </c>
-      <c r="I153" t="s">
-        <v>14</v>
-      </c>
-      <c r="J153" t="s">
-        <v>28</v>
-      </c>
-      <c r="K153" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>153.0</v>
-      </c>
-      <c r="B154" t="s">
-        <v>68</v>
-      </c>
-      <c r="C154" t="s">
-        <v>213</v>
-      </c>
-      <c r="D154" t="s">
-        <v>76</v>
-      </c>
-      <c r="E154" t="s">
-        <v>25</v>
-      </c>
-      <c r="F154" t="s">
-        <v>54</v>
-      </c>
-      <c r="G154" t="s">
-        <v>25</v>
-      </c>
-      <c r="H154" t="s">
-        <v>17</v>
-      </c>
-      <c r="I154" t="s">
-        <v>14</v>
-      </c>
-      <c r="J154" t="s">
-        <v>28</v>
-      </c>
-      <c r="K154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>154.0</v>
-      </c>
-      <c r="B155" t="s">
-        <v>68</v>
-      </c>
-      <c r="C155" t="s">
-        <v>213</v>
-      </c>
-      <c r="D155" t="s">
-        <v>78</v>
-      </c>
-      <c r="E155" t="s">
-        <v>25</v>
-      </c>
-      <c r="F155" t="s">
-        <v>54</v>
-      </c>
-      <c r="G155" t="s">
-        <v>25</v>
-      </c>
-      <c r="H155" t="s">
-        <v>17</v>
-      </c>
-      <c r="I155" t="s">
-        <v>14</v>
-      </c>
-      <c r="J155" t="s">
-        <v>28</v>
-      </c>
-      <c r="K155" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="B156" t="s">
-        <v>68</v>
-      </c>
-      <c r="C156" t="s">
-        <v>213</v>
-      </c>
-      <c r="D156" t="s">
-        <v>79</v>
-      </c>
-      <c r="E156" t="s">
-        <v>25</v>
-      </c>
-      <c r="F156" t="s">
-        <v>54</v>
-      </c>
-      <c r="G156" t="s">
-        <v>25</v>
-      </c>
-      <c r="H156" t="s">
-        <v>17</v>
-      </c>
-      <c r="I156" t="s">
-        <v>14</v>
-      </c>
-      <c r="J156" t="s">
-        <v>28</v>
-      </c>
-      <c r="K156" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>156.0</v>
-      </c>
-      <c r="B157" t="s">
-        <v>68</v>
-      </c>
-      <c r="C157" t="s">
-        <v>213</v>
-      </c>
-      <c r="D157" t="s">
-        <v>80</v>
-      </c>
-      <c r="E157" t="s">
-        <v>25</v>
-      </c>
-      <c r="F157" t="s">
-        <v>54</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
-      <c r="H157" t="s">
-        <v>17</v>
-      </c>
-      <c r="I157" t="s">
-        <v>14</v>
-      </c>
-      <c r="J157" t="s">
-        <v>28</v>
-      </c>
-      <c r="K157" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>157.0</v>
-      </c>
-      <c r="B158" t="s">
-        <v>68</v>
-      </c>
-      <c r="C158" t="s">
-        <v>213</v>
-      </c>
-      <c r="D158" t="s">
-        <v>81</v>
-      </c>
-      <c r="E158" t="s">
-        <v>25</v>
-      </c>
-      <c r="F158" t="s">
-        <v>54</v>
-      </c>
-      <c r="G158" t="s">
-        <v>25</v>
-      </c>
-      <c r="H158" t="s">
-        <v>17</v>
-      </c>
-      <c r="I158" t="s">
-        <v>14</v>
-      </c>
-      <c r="J158" t="s">
-        <v>28</v>
-      </c>
-      <c r="K158" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="B159" t="s">
-        <v>68</v>
-      </c>
-      <c r="C159" t="s">
-        <v>213</v>
-      </c>
-      <c r="D159" t="s">
-        <v>83</v>
-      </c>
-      <c r="E159" t="s">
-        <v>25</v>
-      </c>
-      <c r="F159" t="s">
-        <v>54</v>
-      </c>
-      <c r="G159" t="s">
-        <v>25</v>
-      </c>
-      <c r="H159" t="s">
-        <v>17</v>
-      </c>
-      <c r="I159" t="s">
-        <v>14</v>
-      </c>
-      <c r="J159" t="s">
-        <v>28</v>
-      </c>
-      <c r="K159" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>159.0</v>
-      </c>
-      <c r="B160" t="s">
-        <v>68</v>
-      </c>
-      <c r="C160" t="s">
-        <v>213</v>
-      </c>
-      <c r="D160" t="s">
-        <v>84</v>
-      </c>
-      <c r="E160" t="s">
-        <v>25</v>
-      </c>
-      <c r="F160" t="s">
-        <v>54</v>
-      </c>
-      <c r="G160" t="s">
-        <v>25</v>
-      </c>
-      <c r="H160" t="s">
-        <v>17</v>
-      </c>
-      <c r="I160" t="s">
-        <v>14</v>
-      </c>
-      <c r="J160" t="s">
-        <v>28</v>
-      </c>
-      <c r="K160" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="B161" t="s">
-        <v>68</v>
-      </c>
-      <c r="C161" t="s">
-        <v>213</v>
-      </c>
-      <c r="D161" t="s">
-        <v>85</v>
-      </c>
-      <c r="E161" t="s">
-        <v>25</v>
-      </c>
-      <c r="F161" t="s">
-        <v>54</v>
-      </c>
-      <c r="G161" t="s">
-        <v>25</v>
-      </c>
-      <c r="H161" t="s">
-        <v>17</v>
-      </c>
-      <c r="I161" t="s">
-        <v>14</v>
-      </c>
-      <c r="J161" t="s">
-        <v>28</v>
-      </c>
-      <c r="K161" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>161.0</v>
-      </c>
-      <c r="B162" t="s">
-        <v>68</v>
-      </c>
-      <c r="C162" t="s">
-        <v>213</v>
-      </c>
-      <c r="D162" t="s">
-        <v>86</v>
-      </c>
-      <c r="E162" t="s">
-        <v>25</v>
-      </c>
-      <c r="F162" t="s">
-        <v>54</v>
-      </c>
-      <c r="G162" t="s">
-        <v>25</v>
-      </c>
-      <c r="H162" t="s">
-        <v>17</v>
-      </c>
-      <c r="I162" t="s">
-        <v>14</v>
-      </c>
-      <c r="J162" t="s">
-        <v>28</v>
-      </c>
-      <c r="K162" t="s">
         <v>17</v>
       </c>
     </row>

--- a/src/src_metrics.xlsx
+++ b/src/src_metrics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="210">
   <si>
     <t>MethodID</t>
   </si>
@@ -206,7 +206,7 @@
     <t>getFont</t>
   </si>
   <si>
-    <t>199</t>
+    <t>217</t>
   </si>
   <si>
     <t>5</t>
@@ -248,6 +248,9 @@
     <t>getDropShadow</t>
   </si>
   <si>
+    <t>addFadingInGroup</t>
+  </si>
+  <si>
     <t>Helpers</t>
   </si>
   <si>
@@ -269,10 +272,10 @@
     <t>NewGUI</t>
   </si>
   <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>507</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>getLeft</t>
@@ -326,6 +329,15 @@
     <t>blurBackground</t>
   </si>
   <si>
+    <t>getInfoBoxes</t>
+  </si>
+  <si>
+    <t>getSquareInfoBox</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>ProjectInfo</t>
   </si>
   <si>
@@ -561,9 +573,6 @@
   </si>
   <si>
     <t>getRuleBlock</t>
-  </si>
-  <si>
-    <t>28</t>
   </si>
   <si>
     <t>getStyledButton</t>
@@ -1647,13 +1656,13 @@
         <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
         <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
@@ -1682,13 +1691,13 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
         <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
         <v>17</v>
@@ -1717,13 +1726,13 @@
         <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
         <v>64</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
@@ -1752,13 +1761,13 @@
         <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
         <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -1787,13 +1796,13 @@
         <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
         <v>17</v>
@@ -1822,13 +1831,13 @@
         <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
@@ -1857,13 +1866,13 @@
         <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
@@ -1892,13 +1901,13 @@
         <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
         <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
@@ -1927,13 +1936,13 @@
         <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
         <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
@@ -1962,13 +1971,13 @@
         <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
         <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
         <v>17</v>
@@ -1997,13 +2006,13 @@
         <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
         <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
@@ -2026,28 +2035,28 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
         <v>78</v>
       </c>
-      <c r="D39" t="s">
-        <v>79</v>
-      </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="H39" t="s">
         <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J39" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
@@ -2061,28 +2070,28 @@
         <v>58</v>
       </c>
       <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
         <v>80</v>
       </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H40" t="s">
         <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -2096,16 +2105,16 @@
         <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s">
         <v>67</v>
@@ -2114,10 +2123,10 @@
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="K41" t="s">
         <v>17</v>
@@ -2131,25 +2140,25 @@
         <v>58</v>
       </c>
       <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
         <v>84</v>
       </c>
-      <c r="D42" t="s">
-        <v>60</v>
-      </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s">
         <v>28</v>
@@ -2166,25 +2175,25 @@
         <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
         <v>87</v>
       </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" t="s">
-        <v>86</v>
-      </c>
       <c r="H43" t="s">
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s">
         <v>28</v>
@@ -2201,25 +2210,25 @@
         <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
         <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
@@ -2236,28 +2245,28 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
         <v>90</v>
       </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" t="s">
-        <v>91</v>
-      </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
@@ -2271,28 +2280,28 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
         <v>92</v>
       </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" t="s">
-        <v>86</v>
-      </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" t="s">
-        <v>65</v>
-      </c>
       <c r="J46" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s">
         <v>17</v>
@@ -2306,19 +2315,19 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
@@ -2341,28 +2350,28 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D48" t="s">
         <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s">
         <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="J48" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="K48" t="s">
         <v>17</v>
@@ -2376,28 +2385,28 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
         <v>95</v>
       </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>85</v>
-      </c>
-      <c r="G49" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" t="s">
-        <v>21</v>
-      </c>
       <c r="J49" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -2411,28 +2420,28 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
         <v>96</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s">
         <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J50" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -2446,28 +2455,28 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
         <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s">
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="J51" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -2481,25 +2490,25 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
         <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s">
         <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2516,25 +2525,25 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
         <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s">
         <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
@@ -2551,28 +2560,28 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
         <v>101</v>
       </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G54" t="s">
-        <v>86</v>
-      </c>
-      <c r="H54" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" t="s">
-        <v>91</v>
-      </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
@@ -2586,25 +2595,25 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
         <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s">
         <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
@@ -2621,28 +2630,28 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
         <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
         <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J56" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
@@ -2656,19 +2665,19 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
         <v>104</v>
       </c>
-      <c r="D57" t="s">
-        <v>105</v>
-      </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s">
         <v>17</v>
@@ -2677,7 +2686,7 @@
         <v>42</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -2691,28 +2700,28 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
@@ -2726,28 +2735,28 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
         <v>107</v>
       </c>
-      <c r="H59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" t="s">
-        <v>42</v>
-      </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
@@ -2761,19 +2770,19 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G60" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H60" t="s">
         <v>17</v>
@@ -2796,25 +2805,25 @@
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
         <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H61" t="s">
         <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s">
         <v>19</v>
@@ -2831,28 +2840,28 @@
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H62" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
@@ -2866,28 +2875,28 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G63" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J63" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
@@ -2901,28 +2910,28 @@
         <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G64" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H64" t="s">
         <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
@@ -2936,28 +2945,28 @@
         <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65" t="s">
+        <v>111</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
         <v>65</v>
       </c>
-      <c r="F65" t="s">
-        <v>116</v>
-      </c>
-      <c r="G65" t="s">
-        <v>65</v>
-      </c>
-      <c r="H65" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" t="s">
-        <v>19</v>
-      </c>
       <c r="J65" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -2971,19 +2980,19 @@
         <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G66" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="H66" t="s">
         <v>17</v>
@@ -3006,25 +3015,25 @@
         <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G67" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="H67" t="s">
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
         <v>28</v>
@@ -3041,7 +3050,7 @@
         <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D68" t="s">
         <v>119</v>
@@ -3050,7 +3059,7 @@
         <v>65</v>
       </c>
       <c r="F68" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G68" t="s">
         <v>65</v>
@@ -3076,16 +3085,16 @@
         <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
         <v>65</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
         <v>65</v>
@@ -3108,22 +3117,22 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
         <v>122</v>
       </c>
-      <c r="D70" t="s">
-        <v>123</v>
-      </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F70" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H70" t="s">
         <v>17</v>
@@ -3143,22 +3152,22 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F71" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H71" t="s">
         <v>17</v>
@@ -3178,22 +3187,22 @@
         <v>71.0</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F72" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H72" t="s">
         <v>17</v>
@@ -3213,10 +3222,10 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
         <v>127</v>
@@ -3225,7 +3234,7 @@
         <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G73" t="s">
         <v>30</v>
@@ -3248,19 +3257,19 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
         <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -3283,19 +3292,19 @@
         <v>74.0</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D75" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E75" t="s">
         <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G75" t="s">
         <v>30</v>
@@ -3318,19 +3327,19 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E76" t="s">
         <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -3339,10 +3348,10 @@
         <v>17</v>
       </c>
       <c r="I76" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K76" t="s">
         <v>17</v>
@@ -3353,19 +3362,19 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E77" t="s">
         <v>25</v>
       </c>
       <c r="F77" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -3374,10 +3383,10 @@
         <v>17</v>
       </c>
       <c r="I77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J77" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K77" t="s">
         <v>17</v>
@@ -3388,19 +3397,19 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E78" t="s">
         <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
@@ -3409,7 +3418,7 @@
         <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
@@ -3423,31 +3432,31 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="E79" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G79" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
         <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="J79" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s">
         <v>17</v>
@@ -3458,31 +3467,31 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E80" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G80" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s">
         <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K80" t="s">
         <v>17</v>
@@ -3493,28 +3502,28 @@
         <v>80.0</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E81" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G81" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H81" t="s">
         <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J81" t="s">
         <v>28</v>
@@ -3528,19 +3537,19 @@
         <v>81.0</v>
       </c>
       <c r="B82" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s">
         <v>65</v>
       </c>
       <c r="F82" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G82" t="s">
         <v>76</v>
@@ -3549,10 +3558,10 @@
         <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="J82" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="K82" t="s">
         <v>17</v>
@@ -3563,19 +3572,19 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
         <v>65</v>
       </c>
       <c r="F83" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
         <v>76</v>
@@ -3584,7 +3593,7 @@
         <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J83" t="s">
         <v>28</v>
@@ -3598,28 +3607,28 @@
         <v>83.0</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F84" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G84" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H84" t="s">
         <v>17</v>
       </c>
       <c r="I84" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="J84" t="s">
         <v>28</v>
@@ -3633,31 +3642,31 @@
         <v>84.0</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C85" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F85" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G85" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H85" t="s">
         <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="J85" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K85" t="s">
         <v>17</v>
@@ -3668,31 +3677,31 @@
         <v>85.0</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" t="s">
         <v>143</v>
       </c>
-      <c r="D86" t="s">
-        <v>146</v>
-      </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F86" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G86" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
       </c>
       <c r="I86" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J86" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K86" t="s">
         <v>17</v>
@@ -3703,31 +3712,31 @@
         <v>86.0</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D87" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F87" t="s">
         <v>145</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="J87" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K87" t="s">
         <v>17</v>
@@ -3738,10 +3747,10 @@
         <v>87.0</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D88" t="s">
         <v>148</v>
@@ -3750,7 +3759,7 @@
         <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G88" t="s">
         <v>21</v>
@@ -3759,7 +3768,7 @@
         <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J88" t="s">
         <v>28</v>
@@ -3773,19 +3782,19 @@
         <v>88.0</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E89" t="s">
         <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G89" t="s">
         <v>21</v>
@@ -3794,10 +3803,10 @@
         <v>17</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J89" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K89" t="s">
         <v>17</v>
@@ -3808,19 +3817,19 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E90" t="s">
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G90" t="s">
         <v>21</v>
@@ -3829,10 +3838,10 @@
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="J90" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
@@ -3843,19 +3852,19 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E91" t="s">
         <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G91" t="s">
         <v>21</v>
@@ -3878,19 +3887,19 @@
         <v>91.0</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E92" t="s">
         <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G92" t="s">
         <v>21</v>
@@ -3899,7 +3908,7 @@
         <v>17</v>
       </c>
       <c r="I92" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="J92" t="s">
         <v>28</v>
@@ -3913,31 +3922,31 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H93" t="s">
         <v>17</v>
       </c>
       <c r="I93" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J93" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
@@ -3948,22 +3957,22 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D94" t="s">
         <v>155</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H94" t="s">
         <v>17</v>
@@ -3983,31 +3992,31 @@
         <v>94.0</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E95" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F95" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="H95" t="s">
         <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K95" t="s">
         <v>17</v>
@@ -4018,31 +4027,31 @@
         <v>95.0</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C96" t="s">
         <v>156</v>
       </c>
       <c r="D96" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E96" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
         <v>158</v>
       </c>
       <c r="G96" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
         <v>17</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J96" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K96" t="s">
         <v>17</v>
@@ -4053,7 +4062,7 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
         <v>156</v>
@@ -4062,22 +4071,22 @@
         <v>159</v>
       </c>
       <c r="E97" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
         <v>158</v>
       </c>
       <c r="G97" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
         <v>17</v>
       </c>
       <c r="I97" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="J97" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K97" t="s">
         <v>17</v>
@@ -4088,10 +4097,10 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D98" t="s">
         <v>161</v>
@@ -4100,19 +4109,19 @@
         <v>65</v>
       </c>
       <c r="F98" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G98" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H98" t="s">
         <v>17</v>
       </c>
       <c r="I98" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K98" t="s">
         <v>17</v>
@@ -4123,22 +4132,22 @@
         <v>98.0</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="E99" t="s">
         <v>65</v>
       </c>
       <c r="F99" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G99" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H99" t="s">
         <v>17</v>
@@ -4158,31 +4167,31 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" t="s">
         <v>163</v>
       </c>
-      <c r="C100" t="s">
+      <c r="E100" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" t="s">
+        <v>162</v>
+      </c>
+      <c r="G100" t="s">
+        <v>146</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s">
         <v>164</v>
       </c>
-      <c r="D100" t="s">
-        <v>165</v>
-      </c>
-      <c r="E100" t="s">
-        <v>76</v>
-      </c>
-      <c r="F100" t="s">
-        <v>166</v>
-      </c>
-      <c r="G100" t="s">
-        <v>167</v>
-      </c>
-      <c r="H100" t="s">
-        <v>17</v>
-      </c>
-      <c r="I100" t="s">
-        <v>19</v>
-      </c>
       <c r="J100" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K100" t="s">
         <v>17</v>
@@ -4193,31 +4202,31 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D101" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E101" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F101" t="s">
+        <v>162</v>
+      </c>
+      <c r="G101" t="s">
+        <v>146</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s">
         <v>166</v>
       </c>
-      <c r="G101" t="s">
-        <v>167</v>
-      </c>
-      <c r="H101" t="s">
-        <v>17</v>
-      </c>
-      <c r="I101" t="s">
-        <v>25</v>
-      </c>
       <c r="J101" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K101" t="s">
         <v>17</v>
@@ -4228,22 +4237,22 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D102" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="E102" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F102" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G102" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
@@ -4263,31 +4272,31 @@
         <v>102.0</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C103" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E103" t="s">
         <v>76</v>
       </c>
       <c r="F103" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G103" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H103" t="s">
         <v>17</v>
       </c>
       <c r="I103" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="J103" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K103" t="s">
         <v>17</v>
@@ -4298,10 +4307,10 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C104" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D104" t="s">
         <v>172</v>
@@ -4310,19 +4319,19 @@
         <v>76</v>
       </c>
       <c r="F104" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G104" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H104" t="s">
         <v>17</v>
       </c>
       <c r="I104" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J104" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K104" t="s">
         <v>17</v>
@@ -4333,10 +4342,10 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D105" t="s">
         <v>173</v>
@@ -4345,16 +4354,16 @@
         <v>76</v>
       </c>
       <c r="F105" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G105" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H105" t="s">
         <v>17</v>
       </c>
       <c r="I105" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J105" t="s">
         <v>28</v>
@@ -4368,10 +4377,10 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C106" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D106" t="s">
         <v>174</v>
@@ -4380,19 +4389,19 @@
         <v>76</v>
       </c>
       <c r="F106" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G106" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H106" t="s">
         <v>17</v>
       </c>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="J106" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K106" t="s">
         <v>17</v>
@@ -4403,31 +4412,31 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D107" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E107" t="s">
         <v>76</v>
       </c>
       <c r="F107" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G107" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H107" t="s">
         <v>17</v>
       </c>
       <c r="I107" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J107" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="K107" t="s">
         <v>17</v>
@@ -4438,28 +4447,28 @@
         <v>107.0</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C108" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D108" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E108" t="s">
         <v>76</v>
       </c>
       <c r="F108" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G108" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H108" t="s">
         <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="J108" t="s">
         <v>28</v>
@@ -4473,28 +4482,28 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D109" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E109" t="s">
         <v>76</v>
       </c>
       <c r="F109" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G109" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H109" t="s">
         <v>17</v>
       </c>
       <c r="I109" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J109" t="s">
         <v>28</v>
@@ -4508,22 +4517,22 @@
         <v>109.0</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C110" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D110" t="s">
         <v>179</v>
       </c>
       <c r="E110" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F110" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G110" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H110" t="s">
         <v>17</v>
@@ -4543,22 +4552,22 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C111" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D111" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F111" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G111" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H111" t="s">
         <v>17</v>
@@ -4578,28 +4587,28 @@
         <v>111.0</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C112" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D112" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F112" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G112" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H112" t="s">
         <v>17</v>
       </c>
       <c r="I112" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J112" t="s">
         <v>28</v>
@@ -4613,31 +4622,31 @@
         <v>112.0</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C113" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E113" t="s">
         <v>61</v>
       </c>
       <c r="F113" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G113" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H113" t="s">
         <v>17</v>
       </c>
       <c r="I113" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="J113" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K113" t="s">
         <v>17</v>
@@ -4648,22 +4657,22 @@
         <v>113.0</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C114" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D114" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E114" t="s">
         <v>61</v>
       </c>
       <c r="F114" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G114" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H114" t="s">
         <v>17</v>
@@ -4683,31 +4692,31 @@
         <v>114.0</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C115" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D115" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E115" t="s">
         <v>61</v>
       </c>
       <c r="F115" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G115" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H115" t="s">
         <v>17</v>
       </c>
       <c r="I115" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="J115" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K115" t="s">
         <v>17</v>
@@ -4718,31 +4727,31 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C116" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D116" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E116" t="s">
         <v>61</v>
       </c>
       <c r="F116" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G116" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H116" t="s">
         <v>17</v>
       </c>
       <c r="I116" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J116" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K116" t="s">
         <v>17</v>
@@ -4753,31 +4762,31 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D117" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E117" t="s">
         <v>61</v>
       </c>
       <c r="F117" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G117" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H117" t="s">
         <v>17</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J117" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K117" t="s">
         <v>17</v>
@@ -4788,31 +4797,31 @@
         <v>117.0</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C118" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D118" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E118" t="s">
         <v>61</v>
       </c>
       <c r="F118" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G118" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="J118" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="K118" t="s">
         <v>17</v>
@@ -4823,31 +4832,31 @@
         <v>118.0</v>
       </c>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D119" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E119" t="s">
         <v>61</v>
       </c>
       <c r="F119" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G119" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H119" t="s">
         <v>17</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="J119" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K119" t="s">
         <v>17</v>
@@ -4858,31 +4867,31 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D120" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E120" t="s">
         <v>61</v>
       </c>
       <c r="F120" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G120" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H120" t="s">
         <v>17</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J120" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K120" t="s">
         <v>17</v>
@@ -4893,31 +4902,31 @@
         <v>120.0</v>
       </c>
       <c r="B121" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D121" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="E121" t="s">
         <v>61</v>
       </c>
       <c r="F121" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G121" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H121" t="s">
         <v>17</v>
       </c>
       <c r="I121" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J121" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="K121" t="s">
         <v>17</v>
@@ -4928,28 +4937,28 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C122" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D122" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E122" t="s">
         <v>61</v>
       </c>
       <c r="F122" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G122" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H122" t="s">
         <v>17</v>
       </c>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J122" t="s">
         <v>28</v>
@@ -4963,22 +4972,22 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D123" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E123" t="s">
         <v>61</v>
       </c>
       <c r="F123" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G123" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H123" t="s">
         <v>17</v>
@@ -4998,28 +5007,28 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="E124" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F124" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="G124" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="H124" t="s">
         <v>17</v>
       </c>
       <c r="I124" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="J124" t="s">
         <v>28</v>
@@ -5033,28 +5042,28 @@
         <v>124.0</v>
       </c>
       <c r="B125" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E125" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F125" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="G125" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="H125" t="s">
         <v>17</v>
       </c>
       <c r="I125" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="J125" t="s">
         <v>28</v>
@@ -5068,28 +5077,28 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C126" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D126" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E126" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F126" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="G126" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="H126" t="s">
         <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="J126" t="s">
         <v>28</v>
@@ -5103,28 +5112,28 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C127" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D127" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H127" t="s">
         <v>17</v>
       </c>
       <c r="I127" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="J127" t="s">
         <v>28</v>
@@ -5138,28 +5147,28 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C128" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D128" t="s">
+        <v>180</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>164</v>
+      </c>
+      <c r="G128" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" t="s">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s">
         <v>193</v>
-      </c>
-      <c r="E128" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" t="s">
-        <v>17</v>
-      </c>
-      <c r="I128" t="s">
-        <v>19</v>
       </c>
       <c r="J128" t="s">
         <v>28</v>
@@ -5173,28 +5182,28 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C129" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D129" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="E129" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F129" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G129" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
         <v>17</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="J129" t="s">
         <v>28</v>
@@ -5208,31 +5217,31 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C130" t="s">
         <v>194</v>
       </c>
       <c r="D130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
         <v>17</v>
       </c>
       <c r="I130" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="J130" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K130" t="s">
         <v>17</v>
@@ -5243,28 +5252,28 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s">
         <v>194</v>
       </c>
       <c r="D131" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="E131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="G131" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
         <v>17</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J131" t="s">
         <v>28</v>
@@ -5278,28 +5287,28 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D132" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="E132" t="s">
         <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G132" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H132" t="s">
         <v>17</v>
       </c>
       <c r="I132" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="J132" t="s">
         <v>28</v>
@@ -5313,10 +5322,10 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C133" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D133" t="s">
         <v>199</v>
@@ -5325,19 +5334,19 @@
         <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G133" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H133" t="s">
         <v>17</v>
       </c>
       <c r="I133" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="J133" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K133" t="s">
         <v>17</v>
@@ -5348,31 +5357,31 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D134" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="E134" t="s">
         <v>16</v>
       </c>
       <c r="F134" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G134" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H134" t="s">
         <v>17</v>
       </c>
       <c r="I134" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="J134" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="K134" t="s">
         <v>17</v>
@@ -5383,28 +5392,28 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C135" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D135" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="E135" t="s">
         <v>16</v>
       </c>
       <c r="F135" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G135" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H135" t="s">
         <v>17</v>
       </c>
       <c r="I135" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="J135" t="s">
         <v>28</v>
@@ -5418,28 +5427,28 @@
         <v>135.0</v>
       </c>
       <c r="B136" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D136" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="E136" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="G136" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="H136" t="s">
         <v>17</v>
       </c>
       <c r="I136" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="J136" t="s">
         <v>28</v>
@@ -5453,31 +5462,31 @@
         <v>136.0</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C137" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D137" t="s">
         <v>203</v>
       </c>
       <c r="E137" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G137" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="H137" t="s">
         <v>17</v>
       </c>
       <c r="I137" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="J137" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="K137" t="s">
         <v>17</v>
@@ -5488,22 +5497,22 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C138" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D138" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="E138" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F138" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G138" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="H138" t="s">
         <v>17</v>
@@ -5523,28 +5532,28 @@
         <v>138.0</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C139" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D139" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="E139" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="G139" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H139" t="s">
         <v>17</v>
       </c>
       <c r="I139" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J139" t="s">
         <v>28</v>
@@ -5558,19 +5567,19 @@
         <v>139.0</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C140" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D140" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E140" t="s">
         <v>67</v>
       </c>
       <c r="F140" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G140" t="s">
         <v>67</v>
@@ -5593,19 +5602,19 @@
         <v>140.0</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C141" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D141" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E141" t="s">
         <v>67</v>
       </c>
       <c r="F141" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G141" t="s">
         <v>67</v>
@@ -5628,10 +5637,10 @@
         <v>141.0</v>
       </c>
       <c r="B142" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C142" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D142" t="s">
         <v>177</v>
@@ -5640,7 +5649,7 @@
         <v>67</v>
       </c>
       <c r="F142" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G142" t="s">
         <v>67</v>
@@ -5649,7 +5658,7 @@
         <v>17</v>
       </c>
       <c r="I142" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J142" t="s">
         <v>28</v>
@@ -5663,28 +5672,28 @@
         <v>142.0</v>
       </c>
       <c r="B143" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="C143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D143" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="E143" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F143" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="G143" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H143" t="s">
         <v>17</v>
       </c>
       <c r="I143" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J143" t="s">
         <v>28</v>
@@ -5698,28 +5707,28 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D144" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="E144" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F144" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="G144" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H144" t="s">
         <v>17</v>
       </c>
       <c r="I144" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J144" t="s">
         <v>28</v>
@@ -5733,28 +5742,28 @@
         <v>144.0</v>
       </c>
       <c r="B145" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="E145" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F145" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="G145" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H145" t="s">
         <v>17</v>
       </c>
       <c r="I145" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J145" t="s">
         <v>28</v>
@@ -5771,10 +5780,10 @@
         <v>58</v>
       </c>
       <c r="C146" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D146" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E146" t="s">
         <v>76</v>
@@ -5806,10 +5815,10 @@
         <v>58</v>
       </c>
       <c r="C147" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D147" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E147" t="s">
         <v>76</v>
@@ -5841,10 +5850,10 @@
         <v>58</v>
       </c>
       <c r="C148" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D148" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E148" t="s">
         <v>76</v>
@@ -5876,10 +5885,10 @@
         <v>58</v>
       </c>
       <c r="C149" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D149" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E149" t="s">
         <v>76</v>
@@ -5911,10 +5920,10 @@
         <v>58</v>
       </c>
       <c r="C150" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D150" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E150" t="s">
         <v>76</v>
@@ -5946,10 +5955,10 @@
         <v>58</v>
       </c>
       <c r="C151" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D151" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E151" t="s">
         <v>76</v>
@@ -5981,10 +5990,10 @@
         <v>58</v>
       </c>
       <c r="C152" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D152" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E152" t="s">
         <v>76</v>
@@ -6005,6 +6014,111 @@
         <v>28</v>
       </c>
       <c r="K152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>58</v>
+      </c>
+      <c r="C153" t="s">
+        <v>209</v>
+      </c>
+      <c r="D153" t="s">
+        <v>74</v>
+      </c>
+      <c r="E153" t="s">
+        <v>76</v>
+      </c>
+      <c r="F153" t="s">
+        <v>51</v>
+      </c>
+      <c r="G153" t="s">
+        <v>76</v>
+      </c>
+      <c r="H153" t="s">
+        <v>17</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" t="s">
+        <v>28</v>
+      </c>
+      <c r="K153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>58</v>
+      </c>
+      <c r="C154" t="s">
+        <v>209</v>
+      </c>
+      <c r="D154" t="s">
+        <v>75</v>
+      </c>
+      <c r="E154" t="s">
+        <v>76</v>
+      </c>
+      <c r="F154" t="s">
+        <v>51</v>
+      </c>
+      <c r="G154" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" t="s">
+        <v>28</v>
+      </c>
+      <c r="K154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>58</v>
+      </c>
+      <c r="C155" t="s">
+        <v>209</v>
+      </c>
+      <c r="D155" t="s">
+        <v>77</v>
+      </c>
+      <c r="E155" t="s">
+        <v>76</v>
+      </c>
+      <c r="F155" t="s">
+        <v>51</v>
+      </c>
+      <c r="G155" t="s">
+        <v>76</v>
+      </c>
+      <c r="H155" t="s">
+        <v>17</v>
+      </c>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" t="s">
+        <v>28</v>
+      </c>
+      <c r="K155" t="s">
         <v>17</v>
       </c>
     </row>

--- a/src/src_metrics.xlsx
+++ b/src/src_metrics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="221">
   <si>
     <t>MethodID</t>
   </si>
@@ -92,7 +92,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>92</t>
+    <t>94</t>
   </si>
   <si>
     <t>17</t>
@@ -131,468 +131,468 @@
     <t>getResults</t>
   </si>
   <si>
-    <t>RuleCondition</t>
-  </si>
-  <si>
-    <t>getMetric</t>
+    <t>RuleNode</t>
+  </si>
+  <si>
+    <t>getElement</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>getLeft_node</t>
+  </si>
+  <si>
+    <t>getRight_node</t>
+  </si>
+  <si>
+    <t>setElement</t>
+  </si>
+  <si>
+    <t>setLeft_node</t>
+  </si>
+  <si>
+    <t>setRight_node</t>
+  </si>
+  <si>
+    <t>isLeafNode</t>
+  </si>
+  <si>
+    <t>saveRule</t>
+  </si>
+  <si>
+    <t>g1.ISCTE</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>AppStyle</t>
+  </si>
+  <si>
+    <t>getFont</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>getLabelWithColorAndFont</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>getSubTitleLabel</t>
+  </si>
+  <si>
+    <t>getTitleLabel</t>
+  </si>
+  <si>
+    <t>setUpPopupStage</t>
+  </si>
+  <si>
+    <t>setUpPopup</t>
+  </si>
+  <si>
+    <t>setUpPoupScene</t>
+  </si>
+  <si>
+    <t>customFadingIn</t>
+  </si>
+  <si>
+    <t>addFadingIn</t>
+  </si>
+  <si>
+    <t>removeFadingOut</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>getDropShadow</t>
+  </si>
+  <si>
+    <t>addFadingInGroup</t>
+  </si>
+  <si>
+    <t>Helpers</t>
+  </si>
+  <si>
+    <t>getExtensionByStringHandling</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>MyTree</t>
+  </si>
+  <si>
+    <t>percolateFolder</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>getScrollPane</t>
+  </si>
+  <si>
+    <t>NewGUI</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>getLeft</t>
+  </si>
+  <si>
+    <t>getButtonsLeft</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>updateFilePane</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>getSpacer</t>
+  </si>
+  <si>
+    <t>getEmptyLeftPane</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>loadCenterPaneWebView</t>
+  </si>
+  <si>
+    <t>updateCenterPane</t>
+  </si>
+  <si>
+    <t>centerPane</t>
+  </si>
+  <si>
+    <t>addTableToCenterPane</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>configureTableData</t>
+  </si>
+  <si>
+    <t>fillTable</t>
+  </si>
+  <si>
+    <t>blurBackground</t>
+  </si>
+  <si>
+    <t>getInfoBoxes</t>
+  </si>
+  <si>
+    <t>getSquareInfoBox</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>ProjectInfo</t>
+  </si>
+  <si>
+    <t>packageCounter</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>classCounter</t>
+  </si>
+  <si>
+    <t>methodCounter</t>
+  </si>
+  <si>
+    <t>lineCounter</t>
+  </si>
+  <si>
+    <t>getMetricsTable</t>
+  </si>
+  <si>
+    <t>printArray</t>
+  </si>
+  <si>
+    <t>getMainMetricsInfo</t>
+  </si>
+  <si>
+    <t>TableHolder</t>
+  </si>
+  <si>
+    <t>getNOM_class</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>getLOC_class</t>
+  </si>
+  <si>
+    <t>getWMC_class</t>
+  </si>
+  <si>
+    <t>getLOC_method</t>
+  </si>
+  <si>
+    <t>getCYCLO_method</t>
+  </si>
+  <si>
+    <t>metric_extraction</t>
+  </si>
+  <si>
+    <t>ClassMetrics</t>
+  </si>
+  <si>
+    <t>getLoc_class</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>getNom_class</t>
+  </si>
+  <si>
+    <t>getWmc_class</t>
+  </si>
+  <si>
+    <t>getClass_name</t>
+  </si>
+  <si>
+    <t>getClass_package</t>
+  </si>
+  <si>
+    <t>getClass_methods</t>
+  </si>
+  <si>
+    <t>getMetrics_by_method</t>
+  </si>
+  <si>
+    <t>printInfo</t>
+  </si>
+  <si>
+    <t>getMetricsForDetection</t>
+  </si>
+  <si>
+    <t>ExtractionWorker</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>extractClassMethods</t>
+  </si>
+  <si>
+    <t>getCodeParser</t>
+  </si>
+  <si>
+    <t>extractLOC_Class</t>
+  </si>
+  <si>
+    <t>getMetrics</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>calculateMethodMetrics</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>calculateCyclo_Method</t>
+  </si>
+  <si>
+    <t>calculateLoc_Method</t>
+  </si>
+  <si>
+    <t>getCyclo_method</t>
+  </si>
+  <si>
+    <t>getLoc_method</t>
+  </si>
+  <si>
+    <t>getMethod_name</t>
+  </si>
+  <si>
+    <t>getMethod</t>
+  </si>
+  <si>
+    <t>MethodVisitor</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>getMethods</t>
+  </si>
+  <si>
+    <t>MetricExtractor</t>
+  </si>
+  <si>
+    <t>getFilesFromProjectDirectory</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>executeExtraction</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>exportResultsToFile</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>RuleEditor</t>
+  </si>
+  <si>
+    <t>AndBlock</t>
+  </si>
+  <si>
+    <t>getLeftLabelVBox</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>getRightLabelVBox</t>
+  </si>
+  <si>
+    <t>getLabel</t>
+  </si>
+  <si>
+    <t>setDepth</t>
+  </si>
+  <si>
+    <t>getCentralBox</t>
+  </si>
+  <si>
+    <t>setDrag</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>setLabelListener</t>
+  </si>
+  <si>
+    <t>getHBox</t>
+  </si>
+  <si>
+    <t>getBoxColor</t>
+  </si>
+  <si>
+    <t>getGraphicalRepresentation</t>
+  </si>
+  <si>
+    <t>getType</t>
+  </si>
+  <si>
+    <t>getRuleMakerBox</t>
+  </si>
+  <si>
+    <t>getOperator</t>
+  </si>
+  <si>
+    <t>ConditionBlock</t>
+  </si>
+  <si>
+    <t>getRule</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>getoQueEstaASerDragged</t>
+  </si>
+  <si>
+    <t>getRuleBlock</t>
+  </si>
+  <si>
+    <t>getStyledButton</t>
+  </si>
+  <si>
+    <t>optionsHBox</t>
+  </si>
+  <si>
+    <t>valueHBox</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>getOperator</t>
-  </si>
-  <si>
-    <t>getThreshold</t>
-  </si>
-  <si>
-    <t>setMetric</t>
-  </si>
-  <si>
-    <t>setOperator</t>
-  </si>
-  <si>
-    <t>setThreshold</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>setContextMenuDeletion</t>
+  </si>
+  <si>
+    <t>getValue</t>
   </si>
   <si>
     <t>evaluate</t>
   </si>
   <si>
-    <t>RuleNode</t>
-  </si>
-  <si>
-    <t>getElement</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>getLeft_node</t>
-  </si>
-  <si>
-    <t>getRight_node</t>
-  </si>
-  <si>
-    <t>setElement</t>
-  </si>
-  <si>
-    <t>setLeft_node</t>
-  </si>
-  <si>
-    <t>setRight_node</t>
-  </si>
-  <si>
-    <t>isLeafNode</t>
-  </si>
-  <si>
-    <t>g1.ISCTE</t>
-  </si>
-  <si>
-    <t>App</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>AppStyle</t>
-  </si>
-  <si>
-    <t>getFont</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>getLabelWithColorAndFont</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>getSubTitleLabel</t>
-  </si>
-  <si>
-    <t>getTitleLabel</t>
-  </si>
-  <si>
-    <t>setUpPopupStage</t>
-  </si>
-  <si>
-    <t>setUpPopup</t>
-  </si>
-  <si>
-    <t>setUpPoupScene</t>
-  </si>
-  <si>
-    <t>customFadingIn</t>
-  </si>
-  <si>
-    <t>addFadingIn</t>
-  </si>
-  <si>
-    <t>removeFadingOut</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>getDropShadow</t>
-  </si>
-  <si>
-    <t>addFadingInGroup</t>
-  </si>
-  <si>
-    <t>Helpers</t>
-  </si>
-  <si>
-    <t>getExtensionByStringHandling</t>
-  </si>
-  <si>
-    <t>MyTree</t>
-  </si>
-  <si>
-    <t>percolateFolder</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>getScrollPane</t>
-  </si>
-  <si>
-    <t>NewGUI</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>getLeft</t>
-  </si>
-  <si>
-    <t>getButtonsLeft</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>updateFilePane</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>getSpacer</t>
-  </si>
-  <si>
-    <t>getEmptyLeftPane</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>loadCenterPaneWebView</t>
-  </si>
-  <si>
-    <t>updateCenterPane</t>
-  </si>
-  <si>
-    <t>centerPane</t>
-  </si>
-  <si>
-    <t>addTableToCenterPane</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>configureTableData</t>
-  </si>
-  <si>
-    <t>fillTable</t>
-  </si>
-  <si>
-    <t>blurBackground</t>
-  </si>
-  <si>
-    <t>getInfoBoxes</t>
-  </si>
-  <si>
-    <t>getSquareInfoBox</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>ProjectInfo</t>
-  </si>
-  <si>
-    <t>packageCounter</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>classCounter</t>
-  </si>
-  <si>
-    <t>methodCounter</t>
-  </si>
-  <si>
-    <t>lineCounter</t>
-  </si>
-  <si>
-    <t>getMetricsTable</t>
-  </si>
-  <si>
-    <t>printArray</t>
-  </si>
-  <si>
-    <t>getMainMetricsInfo</t>
-  </si>
-  <si>
-    <t>TableHolder</t>
-  </si>
-  <si>
-    <t>getNOM_class</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>getLOC_class</t>
-  </si>
-  <si>
-    <t>getWMC_class</t>
-  </si>
-  <si>
-    <t>getLOC_method</t>
-  </si>
-  <si>
-    <t>getCYCLO_method</t>
-  </si>
-  <si>
-    <t>metric_extraction</t>
-  </si>
-  <si>
-    <t>ClassMetrics</t>
-  </si>
-  <si>
-    <t>getLoc_class</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>getNom_class</t>
-  </si>
-  <si>
-    <t>getWmc_class</t>
-  </si>
-  <si>
-    <t>getClass_name</t>
-  </si>
-  <si>
-    <t>getClass_package</t>
-  </si>
-  <si>
-    <t>getClass_methods</t>
-  </si>
-  <si>
-    <t>getMetrics_by_method</t>
-  </si>
-  <si>
-    <t>printInfo</t>
-  </si>
-  <si>
-    <t>getMetricsForDetection</t>
-  </si>
-  <si>
-    <t>ExtractionWorker</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>extractClassMethods</t>
-  </si>
-  <si>
-    <t>getCodeParser</t>
-  </si>
-  <si>
-    <t>extractLOC_Class</t>
-  </si>
-  <si>
-    <t>getMetrics</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>calculateMethodMetrics</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>calculateCyclo_Method</t>
-  </si>
-  <si>
-    <t>calculateLoc_Method</t>
-  </si>
-  <si>
-    <t>getCyclo_method</t>
-  </si>
-  <si>
-    <t>getLoc_method</t>
-  </si>
-  <si>
-    <t>getMethod_name</t>
-  </si>
-  <si>
-    <t>getMethod</t>
-  </si>
-  <si>
-    <t>MethodVisitor</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>getMethods</t>
-  </si>
-  <si>
-    <t>MetricExtractor</t>
-  </si>
-  <si>
-    <t>getFilesFromProjectDirectory</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>executeExtraction</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>exportResultsToFile</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>RuleEditor</t>
-  </si>
-  <si>
-    <t>AndBlock</t>
-  </si>
-  <si>
-    <t>getLabel</t>
-  </si>
-  <si>
-    <t>283</t>
+    <t>CustomNode</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>setDepth</t>
-  </si>
-  <si>
-    <t>getCentralBox</t>
-  </si>
-  <si>
-    <t>setDrag</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>setLabelListener</t>
-  </si>
-  <si>
-    <t>getHBox</t>
-  </si>
-  <si>
-    <t>getBoxColor</t>
-  </si>
-  <si>
-    <t>getGraphicalRepresentation</t>
-  </si>
-  <si>
-    <t>getType</t>
-  </si>
-  <si>
-    <t>getRuleMakerBox</t>
-  </si>
-  <si>
-    <t>ConditionBlock</t>
-  </si>
-  <si>
-    <t>getoQueEstaASerDragged</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>getRuleBlock</t>
-  </si>
-  <si>
-    <t>getStyledButton</t>
-  </si>
-  <si>
-    <t>optionsHBox</t>
-  </si>
-  <si>
-    <t>valueHBox</t>
-  </si>
-  <si>
-    <t>setContextMenuDeletion</t>
-  </si>
-  <si>
-    <t>getValue</t>
-  </si>
-  <si>
-    <t>CustomNodes</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -608,7 +608,7 @@
     <t>FinalMain</t>
   </si>
   <si>
-    <t>334</t>
+    <t>376</t>
   </si>
   <si>
     <t>getVBox</t>
@@ -620,12 +620,21 @@
     <t>rightVBox</t>
   </si>
   <si>
+    <t>transverseMainPaneChildren</t>
+  </si>
+  <si>
+    <t>getSaveButton</t>
+  </si>
+  <si>
     <t>configureSplitPane</t>
   </si>
   <si>
     <t>configureMainPane</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>RuleApp</t>
   </si>
   <si>
@@ -635,10 +644,34 @@
     <t>getIsNumeric</t>
   </si>
   <si>
-    <t>73</t>
+    <t>79</t>
   </si>
   <si>
     <t>getRuleMessage</t>
+  </si>
+  <si>
+    <t>RuleComplete</t>
+  </si>
+  <si>
+    <t>getNode</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>getRight</t>
+  </si>
+  <si>
+    <t>clearRightSide</t>
+  </si>
+  <si>
+    <t>clearLeftSide</t>
+  </si>
+  <si>
+    <t>addToSide</t>
+  </si>
+  <si>
+    <t>search</t>
   </si>
   <si>
     <t>AppStyleTest</t>
@@ -1131,13 +1164,13 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
@@ -1163,16 +1196,16 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -1198,16 +1231,16 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
@@ -1233,16 +1266,16 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
@@ -1268,16 +1301,16 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
@@ -1303,16 +1336,16 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
@@ -1338,25 +1371,25 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -1370,19 +1403,19 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
@@ -1402,22 +1435,22 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
         <v>17</v>
@@ -1437,28 +1470,28 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
         <v>28</v>
@@ -1472,28 +1505,28 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
         <v>28</v>
@@ -1507,28 +1540,28 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
         <v>55</v>
       </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
         <v>28</v>
@@ -1542,28 +1575,28 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
         <v>28</v>
@@ -1577,28 +1610,28 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
         <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
       </c>
       <c r="J26" t="s">
         <v>28</v>
@@ -1612,28 +1645,28 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" t="s">
-        <v>19</v>
       </c>
       <c r="J27" t="s">
         <v>28</v>
@@ -1647,10 +1680,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
         <v>63</v>
@@ -1659,16 +1692,16 @@
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
         <v>28</v>
@@ -1682,28 +1715,28 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="J29" t="s">
         <v>28</v>
@@ -1717,28 +1750,28 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
@@ -1752,22 +1785,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -1776,7 +1809,7 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
@@ -1787,22 +1820,22 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
         <v>17</v>
@@ -1822,31 +1855,31 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="J33" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -1857,28 +1890,28 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
         <v>72</v>
       </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
-      </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
@@ -1892,31 +1925,31 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s">
         <v>58</v>
       </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" t="s">
-        <v>61</v>
-      </c>
       <c r="H35" t="s">
         <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
@@ -1927,28 +1960,28 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s">
         <v>58</v>
       </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" t="s">
-        <v>61</v>
-      </c>
       <c r="H36" t="s">
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s">
         <v>28</v>
@@ -1962,31 +1995,31 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s">
         <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
@@ -1997,28 +2030,28 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
@@ -2032,31 +2065,31 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
         <v>78</v>
       </c>
-      <c r="E39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" t="s">
-        <v>64</v>
-      </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s">
         <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
@@ -2067,31 +2100,31 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="D40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
       <c r="H40" t="s">
         <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -2102,31 +2135,31 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s">
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="K41" t="s">
         <v>17</v>
@@ -2137,28 +2170,28 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s">
         <v>28</v>
@@ -2172,31 +2205,31 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
         <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
         <v>87</v>
       </c>
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" t="s">
-        <v>19</v>
-      </c>
       <c r="J43" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -2207,10 +2240,10 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
         <v>88</v>
@@ -2219,16 +2252,16 @@
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
@@ -2242,10 +2275,10 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
         <v>89</v>
@@ -2254,19 +2287,19 @@
         <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
         <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="J45" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
@@ -2277,31 +2310,31 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
         <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
         <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K46" t="s">
         <v>17</v>
@@ -2312,28 +2345,28 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E47" t="s">
         <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
@@ -2347,28 +2380,28 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
         <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
         <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
@@ -2382,10 +2415,10 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
         <v>94</v>
@@ -2394,19 +2427,19 @@
         <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s">
         <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -2417,31 +2450,31 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
         <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
         <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J50" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -2452,31 +2485,31 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E51" t="s">
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s">
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J51" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -2487,28 +2520,28 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
         <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s">
         <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2522,28 +2555,28 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
         <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s">
         <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
@@ -2557,31 +2590,31 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H54" t="s">
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="J54" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
@@ -2592,28 +2625,28 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
         <v>102</v>
       </c>
-      <c r="E55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" t="s">
-        <v>86</v>
-      </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H55" t="s">
         <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
@@ -2627,28 +2660,28 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" t="s">
         <v>103</v>
       </c>
-      <c r="E56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" t="s">
-        <v>86</v>
-      </c>
-      <c r="G56" t="s">
-        <v>87</v>
-      </c>
       <c r="H56" t="s">
         <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="J56" t="s">
         <v>19</v>
@@ -2662,31 +2695,31 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H57" t="s">
         <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J57" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -2697,22 +2730,22 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
@@ -2721,7 +2754,7 @@
         <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
@@ -2732,31 +2765,31 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H59" t="s">
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="J59" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
@@ -2767,10 +2800,10 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
         <v>109</v>
@@ -2779,19 +2812,19 @@
         <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G60" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H60" t="s">
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J60" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -2802,31 +2835,31 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
         <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G61" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H61" t="s">
         <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -2837,31 +2870,31 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="H62" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
@@ -2872,31 +2905,31 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G63" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
@@ -2907,31 +2940,31 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G64" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="H64" t="s">
         <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J64" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
@@ -2942,31 +2975,31 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="H65" t="s">
         <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="J65" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -2977,22 +3010,22 @@
         <v>65.0</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G66" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="H66" t="s">
         <v>17</v>
@@ -3012,28 +3045,28 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G67" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J67" t="s">
         <v>28</v>
@@ -3047,22 +3080,22 @@
         <v>67.0</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
         <v>118</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F68" t="s">
         <v>120</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s">
         <v>17</v>
@@ -3082,22 +3115,22 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
         <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
         <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H69" t="s">
         <v>17</v>
@@ -3117,22 +3150,22 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
         <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
         <v>120</v>
       </c>
       <c r="G70" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
         <v>17</v>
@@ -3152,22 +3185,22 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
         <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
         <v>120</v>
       </c>
       <c r="G71" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s">
         <v>17</v>
@@ -3187,22 +3220,22 @@
         <v>71.0</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
         <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
         <v>120</v>
       </c>
       <c r="G72" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
         <v>17</v>
@@ -3222,19 +3255,19 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" t="s">
         <v>126</v>
-      </c>
-      <c r="D73" t="s">
-        <v>127</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G73" t="s">
         <v>30</v>
@@ -3243,10 +3276,10 @@
         <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J73" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
@@ -3257,19 +3290,19 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E74" t="s">
         <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -3278,10 +3311,10 @@
         <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
@@ -3292,19 +3325,19 @@
         <v>74.0</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E75" t="s">
         <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G75" t="s">
         <v>30</v>
@@ -3313,7 +3346,7 @@
         <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J75" t="s">
         <v>28</v>
@@ -3327,31 +3360,31 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" t="s">
+        <v>130</v>
+      </c>
+      <c r="G76" t="s">
+        <v>67</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
         <v>131</v>
       </c>
-      <c r="E76" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" t="s">
-        <v>128</v>
-      </c>
-      <c r="G76" t="s">
-        <v>30</v>
-      </c>
-      <c r="H76" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" t="s">
-        <v>19</v>
-      </c>
       <c r="J76" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K76" t="s">
         <v>17</v>
@@ -3362,28 +3395,28 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D77" t="s">
         <v>132</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F77" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H77" t="s">
         <v>17</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J77" t="s">
         <v>28</v>
@@ -3397,28 +3430,28 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D78" t="s">
         <v>133</v>
       </c>
       <c r="E78" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
@@ -3432,31 +3465,31 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D79" t="s">
         <v>134</v>
       </c>
       <c r="E79" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
         <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K79" t="s">
         <v>17</v>
@@ -3467,31 +3500,31 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
         <v>135</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H80" t="s">
         <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J80" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K80" t="s">
         <v>17</v>
@@ -3502,28 +3535,28 @@
         <v>80.0</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
         <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J81" t="s">
         <v>28</v>
@@ -3537,31 +3570,31 @@
         <v>81.0</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
         <v>137</v>
       </c>
-      <c r="D82" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" t="s">
-        <v>138</v>
-      </c>
       <c r="G82" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="J82" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="K82" t="s">
         <v>17</v>
@@ -3572,28 +3605,28 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" t="s">
         <v>140</v>
       </c>
-      <c r="E83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" t="s">
-        <v>138</v>
-      </c>
       <c r="G83" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="H83" t="s">
         <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="J83" t="s">
         <v>28</v>
@@ -3607,31 +3640,31 @@
         <v>83.0</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D84" t="s">
         <v>141</v>
       </c>
       <c r="E84" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G84" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="H84" t="s">
         <v>17</v>
       </c>
       <c r="I84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J84" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K84" t="s">
         <v>17</v>
@@ -3642,28 +3675,28 @@
         <v>84.0</v>
       </c>
       <c r="B85" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
         <v>142</v>
       </c>
       <c r="E85" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G85" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="H85" t="s">
         <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J85" t="s">
         <v>14</v>
@@ -3677,22 +3710,22 @@
         <v>85.0</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D86" t="s">
         <v>143</v>
       </c>
       <c r="E86" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G86" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
@@ -3712,28 +3745,28 @@
         <v>86.0</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" t="s">
         <v>144</v>
       </c>
-      <c r="D87" t="s">
-        <v>60</v>
-      </c>
       <c r="E87" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="J87" t="s">
         <v>28</v>
@@ -3747,19 +3780,19 @@
         <v>87.0</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
         <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G88" t="s">
         <v>21</v>
@@ -3768,7 +3801,7 @@
         <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J88" t="s">
         <v>28</v>
@@ -3782,19 +3815,19 @@
         <v>88.0</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E89" t="s">
         <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G89" t="s">
         <v>21</v>
@@ -3803,10 +3836,10 @@
         <v>17</v>
       </c>
       <c r="I89" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J89" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K89" t="s">
         <v>17</v>
@@ -3817,19 +3850,19 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E90" t="s">
         <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G90" t="s">
         <v>21</v>
@@ -3838,10 +3871,10 @@
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="J90" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
@@ -3852,31 +3885,31 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
         <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s">
         <v>149</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
         <v>17</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J91" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K91" t="s">
         <v>17</v>
@@ -3887,22 +3920,22 @@
         <v>91.0</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
         <v>147</v>
       </c>
       <c r="D92" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
         <v>149</v>
       </c>
       <c r="G92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
@@ -3922,31 +3955,31 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D93" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" t="s">
+        <v>153</v>
+      </c>
+      <c r="G93" t="s">
         <v>154</v>
       </c>
-      <c r="E93" t="s">
-        <v>32</v>
-      </c>
-      <c r="F93" t="s">
-        <v>149</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
       <c r="H93" t="s">
         <v>17</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J93" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
@@ -3957,22 +3990,22 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F94" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G94" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="H94" t="s">
         <v>17</v>
@@ -3992,31 +4025,31 @@
         <v>94.0</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F95" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="H95" t="s">
         <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="J95" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K95" t="s">
         <v>17</v>
@@ -4027,31 +4060,31 @@
         <v>95.0</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D96" t="s">
         <v>157</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F96" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" t="s">
+        <v>154</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
         <v>158</v>
       </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" t="s">
-        <v>17</v>
-      </c>
-      <c r="I96" t="s">
-        <v>32</v>
-      </c>
       <c r="J96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K96" t="s">
         <v>17</v>
@@ -4062,22 +4095,22 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D97" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F97" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="H97" t="s">
         <v>17</v>
@@ -4097,7 +4130,7 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C98" t="s">
         <v>160</v>
@@ -4106,22 +4139,22 @@
         <v>161</v>
       </c>
       <c r="E98" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F98" t="s">
         <v>162</v>
       </c>
       <c r="G98" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H98" t="s">
         <v>17</v>
       </c>
       <c r="I98" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J98" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K98" t="s">
         <v>17</v>
@@ -4132,22 +4165,22 @@
         <v>98.0</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C99" t="s">
         <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="E99" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F99" t="s">
         <v>162</v>
       </c>
       <c r="G99" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H99" t="s">
         <v>17</v>
@@ -4167,31 +4200,31 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C100" t="s">
         <v>160</v>
       </c>
       <c r="D100" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E100" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F100" t="s">
         <v>162</v>
       </c>
       <c r="G100" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H100" t="s">
         <v>17</v>
       </c>
       <c r="I100" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="J100" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K100" t="s">
         <v>17</v>
@@ -4202,31 +4235,31 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
         <v>160</v>
       </c>
       <c r="D101" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E101" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F101" t="s">
         <v>162</v>
       </c>
       <c r="G101" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H101" t="s">
         <v>17</v>
       </c>
       <c r="I101" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="J101" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K101" t="s">
         <v>17</v>
@@ -4237,22 +4270,22 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
         <v>160</v>
       </c>
       <c r="D102" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="E102" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F102" t="s">
         <v>162</v>
       </c>
       <c r="G102" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
@@ -4272,31 +4305,31 @@
         <v>102.0</v>
       </c>
       <c r="B103" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C103" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" t="s">
         <v>168</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" t="s">
+        <v>162</v>
+      </c>
+      <c r="G103" t="s">
+        <v>163</v>
+      </c>
+      <c r="H103" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s">
         <v>169</v>
       </c>
-      <c r="E103" t="s">
-        <v>76</v>
-      </c>
-      <c r="F103" t="s">
-        <v>170</v>
-      </c>
-      <c r="G103" t="s">
-        <v>171</v>
-      </c>
-      <c r="H103" t="s">
-        <v>17</v>
-      </c>
-      <c r="I103" t="s">
-        <v>19</v>
-      </c>
       <c r="J103" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K103" t="s">
         <v>17</v>
@@ -4307,31 +4340,31 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D104" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E104" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F104" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G104" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H104" t="s">
         <v>17</v>
       </c>
       <c r="I104" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J104" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="K104" t="s">
         <v>17</v>
@@ -4342,28 +4375,28 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D105" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E105" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F105" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G105" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H105" t="s">
         <v>17</v>
       </c>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="J105" t="s">
         <v>28</v>
@@ -4377,31 +4410,31 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C106" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D106" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E106" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F106" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G106" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H106" t="s">
         <v>17</v>
       </c>
       <c r="I106" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="J106" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K106" t="s">
         <v>17</v>
@@ -4412,31 +4445,31 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D107" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E107" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F107" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G107" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H107" t="s">
         <v>17</v>
       </c>
       <c r="I107" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J107" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K107" t="s">
         <v>17</v>
@@ -4447,28 +4480,28 @@
         <v>107.0</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C108" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D108" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E108" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F108" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G108" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H108" t="s">
         <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="J108" t="s">
         <v>28</v>
@@ -4482,28 +4515,28 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D109" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E109" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F109" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G109" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H109" t="s">
         <v>17</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J109" t="s">
         <v>28</v>
@@ -4517,22 +4550,22 @@
         <v>109.0</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D110" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E110" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F110" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G110" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H110" t="s">
         <v>17</v>
@@ -4552,22 +4585,22 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D111" t="s">
+        <v>178</v>
+      </c>
+      <c r="E111" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" t="s">
+        <v>179</v>
+      </c>
+      <c r="G111" t="s">
         <v>180</v>
-      </c>
-      <c r="E111" t="s">
-        <v>76</v>
-      </c>
-      <c r="F111" t="s">
-        <v>170</v>
-      </c>
-      <c r="G111" t="s">
-        <v>171</v>
       </c>
       <c r="H111" t="s">
         <v>17</v>
@@ -4587,28 +4620,28 @@
         <v>111.0</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D112" t="s">
         <v>181</v>
       </c>
       <c r="E112" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F112" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G112" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H112" t="s">
         <v>17</v>
       </c>
       <c r="I112" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J112" t="s">
         <v>28</v>
@@ -4622,22 +4655,22 @@
         <v>112.0</v>
       </c>
       <c r="B113" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
+        <v>177</v>
+      </c>
+      <c r="D113" t="s">
         <v>182</v>
       </c>
-      <c r="D113" t="s">
-        <v>183</v>
-      </c>
       <c r="E113" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G113" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H113" t="s">
         <v>17</v>
@@ -4657,28 +4690,28 @@
         <v>113.0</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D114" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E114" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F114" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G114" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H114" t="s">
         <v>17</v>
       </c>
       <c r="I114" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J114" t="s">
         <v>28</v>
@@ -4692,31 +4725,31 @@
         <v>114.0</v>
       </c>
       <c r="B115" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C115" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D115" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E115" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F115" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G115" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H115" t="s">
         <v>17</v>
       </c>
       <c r="I115" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="J115" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K115" t="s">
         <v>17</v>
@@ -4727,31 +4760,31 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C116" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D116" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E116" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F116" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G116" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H116" t="s">
         <v>17</v>
       </c>
       <c r="I116" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J116" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K116" t="s">
         <v>17</v>
@@ -4762,31 +4795,31 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E117" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F117" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G117" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H117" t="s">
         <v>17</v>
       </c>
       <c r="I117" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="J117" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K117" t="s">
         <v>17</v>
@@ -4797,31 +4830,31 @@
         <v>117.0</v>
       </c>
       <c r="B118" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C118" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D118" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E118" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F118" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G118" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="J118" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K118" t="s">
         <v>17</v>
@@ -4832,28 +4865,28 @@
         <v>118.0</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D119" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E119" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G119" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H119" t="s">
         <v>17</v>
       </c>
       <c r="I119" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
@@ -4867,28 +4900,28 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D120" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E120" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G120" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H120" t="s">
         <v>17</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="J120" t="s">
         <v>22</v>
@@ -4902,31 +4935,31 @@
         <v>120.0</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C121" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D121" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G121" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H121" t="s">
         <v>17</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="J121" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K121" t="s">
         <v>17</v>
@@ -4937,28 +4970,28 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C122" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D122" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F122" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G122" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H122" t="s">
         <v>17</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J122" t="s">
         <v>28</v>
@@ -4972,22 +5005,22 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D123" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" t="s">
         <v>179</v>
       </c>
-      <c r="E123" t="s">
-        <v>61</v>
-      </c>
-      <c r="F123" t="s">
-        <v>184</v>
-      </c>
       <c r="G123" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H123" t="s">
         <v>17</v>
@@ -5007,22 +5040,22 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D124" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="E124" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F124" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G124" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H124" t="s">
         <v>17</v>
@@ -5042,22 +5075,22 @@
         <v>124.0</v>
       </c>
       <c r="B125" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D125" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E125" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F125" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G125" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H125" t="s">
         <v>17</v>
@@ -5077,22 +5110,22 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C126" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D126" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" t="s">
+        <v>179</v>
+      </c>
+      <c r="G126" t="s">
         <v>180</v>
-      </c>
-      <c r="E126" t="s">
-        <v>61</v>
-      </c>
-      <c r="F126" t="s">
-        <v>184</v>
-      </c>
-      <c r="G126" t="s">
-        <v>185</v>
       </c>
       <c r="H126" t="s">
         <v>17</v>
@@ -5112,31 +5145,31 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C127" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D127" t="s">
+        <v>190</v>
+      </c>
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" t="s">
         <v>179</v>
       </c>
-      <c r="E127" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" t="s">
-        <v>164</v>
-      </c>
       <c r="G127" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="H127" t="s">
         <v>17</v>
       </c>
       <c r="I127" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="J127" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K127" t="s">
         <v>17</v>
@@ -5147,22 +5180,22 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C128" t="s">
+        <v>191</v>
+      </c>
+      <c r="D128" t="s">
+        <v>173</v>
+      </c>
+      <c r="E128" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" t="s">
         <v>192</v>
       </c>
-      <c r="D128" t="s">
-        <v>180</v>
-      </c>
-      <c r="E128" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" t="s">
-        <v>164</v>
-      </c>
       <c r="G128" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H128" t="s">
         <v>17</v>
@@ -5182,22 +5215,22 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C129" t="s">
+        <v>191</v>
+      </c>
+      <c r="D129" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" t="s">
         <v>192</v>
       </c>
-      <c r="D129" t="s">
-        <v>181</v>
-      </c>
-      <c r="E129" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" t="s">
-        <v>164</v>
-      </c>
       <c r="G129" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H129" t="s">
         <v>17</v>
@@ -5217,28 +5250,28 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C130" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D130" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E130" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H130" t="s">
         <v>17</v>
       </c>
       <c r="I130" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="J130" t="s">
         <v>28</v>
@@ -5252,28 +5285,28 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C131" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D131" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E131" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="G131" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H131" t="s">
         <v>17</v>
       </c>
       <c r="I131" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="J131" t="s">
         <v>28</v>
@@ -5287,28 +5320,28 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C132" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D132" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="E132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
         <v>17</v>
       </c>
       <c r="I132" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="J132" t="s">
         <v>28</v>
@@ -5322,31 +5355,31 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C133" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D133" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
         <v>17</v>
       </c>
       <c r="I133" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="J133" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K133" t="s">
         <v>17</v>
@@ -5357,28 +5390,28 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C134" t="s">
         <v>197</v>
       </c>
       <c r="D134" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E134" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F134" t="s">
         <v>198</v>
       </c>
       <c r="G134" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H134" t="s">
         <v>17</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J134" t="s">
         <v>28</v>
@@ -5392,31 +5425,31 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
         <v>197</v>
       </c>
       <c r="D135" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E135" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F135" t="s">
         <v>198</v>
       </c>
       <c r="G135" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H135" t="s">
         <v>17</v>
       </c>
       <c r="I135" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="J135" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K135" t="s">
         <v>17</v>
@@ -5427,28 +5460,28 @@
         <v>135.0</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C136" t="s">
         <v>197</v>
       </c>
       <c r="D136" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="E136" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F136" t="s">
         <v>198</v>
       </c>
       <c r="G136" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H136" t="s">
         <v>17</v>
       </c>
       <c r="I136" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="J136" t="s">
         <v>28</v>
@@ -5462,31 +5495,31 @@
         <v>136.0</v>
       </c>
       <c r="B137" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C137" t="s">
         <v>197</v>
       </c>
       <c r="D137" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E137" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F137" t="s">
         <v>198</v>
       </c>
       <c r="G137" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H137" t="s">
         <v>17</v>
       </c>
       <c r="I137" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J137" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="K137" t="s">
         <v>17</v>
@@ -5497,31 +5530,31 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C138" t="s">
         <v>197</v>
       </c>
       <c r="D138" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="E138" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F138" t="s">
         <v>198</v>
       </c>
       <c r="G138" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H138" t="s">
         <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J138" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K138" t="s">
         <v>17</v>
@@ -5532,31 +5565,31 @@
         <v>138.0</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C139" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D139" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="E139" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F139" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="G139" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="H139" t="s">
         <v>17</v>
       </c>
       <c r="I139" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="J139" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K139" t="s">
         <v>17</v>
@@ -5567,28 +5600,28 @@
         <v>139.0</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C140" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D140" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E140" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F140" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G140" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="H140" t="s">
         <v>17</v>
       </c>
       <c r="I140" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="J140" t="s">
         <v>28</v>
@@ -5602,31 +5635,31 @@
         <v>140.0</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C141" t="s">
+        <v>197</v>
+      </c>
+      <c r="D141" t="s">
         <v>205</v>
       </c>
-      <c r="D141" t="s">
-        <v>179</v>
-      </c>
       <c r="E141" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" t="s">
+        <v>198</v>
+      </c>
+      <c r="G141" t="s">
+        <v>99</v>
+      </c>
+      <c r="H141" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" t="s">
+        <v>206</v>
+      </c>
+      <c r="J141" t="s">
         <v>67</v>
-      </c>
-      <c r="F141" t="s">
-        <v>207</v>
-      </c>
-      <c r="G141" t="s">
-        <v>67</v>
-      </c>
-      <c r="H141" t="s">
-        <v>17</v>
-      </c>
-      <c r="I141" t="s">
-        <v>19</v>
-      </c>
-      <c r="J141" t="s">
-        <v>28</v>
       </c>
       <c r="K141" t="s">
         <v>17</v>
@@ -5637,28 +5670,28 @@
         <v>141.0</v>
       </c>
       <c r="B142" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C142" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D142" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E142" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F142" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G142" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="H142" t="s">
         <v>17</v>
       </c>
       <c r="I142" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J142" t="s">
         <v>28</v>
@@ -5672,22 +5705,22 @@
         <v>142.0</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C143" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D143" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="E143" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F143" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="G143" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H143" t="s">
         <v>17</v>
@@ -5707,22 +5740,22 @@
         <v>143.0</v>
       </c>
       <c r="B144" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C144" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D144" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="E144" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F144" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G144" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H144" t="s">
         <v>17</v>
@@ -5742,28 +5775,28 @@
         <v>144.0</v>
       </c>
       <c r="B145" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C145" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D145" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E145" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G145" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H145" t="s">
         <v>17</v>
       </c>
       <c r="I145" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J145" t="s">
         <v>28</v>
@@ -5777,28 +5810,28 @@
         <v>145.0</v>
       </c>
       <c r="B146" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D146" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="E146" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="G146" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H146" t="s">
         <v>17</v>
       </c>
       <c r="I146" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J146" t="s">
         <v>28</v>
@@ -5812,28 +5845,28 @@
         <v>146.0</v>
       </c>
       <c r="B147" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C147" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D147" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="E147" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F147" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="G147" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H147" t="s">
         <v>17</v>
       </c>
       <c r="I147" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J147" t="s">
         <v>28</v>
@@ -5847,28 +5880,28 @@
         <v>147.0</v>
       </c>
       <c r="B148" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C148" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D148" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="E148" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="G148" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H148" t="s">
         <v>17</v>
       </c>
       <c r="I148" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J148" t="s">
         <v>28</v>
@@ -5882,28 +5915,28 @@
         <v>148.0</v>
       </c>
       <c r="B149" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C149" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D149" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="E149" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F149" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="G149" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H149" t="s">
         <v>17</v>
       </c>
       <c r="I149" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J149" t="s">
         <v>28</v>
@@ -5917,28 +5950,28 @@
         <v>149.0</v>
       </c>
       <c r="B150" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D150" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="E150" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F150" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="G150" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H150" t="s">
         <v>17</v>
       </c>
       <c r="I150" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J150" t="s">
         <v>28</v>
@@ -5952,28 +5985,28 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C151" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D151" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="E151" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F151" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="G151" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H151" t="s">
         <v>17</v>
       </c>
       <c r="I151" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J151" t="s">
         <v>28</v>
@@ -5987,28 +6020,28 @@
         <v>151.0</v>
       </c>
       <c r="B152" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D152" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E152" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F152" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="G152" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H152" t="s">
         <v>17</v>
       </c>
       <c r="I152" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J152" t="s">
         <v>28</v>
@@ -6022,28 +6055,28 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C153" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="E153" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F153" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="G153" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H153" t="s">
         <v>17</v>
       </c>
       <c r="I153" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J153" t="s">
         <v>28</v>
@@ -6057,28 +6090,28 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C154" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D154" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="E154" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F154" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="G154" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H154" t="s">
         <v>17</v>
       </c>
       <c r="I154" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J154" t="s">
         <v>28</v>
@@ -6092,33 +6125,523 @@
         <v>154.0</v>
       </c>
       <c r="B155" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D155" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="E155" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F155" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="G155" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H155" t="s">
         <v>17</v>
       </c>
       <c r="I155" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155" t="s">
+        <v>28</v>
+      </c>
+      <c r="K155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" t="s">
+        <v>212</v>
+      </c>
+      <c r="D156" t="s">
+        <v>218</v>
+      </c>
+      <c r="E156" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156" t="s">
+        <v>214</v>
+      </c>
+      <c r="G156" t="s">
+        <v>93</v>
+      </c>
+      <c r="H156" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
         <v>14</v>
       </c>
-      <c r="J155" t="s">
-        <v>28</v>
-      </c>
-      <c r="K155" t="s">
+      <c r="K156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" t="s">
+        <v>212</v>
+      </c>
+      <c r="D157" t="s">
+        <v>178</v>
+      </c>
+      <c r="E157" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" t="s">
+        <v>214</v>
+      </c>
+      <c r="G157" t="s">
+        <v>93</v>
+      </c>
+      <c r="H157" t="s">
+        <v>17</v>
+      </c>
+      <c r="I157" t="s">
+        <v>99</v>
+      </c>
+      <c r="J157" t="s">
+        <v>16</v>
+      </c>
+      <c r="K157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" t="s">
+        <v>212</v>
+      </c>
+      <c r="D158" t="s">
+        <v>48</v>
+      </c>
+      <c r="E158" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" t="s">
+        <v>214</v>
+      </c>
+      <c r="G158" t="s">
+        <v>93</v>
+      </c>
+      <c r="H158" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" t="s">
+        <v>28</v>
+      </c>
+      <c r="K158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>212</v>
+      </c>
+      <c r="D159" t="s">
+        <v>219</v>
+      </c>
+      <c r="E159" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" t="s">
+        <v>214</v>
+      </c>
+      <c r="G159" t="s">
+        <v>93</v>
+      </c>
+      <c r="H159" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" t="s">
+        <v>93</v>
+      </c>
+      <c r="J159" t="s">
+        <v>16</v>
+      </c>
+      <c r="K159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>49</v>
+      </c>
+      <c r="C160" t="s">
+        <v>220</v>
+      </c>
+      <c r="D160" t="s">
+        <v>54</v>
+      </c>
+      <c r="E160" t="s">
+        <v>67</v>
+      </c>
+      <c r="F160" t="s">
+        <v>187</v>
+      </c>
+      <c r="G160" t="s">
+        <v>67</v>
+      </c>
+      <c r="H160" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" t="s">
+        <v>28</v>
+      </c>
+      <c r="K160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" t="s">
+        <v>220</v>
+      </c>
+      <c r="D161" t="s">
+        <v>57</v>
+      </c>
+      <c r="E161" t="s">
+        <v>67</v>
+      </c>
+      <c r="F161" t="s">
+        <v>187</v>
+      </c>
+      <c r="G161" t="s">
+        <v>67</v>
+      </c>
+      <c r="H161" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+      <c r="J161" t="s">
+        <v>28</v>
+      </c>
+      <c r="K161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" t="s">
+        <v>220</v>
+      </c>
+      <c r="D162" t="s">
+        <v>59</v>
+      </c>
+      <c r="E162" t="s">
+        <v>67</v>
+      </c>
+      <c r="F162" t="s">
+        <v>187</v>
+      </c>
+      <c r="G162" t="s">
+        <v>67</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" t="s">
+        <v>28</v>
+      </c>
+      <c r="K162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>49</v>
+      </c>
+      <c r="C163" t="s">
+        <v>220</v>
+      </c>
+      <c r="D163" t="s">
+        <v>60</v>
+      </c>
+      <c r="E163" t="s">
+        <v>67</v>
+      </c>
+      <c r="F163" t="s">
+        <v>187</v>
+      </c>
+      <c r="G163" t="s">
+        <v>67</v>
+      </c>
+      <c r="H163" t="s">
+        <v>17</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" t="s">
+        <v>28</v>
+      </c>
+      <c r="K163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>49</v>
+      </c>
+      <c r="C164" t="s">
+        <v>220</v>
+      </c>
+      <c r="D164" t="s">
+        <v>61</v>
+      </c>
+      <c r="E164" t="s">
+        <v>67</v>
+      </c>
+      <c r="F164" t="s">
+        <v>187</v>
+      </c>
+      <c r="G164" t="s">
+        <v>67</v>
+      </c>
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" t="s">
+        <v>28</v>
+      </c>
+      <c r="K164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" t="s">
+        <v>220</v>
+      </c>
+      <c r="D165" t="s">
+        <v>62</v>
+      </c>
+      <c r="E165" t="s">
+        <v>67</v>
+      </c>
+      <c r="F165" t="s">
+        <v>187</v>
+      </c>
+      <c r="G165" t="s">
+        <v>67</v>
+      </c>
+      <c r="H165" t="s">
+        <v>17</v>
+      </c>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" t="s">
+        <v>28</v>
+      </c>
+      <c r="K165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>49</v>
+      </c>
+      <c r="C166" t="s">
+        <v>220</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" t="s">
+        <v>67</v>
+      </c>
+      <c r="F166" t="s">
+        <v>187</v>
+      </c>
+      <c r="G166" t="s">
+        <v>67</v>
+      </c>
+      <c r="H166" t="s">
+        <v>17</v>
+      </c>
+      <c r="I166" t="s">
+        <v>14</v>
+      </c>
+      <c r="J166" t="s">
+        <v>28</v>
+      </c>
+      <c r="K166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>49</v>
+      </c>
+      <c r="C167" t="s">
+        <v>220</v>
+      </c>
+      <c r="D167" t="s">
+        <v>65</v>
+      </c>
+      <c r="E167" t="s">
+        <v>67</v>
+      </c>
+      <c r="F167" t="s">
+        <v>187</v>
+      </c>
+      <c r="G167" t="s">
+        <v>67</v>
+      </c>
+      <c r="H167" t="s">
+        <v>17</v>
+      </c>
+      <c r="I167" t="s">
+        <v>14</v>
+      </c>
+      <c r="J167" t="s">
+        <v>28</v>
+      </c>
+      <c r="K167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" t="s">
+        <v>220</v>
+      </c>
+      <c r="D168" t="s">
+        <v>66</v>
+      </c>
+      <c r="E168" t="s">
+        <v>67</v>
+      </c>
+      <c r="F168" t="s">
+        <v>187</v>
+      </c>
+      <c r="G168" t="s">
+        <v>67</v>
+      </c>
+      <c r="H168" t="s">
+        <v>17</v>
+      </c>
+      <c r="I168" t="s">
+        <v>14</v>
+      </c>
+      <c r="J168" t="s">
+        <v>28</v>
+      </c>
+      <c r="K168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>49</v>
+      </c>
+      <c r="C169" t="s">
+        <v>220</v>
+      </c>
+      <c r="D169" t="s">
+        <v>68</v>
+      </c>
+      <c r="E169" t="s">
+        <v>67</v>
+      </c>
+      <c r="F169" t="s">
+        <v>187</v>
+      </c>
+      <c r="G169" t="s">
+        <v>67</v>
+      </c>
+      <c r="H169" t="s">
+        <v>17</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+      <c r="J169" t="s">
+        <v>28</v>
+      </c>
+      <c r="K169" t="s">
         <v>17</v>
       </c>
     </row>

--- a/src/src_metrics.xlsx
+++ b/src/src_metrics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="254">
   <si>
     <t>MethodID</t>
   </si>
@@ -92,7 +92,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>94</t>
+    <t>93</t>
   </si>
   <si>
     <t>17</t>
@@ -179,7 +179,10 @@
     <t>getFont</t>
   </si>
   <si>
-    <t>228</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>257</t>
   </si>
   <si>
     <t>5</t>
@@ -230,9 +233,6 @@
     <t>getExtensionByStringHandling</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>MyTree</t>
   </si>
   <si>
@@ -425,7 +425,7 @@
     <t>Main</t>
   </si>
   <si>
-    <t>53</t>
+    <t>49</t>
   </si>
   <si>
     <t>Method</t>
@@ -494,187 +494,286 @@
     <t>RuleEditor</t>
   </si>
   <si>
-    <t>AndBlock</t>
+    <t>ConditionBlock</t>
+  </si>
+  <si>
+    <t>getRule</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>getRuleBlock</t>
+  </si>
+  <si>
+    <t>getWidgetGraphicalRepresentation</t>
+  </si>
+  <si>
+    <t>setDrag</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>getStyledButton</t>
+  </si>
+  <si>
+    <t>optionsHBox</t>
+  </si>
+  <si>
+    <t>valueHBox</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>setHBoxDelete</t>
+  </si>
+  <si>
+    <t>getHBox</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>getGraphicalRepresentation</t>
+  </si>
+  <si>
+    <t>getOperator</t>
+  </si>
+  <si>
+    <t>getValue</t>
+  </si>
+  <si>
+    <t>getType</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
+    <t>getCopy</t>
+  </si>
+  <si>
+    <t>toString</t>
+  </si>
+  <si>
+    <t>CustomNode</t>
+  </si>
+  <si>
+    <t>getDefaultWidgetGraphicalRepresentation</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>DraggingObject</t>
+  </si>
+  <si>
+    <t>setNodes</t>
+  </si>
+  <si>
+    <t>getNodes</t>
+  </si>
+  <si>
+    <t>FinalMain</t>
+  </si>
+  <si>
+    <t>getRuleName</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>getRuleEditor</t>
+  </si>
+  <si>
+    <t>configureSceneMainView</t>
+  </si>
+  <si>
+    <t>configureSceneAndStage</t>
+  </si>
+  <si>
+    <t>getOptionsVBox</t>
+  </si>
+  <si>
+    <t>getBlocksVBox</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>getStackPane</t>
+  </si>
+  <si>
+    <t>rightVBox</t>
+  </si>
+  <si>
+    <t>textFieldStage</t>
+  </si>
+  <si>
+    <t>getSaveButton</t>
+  </si>
+  <si>
+    <t>getLoadButton</t>
+  </si>
+  <si>
+    <t>addDefaultBlocks</t>
+  </si>
+  <si>
+    <t>configureMainPane</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>addCustomNode</t>
+  </si>
+  <si>
+    <t>SortBlockArrayList</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>LogicBlock</t>
   </si>
   <si>
     <t>getLeftLabelVBox</t>
   </si>
   <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>289</t>
   </si>
   <si>
     <t>getRightLabelVBox</t>
   </si>
   <si>
-    <t>getLabel</t>
-  </si>
-  <si>
-    <t>setDepth</t>
-  </si>
-  <si>
-    <t>getCentralBox</t>
-  </si>
-  <si>
-    <t>setDrag</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>setLabelListener</t>
   </si>
   <si>
-    <t>getHBox</t>
+    <t>setAndLabelVBoxDelete</t>
+  </si>
+  <si>
+    <t>addCustomNodeOnDrag</t>
+  </si>
+  <si>
+    <t>addToRight</t>
+  </si>
+  <si>
+    <t>addToLeft</t>
   </si>
   <si>
     <t>getBoxColor</t>
   </si>
   <si>
-    <t>getGraphicalRepresentation</t>
-  </si>
-  <si>
-    <t>getType</t>
-  </si>
-  <si>
-    <t>getRuleMakerBox</t>
-  </si>
-  <si>
-    <t>getOperator</t>
-  </si>
-  <si>
-    <t>ConditionBlock</t>
-  </si>
-  <si>
-    <t>getRule</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>getoQueEstaASerDragged</t>
-  </si>
-  <si>
-    <t>getRuleBlock</t>
-  </si>
-  <si>
-    <t>getStyledButton</t>
-  </si>
-  <si>
-    <t>optionsHBox</t>
-  </si>
-  <si>
-    <t>valueHBox</t>
-  </si>
-  <si>
-    <t>51</t>
+    <t>RuleApp</t>
+  </si>
+  <si>
+    <t>RuleBlock</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>getRuleMessage</t>
+  </si>
+  <si>
+    <t>RuleComplete</t>
+  </si>
+  <si>
+    <t>setFile</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>getFile</t>
+  </si>
+  <si>
+    <t>createCodeSmell</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>arrayListToJSON</t>
+  </si>
+  <si>
+    <t>toJSON</t>
+  </si>
+  <si>
+    <t>loadJSONRuleFile</t>
+  </si>
+  <si>
+    <t>loadJSONFile</t>
+  </si>
+  <si>
+    <t>toCustomNode</t>
+  </si>
+  <si>
+    <t>jsonObjectToCustomNode</t>
+  </si>
+  <si>
+    <t>getRuleOperator</t>
+  </si>
+  <si>
+    <t>saveFile</t>
+  </si>
+  <si>
+    <t>createRuleNode</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>getChild</t>
+  </si>
+  <si>
+    <t>setUpLoadRulesFileButton</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>setUpSetRulesFileButton</t>
+  </si>
+  <si>
+    <t>getRenameTextField</t>
+  </si>
+  <si>
+    <t>getRulePane</t>
+  </si>
+  <si>
+    <t>updateRulesEditorPanel</t>
+  </si>
+  <si>
+    <t>setUpAddNewRuleButton</t>
+  </si>
+  <si>
+    <t>setUpMainPane</t>
+  </si>
+  <si>
+    <t>styledButton</t>
+  </si>
+  <si>
+    <t>AppStyleTest</t>
   </si>
   <si>
     <t>48</t>
-  </si>
-  <si>
-    <t>setContextMenuDeletion</t>
-  </si>
-  <si>
-    <t>getValue</t>
-  </si>
-  <si>
-    <t>evaluate</t>
-  </si>
-  <si>
-    <t>CustomNode</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>DraggingObject</t>
-  </si>
-  <si>
-    <t>setNodes</t>
-  </si>
-  <si>
-    <t>getNodes</t>
-  </si>
-  <si>
-    <t>FinalMain</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>getVBox</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>rightVBox</t>
-  </si>
-  <si>
-    <t>transverseMainPaneChildren</t>
-  </si>
-  <si>
-    <t>getSaveButton</t>
-  </si>
-  <si>
-    <t>configureSplitPane</t>
-  </si>
-  <si>
-    <t>configureMainPane</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>RuleApp</t>
-  </si>
-  <si>
-    <t>RuleBlock</t>
-  </si>
-  <si>
-    <t>getIsNumeric</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>getRuleMessage</t>
-  </si>
-  <si>
-    <t>RuleComplete</t>
-  </si>
-  <si>
-    <t>getNode</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>getRight</t>
-  </si>
-  <si>
-    <t>clearRightSide</t>
-  </si>
-  <si>
-    <t>clearLeftSide</t>
-  </si>
-  <si>
-    <t>addToSide</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>AppStyleTest</t>
   </si>
 </sst>
 </file>
@@ -1479,19 +1578,19 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
         <v>28</v>
@@ -1511,22 +1610,22 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
         <v>28</v>
@@ -1546,22 +1645,22 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
         <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" t="s">
-        <v>58</v>
       </c>
       <c r="J24" t="s">
         <v>28</v>
@@ -1581,22 +1680,22 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
         <v>28</v>
@@ -1616,22 +1715,22 @@
         <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
         <v>28</v>
@@ -1651,22 +1750,22 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
         <v>28</v>
@@ -1689,19 +1788,19 @@
         <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
         <v>28</v>
@@ -1724,19 +1823,19 @@
         <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
         <v>28</v>
@@ -1759,13 +1858,13 @@
         <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
@@ -1794,22 +1893,22 @@
         <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
@@ -1826,25 +1925,25 @@
         <v>53</v>
       </c>
       <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K32" t="s">
         <v>17</v>
@@ -1864,22 +1963,22 @@
         <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -1893,28 +1992,28 @@
         <v>49</v>
       </c>
       <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="D34" t="s">
-        <v>71</v>
-      </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
@@ -1928,28 +2027,28 @@
         <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
@@ -1966,7 +2065,7 @@
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -1975,16 +2074,16 @@
         <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
@@ -1998,25 +2097,25 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="H37" t="s">
         <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="J37" t="s">
         <v>28</v>
@@ -2036,7 +2135,7 @@
         <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
         <v>27</v>
@@ -2051,7 +2150,7 @@
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
@@ -2071,7 +2170,7 @@
         <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
         <v>27</v>
@@ -2086,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s">
         <v>28</v>
@@ -2106,7 +2205,7 @@
         <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
         <v>27</v>
@@ -2121,10 +2220,10 @@
         <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -2141,7 +2240,7 @@
         <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
         <v>27</v>
@@ -2156,10 +2255,10 @@
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s">
         <v>17</v>
@@ -2191,7 +2290,7 @@
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s">
         <v>28</v>
@@ -2211,7 +2310,7 @@
         <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
         <v>27</v>
@@ -2226,10 +2325,10 @@
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -2246,7 +2345,7 @@
         <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
         <v>27</v>
@@ -2261,10 +2360,10 @@
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s">
         <v>17</v>
@@ -2281,7 +2380,7 @@
         <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
         <v>27</v>
@@ -2296,10 +2395,10 @@
         <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K45" t="s">
         <v>17</v>
@@ -2316,7 +2415,7 @@
         <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
         <v>27</v>
@@ -2331,10 +2430,10 @@
         <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="J46" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K46" t="s">
         <v>17</v>
@@ -2351,7 +2450,7 @@
         <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
         <v>27</v>
@@ -2366,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
@@ -2386,7 +2485,7 @@
         <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
         <v>27</v>
@@ -2401,7 +2500,7 @@
         <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
@@ -2421,7 +2520,7 @@
         <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
         <v>27</v>
@@ -2436,10 +2535,10 @@
         <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -2456,7 +2555,7 @@
         <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50" t="s">
         <v>27</v>
@@ -2471,7 +2570,7 @@
         <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
@@ -2491,7 +2590,7 @@
         <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
         <v>27</v>
@@ -2506,10 +2605,10 @@
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J51" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -2526,7 +2625,7 @@
         <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
         <v>27</v>
@@ -2541,7 +2640,7 @@
         <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -2561,7 +2660,7 @@
         <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
         <v>27</v>
@@ -2576,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
@@ -2593,28 +2692,28 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s">
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
@@ -2631,7 +2730,7 @@
         <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E55" t="s">
         <v>32</v>
@@ -2646,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
@@ -2666,7 +2765,7 @@
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
         <v>32</v>
@@ -2681,7 +2780,7 @@
         <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J56" t="s">
         <v>19</v>
@@ -2701,7 +2800,7 @@
         <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
         <v>32</v>
@@ -2716,7 +2815,7 @@
         <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="J57" t="s">
         <v>19</v>
@@ -2736,7 +2835,7 @@
         <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>32</v>
@@ -2751,7 +2850,7 @@
         <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="J58" t="s">
         <v>19</v>
@@ -2771,7 +2870,7 @@
         <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
         <v>32</v>
@@ -2786,10 +2885,10 @@
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
@@ -2806,7 +2905,7 @@
         <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
         <v>32</v>
@@ -2821,10 +2920,10 @@
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J60" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -2841,7 +2940,7 @@
         <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>32</v>
@@ -2856,7 +2955,7 @@
         <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
@@ -2873,25 +2972,25 @@
         <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G62" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="H62" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
         <v>28</v>
@@ -2911,16 +3010,16 @@
         <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F63" t="s">
         <v>112</v>
       </c>
       <c r="G63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
@@ -2946,16 +3045,16 @@
         <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
         <v>112</v>
       </c>
       <c r="G64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H64" t="s">
         <v>17</v>
@@ -2981,16 +3080,16 @@
         <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F65" t="s">
         <v>112</v>
       </c>
       <c r="G65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H65" t="s">
         <v>17</v>
@@ -3016,16 +3115,16 @@
         <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F66" t="s">
         <v>112</v>
       </c>
       <c r="G66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H66" t="s">
         <v>17</v>
@@ -3045,22 +3144,22 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H67" t="s">
         <v>17</v>
@@ -3086,7 +3185,7 @@
         <v>118</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E68" t="s">
         <v>25</v>
@@ -3121,7 +3220,7 @@
         <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
@@ -3156,7 +3255,7 @@
         <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E70" t="s">
         <v>25</v>
@@ -3191,7 +3290,7 @@
         <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E71" t="s">
         <v>25</v>
@@ -3226,7 +3325,7 @@
         <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E72" t="s">
         <v>25</v>
@@ -3261,7 +3360,7 @@
         <v>118</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
@@ -3276,10 +3375,10 @@
         <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J73" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
@@ -3296,7 +3395,7 @@
         <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
         <v>25</v>
@@ -3311,10 +3410,10 @@
         <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
@@ -3331,7 +3430,7 @@
         <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
         <v>25</v>
@@ -3346,10 +3445,10 @@
         <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J75" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
@@ -3363,28 +3462,28 @@
         <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G76" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
         <v>17</v>
       </c>
       <c r="I76" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="J76" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="K76" t="s">
         <v>17</v>
@@ -3401,25 +3500,25 @@
         <v>129</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F77" t="s">
         <v>130</v>
       </c>
       <c r="G77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H77" t="s">
         <v>17</v>
       </c>
       <c r="I77" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="J77" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K77" t="s">
         <v>17</v>
@@ -3436,22 +3535,22 @@
         <v>129</v>
       </c>
       <c r="D78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F78" t="s">
         <v>130</v>
       </c>
       <c r="G78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
@@ -3471,25 +3570,25 @@
         <v>129</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F79" t="s">
         <v>130</v>
       </c>
       <c r="G79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H79" t="s">
         <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="J79" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K79" t="s">
         <v>17</v>
@@ -3506,25 +3605,25 @@
         <v>129</v>
       </c>
       <c r="D80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F80" t="s">
         <v>130</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H80" t="s">
         <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="J80" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K80" t="s">
         <v>17</v>
@@ -3538,19 +3637,19 @@
         <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D81" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F81" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H81" t="s">
         <v>17</v>
@@ -3576,16 +3675,16 @@
         <v>136</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
         <v>137</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
@@ -3696,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J85" t="s">
         <v>14</v>
@@ -3871,7 +3970,7 @@
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J90" t="s">
         <v>28</v>
@@ -3964,7 +4063,7 @@
         <v>152</v>
       </c>
       <c r="E93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F93" t="s">
         <v>153</v>
@@ -3999,7 +4098,7 @@
         <v>135</v>
       </c>
       <c r="E94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F94" t="s">
         <v>153</v>
@@ -4034,7 +4133,7 @@
         <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F95" t="s">
         <v>153</v>
@@ -4069,7 +4168,7 @@
         <v>157</v>
       </c>
       <c r="E96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F96" t="s">
         <v>153</v>
@@ -4104,7 +4203,7 @@
         <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F97" t="s">
         <v>153</v>
@@ -4139,7 +4238,7 @@
         <v>161</v>
       </c>
       <c r="E98" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F98" t="s">
         <v>162</v>
@@ -4174,7 +4273,7 @@
         <v>164</v>
       </c>
       <c r="E99" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F99" t="s">
         <v>162</v>
@@ -4209,7 +4308,7 @@
         <v>165</v>
       </c>
       <c r="E100" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F100" t="s">
         <v>162</v>
@@ -4244,7 +4343,7 @@
         <v>166</v>
       </c>
       <c r="E101" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F101" t="s">
         <v>162</v>
@@ -4256,10 +4355,10 @@
         <v>17</v>
       </c>
       <c r="I101" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="J101" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K101" t="s">
         <v>17</v>
@@ -4276,10 +4375,10 @@
         <v>160</v>
       </c>
       <c r="D102" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E102" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F102" t="s">
         <v>162</v>
@@ -4314,7 +4413,7 @@
         <v>168</v>
       </c>
       <c r="E103" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F103" t="s">
         <v>162</v>
@@ -4326,10 +4425,10 @@
         <v>17</v>
       </c>
       <c r="I103" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="J103" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K103" t="s">
         <v>17</v>
@@ -4346,10 +4445,10 @@
         <v>160</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E104" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F104" t="s">
         <v>162</v>
@@ -4361,10 +4460,10 @@
         <v>17</v>
       </c>
       <c r="I104" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J104" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="K104" t="s">
         <v>17</v>
@@ -4381,10 +4480,10 @@
         <v>160</v>
       </c>
       <c r="D105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E105" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F105" t="s">
         <v>162</v>
@@ -4396,7 +4495,7 @@
         <v>17</v>
       </c>
       <c r="I105" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="J105" t="s">
         <v>28</v>
@@ -4416,10 +4515,10 @@
         <v>160</v>
       </c>
       <c r="D106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E106" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F106" t="s">
         <v>162</v>
@@ -4431,10 +4530,10 @@
         <v>17</v>
       </c>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="J106" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K106" t="s">
         <v>17</v>
@@ -4451,10 +4550,10 @@
         <v>160</v>
       </c>
       <c r="D107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E107" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F107" t="s">
         <v>162</v>
@@ -4466,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="I107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J107" t="s">
         <v>28</v>
@@ -4486,10 +4585,10 @@
         <v>160</v>
       </c>
       <c r="D108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E108" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F108" t="s">
         <v>162</v>
@@ -4501,10 +4600,10 @@
         <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="J108" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K108" t="s">
         <v>17</v>
@@ -4524,7 +4623,7 @@
         <v>175</v>
       </c>
       <c r="E109" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F109" t="s">
         <v>162</v>
@@ -4536,7 +4635,7 @@
         <v>17</v>
       </c>
       <c r="I109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J109" t="s">
         <v>28</v>
@@ -4559,7 +4658,7 @@
         <v>176</v>
       </c>
       <c r="E110" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="F110" t="s">
         <v>162</v>
@@ -4588,19 +4687,19 @@
         <v>159</v>
       </c>
       <c r="C111" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" t="s">
         <v>177</v>
       </c>
-      <c r="D111" t="s">
-        <v>178</v>
-      </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="F111" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G111" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H111" t="s">
         <v>17</v>
@@ -4623,19 +4722,19 @@
         <v>159</v>
       </c>
       <c r="C112" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D112" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="F112" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G112" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H112" t="s">
         <v>17</v>
@@ -4658,28 +4757,28 @@
         <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D113" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E113" t="s">
+        <v>156</v>
+      </c>
+      <c r="F113" t="s">
+        <v>162</v>
+      </c>
+      <c r="G113" t="s">
+        <v>163</v>
+      </c>
+      <c r="H113" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" t="s">
         <v>27</v>
       </c>
-      <c r="F113" t="s">
-        <v>179</v>
-      </c>
-      <c r="G113" t="s">
-        <v>180</v>
-      </c>
-      <c r="H113" t="s">
-        <v>17</v>
-      </c>
-      <c r="I113" t="s">
-        <v>19</v>
-      </c>
       <c r="J113" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K113" t="s">
         <v>17</v>
@@ -4693,25 +4792,25 @@
         <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D114" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="F114" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G114" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H114" t="s">
         <v>17</v>
       </c>
       <c r="I114" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J114" t="s">
         <v>28</v>
@@ -4728,28 +4827,28 @@
         <v>159</v>
       </c>
       <c r="C115" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D115" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="E115" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="F115" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G115" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H115" t="s">
         <v>17</v>
       </c>
       <c r="I115" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="J115" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K115" t="s">
         <v>17</v>
@@ -4763,25 +4862,25 @@
         <v>159</v>
       </c>
       <c r="C116" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D116" t="s">
         <v>183</v>
       </c>
       <c r="E116" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F116" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G116" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="H116" t="s">
         <v>17</v>
       </c>
       <c r="I116" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J116" t="s">
         <v>28</v>
@@ -4798,28 +4897,28 @@
         <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D117" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F117" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G117" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="H117" t="s">
         <v>17</v>
       </c>
       <c r="I117" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="J117" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K117" t="s">
         <v>17</v>
@@ -4833,28 +4932,28 @@
         <v>159</v>
       </c>
       <c r="C118" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D118" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E118" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F118" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G118" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="H118" t="s">
         <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="J118" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K118" t="s">
         <v>17</v>
@@ -4868,28 +4967,28 @@
         <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D119" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" t="s">
+        <v>59</v>
+      </c>
+      <c r="F119" t="s">
         <v>184</v>
       </c>
-      <c r="E119" t="s">
-        <v>27</v>
-      </c>
-      <c r="F119" t="s">
-        <v>179</v>
-      </c>
       <c r="G119" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="H119" t="s">
         <v>17</v>
       </c>
       <c r="I119" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="J119" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K119" t="s">
         <v>17</v>
@@ -4903,28 +5002,28 @@
         <v>159</v>
       </c>
       <c r="C120" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D120" t="s">
+        <v>176</v>
+      </c>
+      <c r="E120" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" t="s">
+        <v>184</v>
+      </c>
+      <c r="G120" t="s">
+        <v>59</v>
+      </c>
+      <c r="H120" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" t="s">
         <v>185</v>
       </c>
-      <c r="E120" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" t="s">
-        <v>179</v>
-      </c>
-      <c r="G120" t="s">
-        <v>180</v>
-      </c>
-      <c r="H120" t="s">
-        <v>17</v>
-      </c>
-      <c r="I120" t="s">
-        <v>186</v>
-      </c>
       <c r="J120" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K120" t="s">
         <v>17</v>
@@ -4938,28 +5037,28 @@
         <v>159</v>
       </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D121" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E121" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F121" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G121" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="H121" t="s">
         <v>17</v>
       </c>
       <c r="I121" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J121" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="K121" t="s">
         <v>17</v>
@@ -4973,25 +5072,25 @@
         <v>159</v>
       </c>
       <c r="C122" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E122" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
         <v>17</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J122" t="s">
         <v>28</v>
@@ -5008,19 +5107,19 @@
         <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D123" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E123" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
         <v>17</v>
@@ -5043,19 +5142,19 @@
         <v>159</v>
       </c>
       <c r="C124" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D124" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E124" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="F124" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G124" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H124" t="s">
         <v>17</v>
@@ -5078,19 +5177,19 @@
         <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="F125" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G125" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H125" t="s">
         <v>17</v>
@@ -5113,19 +5212,19 @@
         <v>159</v>
       </c>
       <c r="C126" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="F126" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G126" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H126" t="s">
         <v>17</v>
@@ -5148,28 +5247,28 @@
         <v>159</v>
       </c>
       <c r="C127" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D127" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="F127" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G127" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H127" t="s">
         <v>17</v>
       </c>
       <c r="I127" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J127" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K127" t="s">
         <v>17</v>
@@ -5183,25 +5282,25 @@
         <v>159</v>
       </c>
       <c r="C128" t="s">
+        <v>189</v>
+      </c>
+      <c r="D128" t="s">
+        <v>193</v>
+      </c>
+      <c r="E128" t="s">
+        <v>156</v>
+      </c>
+      <c r="F128" t="s">
         <v>191</v>
       </c>
-      <c r="D128" t="s">
-        <v>173</v>
-      </c>
-      <c r="E128" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>192</v>
       </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
       <c r="H128" t="s">
         <v>17</v>
       </c>
       <c r="I128" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="J128" t="s">
         <v>28</v>
@@ -5218,25 +5317,25 @@
         <v>159</v>
       </c>
       <c r="C129" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129" t="s">
+        <v>194</v>
+      </c>
+      <c r="E129" t="s">
+        <v>156</v>
+      </c>
+      <c r="F129" t="s">
         <v>191</v>
       </c>
-      <c r="D129" t="s">
-        <v>174</v>
-      </c>
-      <c r="E129" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>192</v>
       </c>
-      <c r="G129" t="s">
-        <v>22</v>
-      </c>
       <c r="H129" t="s">
         <v>17</v>
       </c>
       <c r="I129" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="J129" t="s">
         <v>28</v>
@@ -5253,25 +5352,25 @@
         <v>159</v>
       </c>
       <c r="C130" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130" t="s">
+        <v>195</v>
+      </c>
+      <c r="E130" t="s">
+        <v>156</v>
+      </c>
+      <c r="F130" t="s">
         <v>191</v>
       </c>
-      <c r="D130" t="s">
-        <v>175</v>
-      </c>
-      <c r="E130" t="s">
-        <v>22</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>192</v>
       </c>
-      <c r="G130" t="s">
-        <v>22</v>
-      </c>
       <c r="H130" t="s">
         <v>17</v>
       </c>
       <c r="I130" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="J130" t="s">
         <v>28</v>
@@ -5288,25 +5387,25 @@
         <v>159</v>
       </c>
       <c r="C131" t="s">
+        <v>189</v>
+      </c>
+      <c r="D131" t="s">
+        <v>196</v>
+      </c>
+      <c r="E131" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" t="s">
         <v>191</v>
       </c>
-      <c r="D131" t="s">
-        <v>176</v>
-      </c>
-      <c r="E131" t="s">
-        <v>22</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>192</v>
       </c>
-      <c r="G131" t="s">
-        <v>22</v>
-      </c>
       <c r="H131" t="s">
         <v>17</v>
       </c>
       <c r="I131" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="J131" t="s">
         <v>28</v>
@@ -5323,28 +5422,28 @@
         <v>159</v>
       </c>
       <c r="C132" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D132" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E132" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="H132" t="s">
         <v>17</v>
       </c>
       <c r="I132" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="J132" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K132" t="s">
         <v>17</v>
@@ -5358,25 +5457,25 @@
         <v>159</v>
       </c>
       <c r="C133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D133" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E133" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="H133" t="s">
         <v>17</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="J133" t="s">
         <v>28</v>
@@ -5393,25 +5492,25 @@
         <v>159</v>
       </c>
       <c r="C134" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D134" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="F134" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G134" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="H134" t="s">
         <v>17</v>
       </c>
       <c r="I134" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J134" t="s">
         <v>28</v>
@@ -5428,28 +5527,28 @@
         <v>159</v>
       </c>
       <c r="C135" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D135" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E135" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="F135" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G135" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="H135" t="s">
         <v>17</v>
       </c>
       <c r="I135" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="J135" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K135" t="s">
         <v>17</v>
@@ -5463,25 +5562,25 @@
         <v>159</v>
       </c>
       <c r="C136" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="F136" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G136" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="H136" t="s">
         <v>17</v>
       </c>
       <c r="I136" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J136" t="s">
         <v>28</v>
@@ -5498,25 +5597,25 @@
         <v>159</v>
       </c>
       <c r="C137" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D137" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="F137" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G137" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="H137" t="s">
         <v>17</v>
       </c>
       <c r="I137" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
       <c r="J137" t="s">
         <v>28</v>
@@ -5533,28 +5632,28 @@
         <v>159</v>
       </c>
       <c r="C138" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D138" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="F138" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G138" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="H138" t="s">
         <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="J138" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K138" t="s">
         <v>17</v>
@@ -5568,28 +5667,28 @@
         <v>159</v>
       </c>
       <c r="C139" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D139" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="F139" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G139" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="H139" t="s">
         <v>17</v>
       </c>
       <c r="I139" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="J139" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K139" t="s">
         <v>17</v>
@@ -5603,28 +5702,28 @@
         <v>159</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D140" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E140" t="s">
+        <v>156</v>
+      </c>
+      <c r="F140" t="s">
+        <v>191</v>
+      </c>
+      <c r="G140" t="s">
+        <v>192</v>
+      </c>
+      <c r="H140" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" t="s">
+        <v>206</v>
+      </c>
+      <c r="J140" t="s">
         <v>25</v>
-      </c>
-      <c r="F140" t="s">
-        <v>198</v>
-      </c>
-      <c r="G140" t="s">
-        <v>99</v>
-      </c>
-      <c r="H140" t="s">
-        <v>17</v>
-      </c>
-      <c r="I140" t="s">
-        <v>99</v>
-      </c>
-      <c r="J140" t="s">
-        <v>28</v>
       </c>
       <c r="K140" t="s">
         <v>17</v>
@@ -5638,28 +5737,28 @@
         <v>159</v>
       </c>
       <c r="C141" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D141" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E141" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="F141" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G141" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="H141" t="s">
         <v>17</v>
       </c>
       <c r="I141" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="J141" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K141" t="s">
         <v>17</v>
@@ -5673,28 +5772,28 @@
         <v>159</v>
       </c>
       <c r="C142" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D142" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G142" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="H142" t="s">
         <v>17</v>
       </c>
       <c r="I142" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J142" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K142" t="s">
         <v>17</v>
@@ -5708,19 +5807,19 @@
         <v>159</v>
       </c>
       <c r="C143" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D143" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="G143" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="H143" t="s">
         <v>17</v>
@@ -5743,19 +5842,19 @@
         <v>159</v>
       </c>
       <c r="C144" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D144" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E144" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="F144" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G144" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H144" t="s">
         <v>17</v>
@@ -5778,28 +5877,28 @@
         <v>159</v>
       </c>
       <c r="C145" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D145" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E145" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="F145" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G145" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H145" t="s">
         <v>17</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J145" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K145" t="s">
         <v>17</v>
@@ -5813,28 +5912,28 @@
         <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D146" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E146" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="F146" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G146" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H146" t="s">
         <v>17</v>
       </c>
       <c r="I146" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J146" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="K146" t="s">
         <v>17</v>
@@ -5848,25 +5947,25 @@
         <v>159</v>
       </c>
       <c r="C147" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D147" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E147" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="F147" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G147" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H147" t="s">
         <v>17</v>
       </c>
       <c r="I147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J147" t="s">
         <v>28</v>
@@ -5883,25 +5982,25 @@
         <v>159</v>
       </c>
       <c r="C148" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D148" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E148" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="F148" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G148" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H148" t="s">
         <v>17</v>
       </c>
       <c r="I148" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="J148" t="s">
         <v>28</v>
@@ -5918,25 +6017,25 @@
         <v>159</v>
       </c>
       <c r="C149" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D149" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="E149" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="F149" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G149" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H149" t="s">
         <v>17</v>
       </c>
       <c r="I149" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="J149" t="s">
         <v>28</v>
@@ -5953,19 +6052,19 @@
         <v>159</v>
       </c>
       <c r="C150" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D150" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="E150" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="F150" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G150" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H150" t="s">
         <v>17</v>
@@ -5988,19 +6087,19 @@
         <v>159</v>
       </c>
       <c r="C151" t="s">
+        <v>210</v>
+      </c>
+      <c r="D151" t="s">
+        <v>218</v>
+      </c>
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+      <c r="F151" t="s">
         <v>212</v>
       </c>
-      <c r="D151" t="s">
-        <v>213</v>
-      </c>
-      <c r="E151" t="s">
-        <v>25</v>
-      </c>
-      <c r="F151" t="s">
-        <v>214</v>
-      </c>
       <c r="G151" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H151" t="s">
         <v>17</v>
@@ -6023,19 +6122,19 @@
         <v>159</v>
       </c>
       <c r="C152" t="s">
+        <v>210</v>
+      </c>
+      <c r="D152" t="s">
+        <v>219</v>
+      </c>
+      <c r="E152" t="s">
+        <v>154</v>
+      </c>
+      <c r="F152" t="s">
         <v>212</v>
       </c>
-      <c r="D152" t="s">
-        <v>80</v>
-      </c>
-      <c r="E152" t="s">
-        <v>25</v>
-      </c>
-      <c r="F152" t="s">
-        <v>214</v>
-      </c>
       <c r="G152" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H152" t="s">
         <v>17</v>
@@ -6058,19 +6157,19 @@
         <v>159</v>
       </c>
       <c r="C153" t="s">
+        <v>210</v>
+      </c>
+      <c r="D153" t="s">
+        <v>175</v>
+      </c>
+      <c r="E153" t="s">
+        <v>154</v>
+      </c>
+      <c r="F153" t="s">
         <v>212</v>
       </c>
-      <c r="D153" t="s">
-        <v>215</v>
-      </c>
-      <c r="E153" t="s">
-        <v>25</v>
-      </c>
-      <c r="F153" t="s">
-        <v>214</v>
-      </c>
       <c r="G153" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H153" t="s">
         <v>17</v>
@@ -6093,19 +6192,19 @@
         <v>159</v>
       </c>
       <c r="C154" t="s">
+        <v>210</v>
+      </c>
+      <c r="D154" t="s">
+        <v>178</v>
+      </c>
+      <c r="E154" t="s">
+        <v>154</v>
+      </c>
+      <c r="F154" t="s">
         <v>212</v>
       </c>
-      <c r="D154" t="s">
-        <v>216</v>
-      </c>
-      <c r="E154" t="s">
-        <v>25</v>
-      </c>
-      <c r="F154" t="s">
-        <v>214</v>
-      </c>
       <c r="G154" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H154" t="s">
         <v>17</v>
@@ -6128,19 +6227,19 @@
         <v>159</v>
       </c>
       <c r="C155" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155" t="s">
+        <v>165</v>
+      </c>
+      <c r="E155" t="s">
+        <v>154</v>
+      </c>
+      <c r="F155" t="s">
         <v>212</v>
       </c>
-      <c r="D155" t="s">
-        <v>217</v>
-      </c>
-      <c r="E155" t="s">
-        <v>25</v>
-      </c>
-      <c r="F155" t="s">
-        <v>214</v>
-      </c>
       <c r="G155" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H155" t="s">
         <v>17</v>
@@ -6163,28 +6262,28 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
+        <v>210</v>
+      </c>
+      <c r="D156" t="s">
+        <v>176</v>
+      </c>
+      <c r="E156" t="s">
+        <v>154</v>
+      </c>
+      <c r="F156" t="s">
         <v>212</v>
       </c>
-      <c r="D156" t="s">
-        <v>218</v>
-      </c>
-      <c r="E156" t="s">
-        <v>25</v>
-      </c>
-      <c r="F156" t="s">
-        <v>214</v>
-      </c>
       <c r="G156" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H156" t="s">
         <v>17</v>
       </c>
       <c r="I156" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J156" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K156" t="s">
         <v>17</v>
@@ -6198,28 +6297,28 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" t="s">
+        <v>180</v>
+      </c>
+      <c r="E157" t="s">
+        <v>154</v>
+      </c>
+      <c r="F157" t="s">
         <v>212</v>
       </c>
-      <c r="D157" t="s">
-        <v>178</v>
-      </c>
-      <c r="E157" t="s">
-        <v>25</v>
-      </c>
-      <c r="F157" t="s">
-        <v>214</v>
-      </c>
       <c r="G157" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H157" t="s">
         <v>17</v>
       </c>
       <c r="I157" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="J157" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K157" t="s">
         <v>17</v>
@@ -6233,25 +6332,25 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
+        <v>210</v>
+      </c>
+      <c r="D158" t="s">
+        <v>181</v>
+      </c>
+      <c r="E158" t="s">
+        <v>154</v>
+      </c>
+      <c r="F158" t="s">
         <v>212</v>
       </c>
-      <c r="D158" t="s">
-        <v>48</v>
-      </c>
-      <c r="E158" t="s">
-        <v>25</v>
-      </c>
-      <c r="F158" t="s">
-        <v>214</v>
-      </c>
       <c r="G158" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="H158" t="s">
         <v>17</v>
       </c>
       <c r="I158" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="J158" t="s">
         <v>28</v>
@@ -6268,28 +6367,28 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D159" t="s">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F159" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="G159" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="H159" t="s">
         <v>17</v>
       </c>
       <c r="I159" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J159" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K159" t="s">
         <v>17</v>
@@ -6300,28 +6399,28 @@
         <v>159.0</v>
       </c>
       <c r="B160" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D160" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="E160" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F160" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="G160" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H160" t="s">
         <v>17</v>
       </c>
       <c r="I160" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J160" t="s">
         <v>28</v>
@@ -6335,28 +6434,28 @@
         <v>160.0</v>
       </c>
       <c r="B161" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D161" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="E161" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F161" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="G161" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H161" t="s">
         <v>17</v>
       </c>
       <c r="I161" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J161" t="s">
         <v>28</v>
@@ -6370,28 +6469,28 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C162" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D162" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="E162" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F162" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="G162" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H162" t="s">
         <v>17</v>
       </c>
       <c r="I162" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J162" t="s">
         <v>28</v>
@@ -6405,28 +6504,28 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C163" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D163" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="E163" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F163" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="G163" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H163" t="s">
         <v>17</v>
       </c>
       <c r="I163" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J163" t="s">
         <v>28</v>
@@ -6440,28 +6539,28 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C164" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D164" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F164" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="G164" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H164" t="s">
         <v>17</v>
       </c>
       <c r="I164" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J164" t="s">
         <v>28</v>
@@ -6475,28 +6574,28 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C165" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D165" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="E165" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F165" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="G165" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H165" t="s">
         <v>17</v>
       </c>
       <c r="I165" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J165" t="s">
         <v>28</v>
@@ -6510,28 +6609,28 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C166" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D166" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="E166" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F166" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="G166" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H166" t="s">
         <v>17</v>
       </c>
       <c r="I166" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J166" t="s">
         <v>28</v>
@@ -6545,28 +6644,28 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C167" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D167" t="s">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="E167" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F167" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="G167" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="H167" t="s">
         <v>17</v>
       </c>
       <c r="I167" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J167" t="s">
         <v>28</v>
@@ -6580,28 +6679,28 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="C168" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D168" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="E168" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F168" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="G168" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="H168" t="s">
         <v>17</v>
       </c>
       <c r="I168" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J168" t="s">
         <v>28</v>
@@ -6615,33 +6714,1153 @@
         <v>168.0</v>
       </c>
       <c r="B169" t="s">
+        <v>159</v>
+      </c>
+      <c r="C169" t="s">
+        <v>224</v>
+      </c>
+      <c r="D169" t="s">
+        <v>229</v>
+      </c>
+      <c r="E169" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" t="s">
+        <v>226</v>
+      </c>
+      <c r="G169" t="s">
+        <v>227</v>
+      </c>
+      <c r="H169" t="s">
+        <v>17</v>
+      </c>
+      <c r="I169" t="s">
+        <v>230</v>
+      </c>
+      <c r="J169" t="s">
+        <v>28</v>
+      </c>
+      <c r="K169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170" t="s">
+        <v>224</v>
+      </c>
+      <c r="D170" t="s">
+        <v>231</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" t="s">
+        <v>226</v>
+      </c>
+      <c r="G170" t="s">
+        <v>227</v>
+      </c>
+      <c r="H170" t="s">
+        <v>17</v>
+      </c>
+      <c r="I170" t="s">
+        <v>21</v>
+      </c>
+      <c r="J170" t="s">
+        <v>14</v>
+      </c>
+      <c r="K170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>159</v>
+      </c>
+      <c r="C171" t="s">
+        <v>224</v>
+      </c>
+      <c r="D171" t="s">
+        <v>232</v>
+      </c>
+      <c r="E171" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" t="s">
+        <v>226</v>
+      </c>
+      <c r="G171" t="s">
+        <v>227</v>
+      </c>
+      <c r="H171" t="s">
+        <v>17</v>
+      </c>
+      <c r="I171" t="s">
+        <v>30</v>
+      </c>
+      <c r="J171" t="s">
+        <v>14</v>
+      </c>
+      <c r="K171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>159</v>
+      </c>
+      <c r="C172" t="s">
+        <v>224</v>
+      </c>
+      <c r="D172" t="s">
+        <v>233</v>
+      </c>
+      <c r="E172" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" t="s">
+        <v>226</v>
+      </c>
+      <c r="G172" t="s">
+        <v>227</v>
+      </c>
+      <c r="H172" t="s">
+        <v>17</v>
+      </c>
+      <c r="I172" t="s">
+        <v>68</v>
+      </c>
+      <c r="J172" t="s">
+        <v>14</v>
+      </c>
+      <c r="K172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>159</v>
+      </c>
+      <c r="C173" t="s">
+        <v>224</v>
+      </c>
+      <c r="D173" t="s">
+        <v>234</v>
+      </c>
+      <c r="E173" t="s">
+        <v>18</v>
+      </c>
+      <c r="F173" t="s">
+        <v>226</v>
+      </c>
+      <c r="G173" t="s">
+        <v>227</v>
+      </c>
+      <c r="H173" t="s">
+        <v>17</v>
+      </c>
+      <c r="I173" t="s">
+        <v>30</v>
+      </c>
+      <c r="J173" t="s">
+        <v>14</v>
+      </c>
+      <c r="K173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>159</v>
+      </c>
+      <c r="C174" t="s">
+        <v>224</v>
+      </c>
+      <c r="D174" t="s">
+        <v>234</v>
+      </c>
+      <c r="E174" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" t="s">
+        <v>226</v>
+      </c>
+      <c r="G174" t="s">
+        <v>227</v>
+      </c>
+      <c r="H174" t="s">
+        <v>17</v>
+      </c>
+      <c r="I174" t="s">
+        <v>52</v>
+      </c>
+      <c r="J174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>159</v>
+      </c>
+      <c r="C175" t="s">
+        <v>224</v>
+      </c>
+      <c r="D175" t="s">
+        <v>235</v>
+      </c>
+      <c r="E175" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175" t="s">
+        <v>226</v>
+      </c>
+      <c r="G175" t="s">
+        <v>227</v>
+      </c>
+      <c r="H175" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" t="s">
+        <v>84</v>
+      </c>
+      <c r="J175" t="s">
+        <v>57</v>
+      </c>
+      <c r="K175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>159</v>
+      </c>
+      <c r="C176" t="s">
+        <v>224</v>
+      </c>
+      <c r="D176" t="s">
+        <v>236</v>
+      </c>
+      <c r="E176" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" t="s">
+        <v>226</v>
+      </c>
+      <c r="G176" t="s">
+        <v>227</v>
+      </c>
+      <c r="H176" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" t="s">
+        <v>154</v>
+      </c>
+      <c r="J176" t="s">
+        <v>14</v>
+      </c>
+      <c r="K176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>159</v>
+      </c>
+      <c r="C177" t="s">
+        <v>224</v>
+      </c>
+      <c r="D177" t="s">
+        <v>237</v>
+      </c>
+      <c r="E177" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177" t="s">
+        <v>226</v>
+      </c>
+      <c r="G177" t="s">
+        <v>227</v>
+      </c>
+      <c r="H177" t="s">
+        <v>17</v>
+      </c>
+      <c r="I177" t="s">
+        <v>84</v>
+      </c>
+      <c r="J177" t="s">
+        <v>16</v>
+      </c>
+      <c r="K177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>159</v>
+      </c>
+      <c r="C178" t="s">
+        <v>224</v>
+      </c>
+      <c r="D178" t="s">
+        <v>238</v>
+      </c>
+      <c r="E178" t="s">
+        <v>18</v>
+      </c>
+      <c r="F178" t="s">
+        <v>226</v>
+      </c>
+      <c r="G178" t="s">
+        <v>227</v>
+      </c>
+      <c r="H178" t="s">
+        <v>17</v>
+      </c>
+      <c r="I178" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>28</v>
+      </c>
+      <c r="K178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>159</v>
+      </c>
+      <c r="C179" t="s">
+        <v>224</v>
+      </c>
+      <c r="D179" t="s">
+        <v>239</v>
+      </c>
+      <c r="E179" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" t="s">
+        <v>226</v>
+      </c>
+      <c r="G179" t="s">
+        <v>227</v>
+      </c>
+      <c r="H179" t="s">
+        <v>17</v>
+      </c>
+      <c r="I179" t="s">
+        <v>154</v>
+      </c>
+      <c r="J179" t="s">
+        <v>22</v>
+      </c>
+      <c r="K179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>159</v>
+      </c>
+      <c r="C180" t="s">
+        <v>224</v>
+      </c>
+      <c r="D180" t="s">
+        <v>240</v>
+      </c>
+      <c r="E180" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" t="s">
+        <v>226</v>
+      </c>
+      <c r="G180" t="s">
+        <v>227</v>
+      </c>
+      <c r="H180" t="s">
+        <v>17</v>
+      </c>
+      <c r="I180" t="s">
+        <v>68</v>
+      </c>
+      <c r="J180" t="s">
+        <v>19</v>
+      </c>
+      <c r="K180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>159</v>
+      </c>
+      <c r="C181" t="s">
+        <v>224</v>
+      </c>
+      <c r="D181" t="s">
+        <v>241</v>
+      </c>
+      <c r="E181" t="s">
+        <v>18</v>
+      </c>
+      <c r="F181" t="s">
+        <v>226</v>
+      </c>
+      <c r="G181" t="s">
+        <v>227</v>
+      </c>
+      <c r="H181" t="s">
+        <v>17</v>
+      </c>
+      <c r="I181" t="s">
+        <v>18</v>
+      </c>
+      <c r="J181" t="s">
+        <v>22</v>
+      </c>
+      <c r="K181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>159</v>
+      </c>
+      <c r="C182" t="s">
+        <v>159</v>
+      </c>
+      <c r="D182" t="s">
+        <v>242</v>
+      </c>
+      <c r="E182" t="s">
+        <v>68</v>
+      </c>
+      <c r="F182" t="s">
+        <v>243</v>
+      </c>
+      <c r="G182" t="s">
+        <v>156</v>
+      </c>
+      <c r="H182" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" t="s">
+        <v>244</v>
+      </c>
+      <c r="J182" t="s">
+        <v>22</v>
+      </c>
+      <c r="K182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>159</v>
+      </c>
+      <c r="C183" t="s">
+        <v>159</v>
+      </c>
+      <c r="D183" t="s">
+        <v>245</v>
+      </c>
+      <c r="E183" t="s">
+        <v>68</v>
+      </c>
+      <c r="F183" t="s">
+        <v>243</v>
+      </c>
+      <c r="G183" t="s">
+        <v>156</v>
+      </c>
+      <c r="H183" t="s">
+        <v>17</v>
+      </c>
+      <c r="I183" t="s">
+        <v>93</v>
+      </c>
+      <c r="J183" t="s">
+        <v>19</v>
+      </c>
+      <c r="K183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>159</v>
+      </c>
+      <c r="C184" t="s">
+        <v>159</v>
+      </c>
+      <c r="D184" t="s">
+        <v>246</v>
+      </c>
+      <c r="E184" t="s">
+        <v>68</v>
+      </c>
+      <c r="F184" t="s">
+        <v>243</v>
+      </c>
+      <c r="G184" t="s">
+        <v>156</v>
+      </c>
+      <c r="H184" t="s">
+        <v>17</v>
+      </c>
+      <c r="I184" t="s">
+        <v>79</v>
+      </c>
+      <c r="J184" t="s">
+        <v>28</v>
+      </c>
+      <c r="K184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>159</v>
+      </c>
+      <c r="C185" t="s">
+        <v>159</v>
+      </c>
+      <c r="D185" t="s">
+        <v>247</v>
+      </c>
+      <c r="E185" t="s">
+        <v>68</v>
+      </c>
+      <c r="F185" t="s">
+        <v>243</v>
+      </c>
+      <c r="G185" t="s">
+        <v>156</v>
+      </c>
+      <c r="H185" t="s">
+        <v>17</v>
+      </c>
+      <c r="I185" t="s">
+        <v>82</v>
+      </c>
+      <c r="J185" t="s">
+        <v>28</v>
+      </c>
+      <c r="K185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>159</v>
+      </c>
+      <c r="C186" t="s">
+        <v>159</v>
+      </c>
+      <c r="D186" t="s">
+        <v>248</v>
+      </c>
+      <c r="E186" t="s">
+        <v>68</v>
+      </c>
+      <c r="F186" t="s">
+        <v>243</v>
+      </c>
+      <c r="G186" t="s">
+        <v>156</v>
+      </c>
+      <c r="H186" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" t="s">
+        <v>21</v>
+      </c>
+      <c r="J186" t="s">
+        <v>14</v>
+      </c>
+      <c r="K186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>159</v>
+      </c>
+      <c r="C187" t="s">
+        <v>159</v>
+      </c>
+      <c r="D187" t="s">
+        <v>249</v>
+      </c>
+      <c r="E187" t="s">
+        <v>68</v>
+      </c>
+      <c r="F187" t="s">
+        <v>243</v>
+      </c>
+      <c r="G187" t="s">
+        <v>156</v>
+      </c>
+      <c r="H187" t="s">
+        <v>17</v>
+      </c>
+      <c r="I187" t="s">
+        <v>79</v>
+      </c>
+      <c r="J187" t="s">
+        <v>14</v>
+      </c>
+      <c r="K187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>159</v>
+      </c>
+      <c r="C188" t="s">
+        <v>159</v>
+      </c>
+      <c r="D188" t="s">
+        <v>250</v>
+      </c>
+      <c r="E188" t="s">
+        <v>68</v>
+      </c>
+      <c r="F188" t="s">
+        <v>243</v>
+      </c>
+      <c r="G188" t="s">
+        <v>156</v>
+      </c>
+      <c r="H188" t="s">
+        <v>17</v>
+      </c>
+      <c r="I188" t="s">
+        <v>244</v>
+      </c>
+      <c r="J188" t="s">
+        <v>14</v>
+      </c>
+      <c r="K188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>159</v>
+      </c>
+      <c r="C189" t="s">
+        <v>159</v>
+      </c>
+      <c r="D189" t="s">
+        <v>251</v>
+      </c>
+      <c r="E189" t="s">
+        <v>68</v>
+      </c>
+      <c r="F189" t="s">
+        <v>243</v>
+      </c>
+      <c r="G189" t="s">
+        <v>156</v>
+      </c>
+      <c r="H189" t="s">
+        <v>17</v>
+      </c>
+      <c r="I189" t="s">
+        <v>25</v>
+      </c>
+      <c r="J189" t="s">
+        <v>28</v>
+      </c>
+      <c r="K189" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="B190" t="s">
+        <v>159</v>
+      </c>
+      <c r="C190" t="s">
+        <v>159</v>
+      </c>
+      <c r="D190" t="s">
+        <v>92</v>
+      </c>
+      <c r="E190" t="s">
+        <v>68</v>
+      </c>
+      <c r="F190" t="s">
+        <v>243</v>
+      </c>
+      <c r="G190" t="s">
+        <v>156</v>
+      </c>
+      <c r="H190" t="s">
+        <v>17</v>
+      </c>
+      <c r="I190" t="s">
+        <v>68</v>
+      </c>
+      <c r="J190" t="s">
+        <v>28</v>
+      </c>
+      <c r="K190" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>159</v>
+      </c>
+      <c r="C191" t="s">
+        <v>159</v>
+      </c>
+      <c r="D191" t="s">
+        <v>51</v>
+      </c>
+      <c r="E191" t="s">
+        <v>68</v>
+      </c>
+      <c r="F191" t="s">
+        <v>243</v>
+      </c>
+      <c r="G191" t="s">
+        <v>156</v>
+      </c>
+      <c r="H191" t="s">
+        <v>17</v>
+      </c>
+      <c r="I191" t="s">
+        <v>19</v>
+      </c>
+      <c r="J191" t="s">
+        <v>28</v>
+      </c>
+      <c r="K191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B192" t="s">
         <v>49</v>
       </c>
-      <c r="C169" t="s">
-        <v>220</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="C192" t="s">
+        <v>252</v>
+      </c>
+      <c r="D192" t="s">
+        <v>54</v>
+      </c>
+      <c r="E192" t="s">
         <v>68</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F192" t="s">
+        <v>253</v>
+      </c>
+      <c r="G192" t="s">
+        <v>68</v>
+      </c>
+      <c r="H192" t="s">
+        <v>17</v>
+      </c>
+      <c r="I192" t="s">
+        <v>14</v>
+      </c>
+      <c r="J192" t="s">
+        <v>28</v>
+      </c>
+      <c r="K192" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>49</v>
+      </c>
+      <c r="C193" t="s">
+        <v>252</v>
+      </c>
+      <c r="D193" t="s">
+        <v>58</v>
+      </c>
+      <c r="E193" t="s">
+        <v>68</v>
+      </c>
+      <c r="F193" t="s">
+        <v>253</v>
+      </c>
+      <c r="G193" t="s">
+        <v>68</v>
+      </c>
+      <c r="H193" t="s">
+        <v>17</v>
+      </c>
+      <c r="I193" t="s">
+        <v>14</v>
+      </c>
+      <c r="J193" t="s">
+        <v>28</v>
+      </c>
+      <c r="K193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>49</v>
+      </c>
+      <c r="C194" t="s">
+        <v>252</v>
+      </c>
+      <c r="D194" t="s">
+        <v>60</v>
+      </c>
+      <c r="E194" t="s">
+        <v>68</v>
+      </c>
+      <c r="F194" t="s">
+        <v>253</v>
+      </c>
+      <c r="G194" t="s">
+        <v>68</v>
+      </c>
+      <c r="H194" t="s">
+        <v>17</v>
+      </c>
+      <c r="I194" t="s">
+        <v>14</v>
+      </c>
+      <c r="J194" t="s">
+        <v>28</v>
+      </c>
+      <c r="K194" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>49</v>
+      </c>
+      <c r="C195" t="s">
+        <v>252</v>
+      </c>
+      <c r="D195" t="s">
+        <v>61</v>
+      </c>
+      <c r="E195" t="s">
+        <v>68</v>
+      </c>
+      <c r="F195" t="s">
+        <v>253</v>
+      </c>
+      <c r="G195" t="s">
+        <v>68</v>
+      </c>
+      <c r="H195" t="s">
+        <v>17</v>
+      </c>
+      <c r="I195" t="s">
+        <v>14</v>
+      </c>
+      <c r="J195" t="s">
+        <v>28</v>
+      </c>
+      <c r="K195" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>49</v>
+      </c>
+      <c r="C196" t="s">
+        <v>252</v>
+      </c>
+      <c r="D196" t="s">
+        <v>62</v>
+      </c>
+      <c r="E196" t="s">
+        <v>68</v>
+      </c>
+      <c r="F196" t="s">
+        <v>253</v>
+      </c>
+      <c r="G196" t="s">
+        <v>68</v>
+      </c>
+      <c r="H196" t="s">
+        <v>17</v>
+      </c>
+      <c r="I196" t="s">
+        <v>14</v>
+      </c>
+      <c r="J196" t="s">
+        <v>28</v>
+      </c>
+      <c r="K196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>49</v>
+      </c>
+      <c r="C197" t="s">
+        <v>252</v>
+      </c>
+      <c r="D197" t="s">
+        <v>63</v>
+      </c>
+      <c r="E197" t="s">
+        <v>68</v>
+      </c>
+      <c r="F197" t="s">
+        <v>253</v>
+      </c>
+      <c r="G197" t="s">
+        <v>68</v>
+      </c>
+      <c r="H197" t="s">
+        <v>17</v>
+      </c>
+      <c r="I197" t="s">
+        <v>14</v>
+      </c>
+      <c r="J197" t="s">
+        <v>28</v>
+      </c>
+      <c r="K197" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>49</v>
+      </c>
+      <c r="C198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D198" t="s">
+        <v>65</v>
+      </c>
+      <c r="E198" t="s">
+        <v>68</v>
+      </c>
+      <c r="F198" t="s">
+        <v>253</v>
+      </c>
+      <c r="G198" t="s">
+        <v>68</v>
+      </c>
+      <c r="H198" t="s">
+        <v>17</v>
+      </c>
+      <c r="I198" t="s">
+        <v>14</v>
+      </c>
+      <c r="J198" t="s">
+        <v>28</v>
+      </c>
+      <c r="K198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>49</v>
+      </c>
+      <c r="C199" t="s">
+        <v>252</v>
+      </c>
+      <c r="D199" t="s">
+        <v>66</v>
+      </c>
+      <c r="E199" t="s">
+        <v>68</v>
+      </c>
+      <c r="F199" t="s">
+        <v>253</v>
+      </c>
+      <c r="G199" t="s">
+        <v>68</v>
+      </c>
+      <c r="H199" t="s">
+        <v>17</v>
+      </c>
+      <c r="I199" t="s">
+        <v>14</v>
+      </c>
+      <c r="J199" t="s">
+        <v>28</v>
+      </c>
+      <c r="K199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>49</v>
+      </c>
+      <c r="C200" t="s">
+        <v>252</v>
+      </c>
+      <c r="D200" t="s">
         <v>67</v>
       </c>
-      <c r="F169" t="s">
-        <v>187</v>
-      </c>
-      <c r="G169" t="s">
-        <v>67</v>
-      </c>
-      <c r="H169" t="s">
-        <v>17</v>
-      </c>
-      <c r="I169" t="s">
+      <c r="E200" t="s">
+        <v>68</v>
+      </c>
+      <c r="F200" t="s">
+        <v>253</v>
+      </c>
+      <c r="G200" t="s">
+        <v>68</v>
+      </c>
+      <c r="H200" t="s">
+        <v>17</v>
+      </c>
+      <c r="I200" t="s">
         <v>14</v>
       </c>
-      <c r="J169" t="s">
-        <v>28</v>
-      </c>
-      <c r="K169" t="s">
+      <c r="J200" t="s">
+        <v>28</v>
+      </c>
+      <c r="K200" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" t="s">
+        <v>252</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" t="s">
+        <v>68</v>
+      </c>
+      <c r="F201" t="s">
+        <v>253</v>
+      </c>
+      <c r="G201" t="s">
+        <v>68</v>
+      </c>
+      <c r="H201" t="s">
+        <v>17</v>
+      </c>
+      <c r="I201" t="s">
+        <v>14</v>
+      </c>
+      <c r="J201" t="s">
+        <v>28</v>
+      </c>
+      <c r="K201" t="s">
         <v>17</v>
       </c>
     </row>
